--- a/Excel/clase 14_03_2021 Señales.xlsx
+++ b/Excel/clase 14_03_2021 Señales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55248DEF-48E2-437C-B600-71D13A159634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3276FB6-DCA9-427A-B0D1-34E94E55FB1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6C5B911D-832E-47A5-B2E4-21206648A8E9}"/>
   </bookViews>
@@ -100,8 +100,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
@@ -120,7 +120,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Entrada de lápiz 15">
@@ -165,8 +165,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>8460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
@@ -185,7 +185,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Entrada de lápiz 21">
@@ -230,8 +230,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>162120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
@@ -250,7 +250,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -295,8 +295,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>127680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Entrada de lápiz 74">
@@ -315,7 +315,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Entrada de lápiz 74">
@@ -360,8 +360,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="86" name="Entrada de lápiz 85">
@@ -380,7 +380,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="86" name="Entrada de lápiz 85">
@@ -425,8 +425,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>120360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Entrada de lápiz 89">
@@ -445,7 +445,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Entrada de lápiz 89">
@@ -490,8 +490,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>40080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="91" name="Entrada de lápiz 90">
@@ -510,7 +510,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="91" name="Entrada de lápiz 90">
@@ -555,8 +555,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>10740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="96" name="Entrada de lápiz 95">
@@ -575,7 +575,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="96" name="Entrada de lápiz 95">
@@ -620,8 +620,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>86700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -640,7 +640,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -685,8 +685,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>51960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="Entrada de lápiz 111">
@@ -705,7 +705,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="Entrada de lápiz 111">
@@ -750,8 +750,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>64200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Entrada de lápiz 117">
@@ -770,7 +770,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Entrada de lápiz 117">
@@ -815,8 +815,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>116040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Entrada de lápiz 128">
@@ -835,7 +835,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Entrada de lápiz 128">
@@ -880,8 +880,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
@@ -900,7 +900,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Entrada de lápiz 129">
@@ -945,8 +945,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>182820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Entrada de lápiz 138">
@@ -965,7 +965,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Entrada de lápiz 138">
@@ -1010,8 +1010,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Entrada de lápiz 139">
@@ -1030,7 +1030,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Entrada de lápiz 139">
@@ -1075,8 +1075,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Entrada de lápiz 149">
@@ -1095,7 +1095,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Entrada de lápiz 149">
@@ -1140,8 +1140,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>20100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Entrada de lápiz 150">
@@ -1160,7 +1160,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Entrada de lápiz 150">
@@ -1205,8 +1205,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>5880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Entrada de lápiz 154">
@@ -1225,7 +1225,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Entrada de lápiz 154">
@@ -1270,8 +1270,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>132540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Entrada de lápiz 177">
@@ -1290,7 +1290,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Entrada de lápiz 177">
@@ -1335,8 +1335,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>184140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="179" name="Entrada de lápiz 178">
@@ -1355,7 +1355,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="179" name="Entrada de lápiz 178">
@@ -1400,8 +1400,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="195" name="Entrada de lápiz 194">
@@ -1420,7 +1420,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="195" name="Entrada de lápiz 194">
@@ -1465,8 +1465,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>115380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="215" name="Entrada de lápiz 214">
@@ -1485,7 +1485,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="215" name="Entrada de lápiz 214">
@@ -1530,8 +1530,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>171420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="243" name="Entrada de lápiz 242">
@@ -1550,7 +1550,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="243" name="Entrada de lápiz 242">
@@ -1595,8 +1595,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>127860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="250" name="Entrada de lápiz 249">
@@ -1615,7 +1615,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="250" name="Entrada de lápiz 249">
@@ -1660,8 +1660,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>35760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="264" name="Entrada de lápiz 263">
@@ -1680,7 +1680,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="264" name="Entrada de lápiz 263">
@@ -1725,8 +1725,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>18840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="272" name="Entrada de lápiz 271">
@@ -1745,7 +1745,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="272" name="Entrada de lápiz 271">
@@ -1790,8 +1790,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="273" name="Entrada de lápiz 272">
@@ -1810,7 +1810,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="273" name="Entrada de lápiz 272">
@@ -1855,8 +1855,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>125100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Entrada de lápiz 279">
@@ -1875,7 +1875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Entrada de lápiz 279">
@@ -1920,8 +1920,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="293" name="Entrada de lápiz 292">
@@ -1940,7 +1940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="293" name="Entrada de lápiz 292">
@@ -1985,8 +1985,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>96420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="304" name="Entrada de lápiz 303">
@@ -2005,7 +2005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="304" name="Entrada de lápiz 303">
@@ -2050,8 +2050,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>8220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="305" name="Entrada de lápiz 304">
@@ -2070,7 +2070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="305" name="Entrada de lápiz 304">
@@ -2115,8 +2115,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>155280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="308" name="Entrada de lápiz 307">
@@ -2135,7 +2135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="308" name="Entrada de lápiz 307">
@@ -2180,8 +2180,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>131520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="320" name="Entrada de lápiz 319">
@@ -2200,7 +2200,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="320" name="Entrada de lápiz 319">
@@ -2245,8 +2245,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="321" name="Entrada de lápiz 320">
@@ -2265,7 +2265,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="321" name="Entrada de lápiz 320">
@@ -2310,8 +2310,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="322" name="Entrada de lápiz 321">
@@ -2330,7 +2330,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="322" name="Entrada de lápiz 321">
@@ -2375,8 +2375,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>97800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="323" name="Entrada de lápiz 322">
@@ -2395,7 +2395,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="323" name="Entrada de lápiz 322">
@@ -2440,8 +2440,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>2760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="324" name="Entrada de lápiz 323">
@@ -2460,7 +2460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="324" name="Entrada de lápiz 323">
@@ -2505,8 +2505,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>155100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="325" name="Entrada de lápiz 324">
@@ -2525,7 +2525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="325" name="Entrada de lápiz 324">
@@ -2570,8 +2570,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>104700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="328" name="Entrada de lápiz 327">
@@ -2590,7 +2590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="328" name="Entrada de lápiz 327">
@@ -2635,8 +2635,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>125460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="333" name="Entrada de lápiz 332">
@@ -2655,7 +2655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="333" name="Entrada de lápiz 332">
@@ -2700,8 +2700,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>80400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="338" name="Entrada de lápiz 337">
@@ -2720,7 +2720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="338" name="Entrada de lápiz 337">
@@ -2765,8 +2765,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="341" name="Entrada de lápiz 340">
@@ -2785,7 +2785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="341" name="Entrada de lápiz 340">
@@ -2830,8 +2830,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>158700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="342" name="Entrada de lápiz 341">
@@ -2850,7 +2850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="342" name="Entrada de lápiz 341">
@@ -2895,8 +2895,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>174540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="361" name="Entrada de lápiz 360">
@@ -2915,7 +2915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="361" name="Entrada de lápiz 360">
@@ -2960,8 +2960,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>1200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="369" name="Entrada de lápiz 368">
@@ -2980,7 +2980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="369" name="Entrada de lápiz 368">
@@ -3025,8 +3025,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>11640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3045,7 +3045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3090,8 +3090,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="377" name="Entrada de lápiz 376">
@@ -3110,7 +3110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="377" name="Entrada de lápiz 376">
@@ -3155,8 +3155,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="378" name="Entrada de lápiz 377">
@@ -3175,7 +3175,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="378" name="Entrada de lápiz 377">
@@ -3220,8 +3220,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>116400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="379" name="Entrada de lápiz 378">
@@ -3240,7 +3240,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="379" name="Entrada de lápiz 378">
@@ -3285,8 +3285,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>142500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="382" name="Entrada de lápiz 381">
@@ -3305,7 +3305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="382" name="Entrada de lápiz 381">
@@ -3350,8 +3350,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>20640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="388" name="Entrada de lápiz 387">
@@ -3370,7 +3370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="388" name="Entrada de lápiz 387">
@@ -3415,8 +3415,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>95160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="411" name="Entrada de lápiz 410">
@@ -3435,7 +3435,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="411" name="Entrada de lápiz 410">
@@ -3480,8 +3480,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>85800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="412" name="Entrada de lápiz 411">
@@ -3500,7 +3500,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="412" name="Entrada de lápiz 411">
@@ -3545,8 +3545,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="415" name="Entrada de lápiz 414">
@@ -3565,7 +3565,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="415" name="Entrada de lápiz 414">
@@ -3610,8 +3610,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>76380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="418" name="Entrada de lápiz 417">
@@ -3630,7 +3630,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="418" name="Entrada de lápiz 417">
@@ -3675,8 +3675,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>133680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="419" name="Entrada de lápiz 418">
@@ -3695,7 +3695,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="419" name="Entrada de lápiz 418">
@@ -3740,8 +3740,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>76080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="420" name="Entrada de lápiz 419">
@@ -3760,7 +3760,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="420" name="Entrada de lápiz 419">
@@ -3805,8 +3805,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="424" name="Entrada de lápiz 423">
@@ -3825,7 +3825,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="424" name="Entrada de lápiz 423">
@@ -3870,8 +3870,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="431" name="Entrada de lápiz 430">
@@ -3890,7 +3890,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="431" name="Entrada de lápiz 430">
@@ -3935,8 +3935,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>138480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="445" name="Entrada de lápiz 444">
@@ -3955,7 +3955,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="445" name="Entrada de lápiz 444">
@@ -4000,8 +4000,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>177240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="448" name="Entrada de lápiz 447">
@@ -4020,7 +4020,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="448" name="Entrada de lápiz 447">
@@ -4065,8 +4065,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="451" name="Entrada de lápiz 450">
@@ -4085,7 +4085,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="451" name="Entrada de lápiz 450">
@@ -4130,8 +4130,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>144540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="454" name="Entrada de lápiz 453">
@@ -4150,7 +4150,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="454" name="Entrada de lápiz 453">
@@ -4195,8 +4195,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>87660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="463" name="Entrada de lápiz 462">
@@ -4215,7 +4215,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="463" name="Entrada de lápiz 462">
@@ -4260,8 +4260,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>47700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="464" name="Entrada de lápiz 463">
@@ -4280,7 +4280,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="464" name="Entrada de lápiz 463">
@@ -4325,8 +4325,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>119580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="473" name="Entrada de lápiz 472">
@@ -4345,7 +4345,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="473" name="Entrada de lápiz 472">
@@ -4390,8 +4390,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>111120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="481" name="Entrada de lápiz 480">
@@ -4410,7 +4410,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="481" name="Entrada de lápiz 480">
@@ -4455,8 +4455,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>24720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="482" name="Entrada de lápiz 481">
@@ -4475,7 +4475,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="482" name="Entrada de lápiz 481">
@@ -4520,8 +4520,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>183120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="483" name="Entrada de lápiz 482">
@@ -4540,7 +4540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="483" name="Entrada de lápiz 482">
@@ -4585,8 +4585,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>182040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="489" name="Entrada de lápiz 488">
@@ -4605,7 +4605,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="489" name="Entrada de lápiz 488">
@@ -4650,8 +4650,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>164340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="496" name="Entrada de lápiz 495">
@@ -4670,7 +4670,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="496" name="Entrada de lápiz 495">
@@ -4715,8 +4715,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>125760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="512" name="Entrada de lápiz 511">
@@ -4735,7 +4735,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="512" name="Entrada de lápiz 511">
@@ -4780,8 +4780,8 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>39300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="513" name="Entrada de lápiz 512">
@@ -4800,7 +4800,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="513" name="Entrada de lápiz 512">
@@ -4845,8 +4845,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>68520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="518" name="Entrada de lápiz 517">
@@ -4865,7 +4865,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="518" name="Entrada de lápiz 517">
@@ -4910,8 +4910,8 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="519" name="Entrada de lápiz 518">
@@ -4930,7 +4930,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="519" name="Entrada de lápiz 518">
@@ -4975,8 +4975,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>129000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="528" name="Entrada de lápiz 527">
@@ -4995,7 +4995,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="528" name="Entrada de lápiz 527">
@@ -5040,8 +5040,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>77160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="529" name="Entrada de lápiz 528">
@@ -5060,7 +5060,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="529" name="Entrada de lápiz 528">
@@ -5105,8 +5105,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>111000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="536" name="Entrada de lápiz 535">
@@ -5125,7 +5125,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="536" name="Entrada de lápiz 535">
@@ -5170,8 +5170,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>170400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="537" name="Entrada de lápiz 536">
@@ -5190,7 +5190,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="537" name="Entrada de lápiz 536">
@@ -5235,8 +5235,8 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>38220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="541" name="Entrada de lápiz 540">
@@ -5255,7 +5255,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="541" name="Entrada de lápiz 540">
@@ -5300,8 +5300,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>127380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="542" name="Entrada de lápiz 541">
@@ -5320,7 +5320,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="542" name="Entrada de lápiz 541">
@@ -5365,8 +5365,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>116220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="543" name="Entrada de lápiz 542">
@@ -5385,7 +5385,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="543" name="Entrada de lápiz 542">
@@ -5430,8 +5430,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>15060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId164">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="546" name="Entrada de lápiz 545">
@@ -5450,7 +5450,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="546" name="Entrada de lápiz 545">
@@ -5495,8 +5495,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>8580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId166">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="563" name="Entrada de lápiz 562">
@@ -5515,7 +5515,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="563" name="Entrada de lápiz 562">
@@ -5560,8 +5560,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>88500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="590" name="Entrada de lápiz 589">
@@ -5580,7 +5580,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="590" name="Entrada de lápiz 589">
@@ -5625,8 +5625,8 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>95940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="592" name="Entrada de lápiz 591">
@@ -5645,7 +5645,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="592" name="Entrada de lápiz 591">
@@ -5690,8 +5690,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>124680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="594" name="Entrada de lápiz 593">
@@ -5710,7 +5710,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="594" name="Entrada de lápiz 593">
@@ -5760,8 +5760,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>181380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
@@ -5780,7 +5780,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Entrada de lápiz 18">
@@ -5825,8 +5825,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>83340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -5845,7 +5845,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -5890,8 +5890,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>69300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -5910,7 +5910,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -5955,8 +5955,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>77220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
@@ -5975,7 +5975,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Entrada de lápiz 32">
@@ -6020,8 +6020,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>154140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
@@ -6040,7 +6040,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Entrada de lápiz 40">
@@ -6085,8 +6085,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>17100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Entrada de lápiz 48">
@@ -6105,7 +6105,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Entrada de lápiz 48">
@@ -6150,8 +6150,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>61740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Entrada de lápiz 49">
@@ -6170,7 +6170,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Entrada de lápiz 49">
@@ -6215,8 +6215,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Entrada de lápiz 50">
@@ -6235,7 +6235,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Entrada de lápiz 50">
@@ -6280,8 +6280,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>180960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Entrada de lápiz 51">
@@ -6300,7 +6300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Entrada de lápiz 51">
@@ -6345,8 +6345,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
@@ -6365,7 +6365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Entrada de lápiz 52">
@@ -6410,8 +6410,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>75420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Entrada de lápiz 53">
@@ -6430,7 +6430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Entrada de lápiz 53">
@@ -6475,8 +6475,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>27540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Entrada de lápiz 54">
@@ -6495,7 +6495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Entrada de lápiz 54">
@@ -6540,8 +6540,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Entrada de lápiz 55">
@@ -6560,7 +6560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Entrada de lápiz 55">
@@ -6605,8 +6605,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Entrada de lápiz 56">
@@ -6625,7 +6625,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Entrada de lápiz 56">
@@ -6670,8 +6670,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Entrada de lápiz 57">
@@ -6690,7 +6690,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Entrada de lápiz 57">
@@ -6735,8 +6735,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Entrada de lápiz 69">
@@ -6755,7 +6755,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Entrada de lápiz 69">
@@ -6800,8 +6800,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>4440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -6820,7 +6820,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -6865,8 +6865,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Entrada de lápiz 72">
@@ -6885,7 +6885,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Entrada de lápiz 72">
@@ -6930,8 +6930,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Entrada de lápiz 78">
@@ -6950,7 +6950,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Entrada de lápiz 78">
@@ -6995,8 +6995,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -7015,7 +7015,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -7060,8 +7060,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Entrada de lápiz 80">
@@ -7080,7 +7080,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Entrada de lápiz 80">
@@ -7125,8 +7125,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="86" name="Entrada de lápiz 85">
@@ -7145,7 +7145,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="86" name="Entrada de lápiz 85">
@@ -7190,8 +7190,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="91" name="Entrada de lápiz 90">
@@ -7210,7 +7210,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="91" name="Entrada de lápiz 90">
@@ -7255,8 +7255,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>117540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Entrada de lápiz 91">
@@ -7275,7 +7275,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Entrada de lápiz 91">
@@ -7320,8 +7320,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>125460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Entrada de lápiz 92">
@@ -7340,7 +7340,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Entrada de lápiz 92">
@@ -7385,8 +7385,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="97" name="Entrada de lápiz 96">
@@ -7405,7 +7405,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="97" name="Entrada de lápiz 96">
@@ -7450,8 +7450,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Entrada de lápiz 97">
@@ -7470,7 +7470,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Entrada de lápiz 97">
@@ -7515,8 +7515,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>126300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
@@ -7535,7 +7535,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Entrada de lápiz 109">
@@ -7580,8 +7580,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>27300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Entrada de lápiz 110">
@@ -7600,7 +7600,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Entrada de lápiz 110">
@@ -7645,8 +7645,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="Entrada de lápiz 111">
@@ -7665,7 +7665,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="Entrada de lápiz 111">
@@ -7710,8 +7710,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>189780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
@@ -7730,7 +7730,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Entrada de lápiz 112">
@@ -7775,8 +7775,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>17340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Entrada de lápiz 115">
@@ -7795,7 +7795,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Entrada de lápiz 115">
@@ -7840,8 +7840,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -7860,7 +7860,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -7905,8 +7905,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>46140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Entrada de lápiz 124">
@@ -7925,7 +7925,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Entrada de lápiz 124">
@@ -7970,8 +7970,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>125700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -7990,7 +7990,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -8035,8 +8035,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>58860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Entrada de lápiz 134">
@@ -8055,7 +8055,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Entrada de lápiz 134">
@@ -8100,8 +8100,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -8120,7 +8120,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -8165,8 +8165,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>103080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="142" name="Entrada de lápiz 141">
@@ -8185,7 +8185,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="142" name="Entrada de lápiz 141">
@@ -8230,8 +8230,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>136200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Entrada de lápiz 142">
@@ -8250,7 +8250,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Entrada de lápiz 142">
@@ -8295,8 +8295,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Entrada de lápiz 146">
@@ -8315,7 +8315,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Entrada de lápiz 146">
@@ -8360,8 +8360,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Entrada de lápiz 157">
@@ -8380,7 +8380,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Entrada de lápiz 157">
@@ -8425,8 +8425,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>77820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="159" name="Entrada de lápiz 158">
@@ -8445,7 +8445,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="159" name="Entrada de lápiz 158">
@@ -8490,8 +8490,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>72480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="176" name="Entrada de lápiz 175">
@@ -8510,7 +8510,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="176" name="Entrada de lápiz 175">
@@ -8555,8 +8555,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="177" name="Entrada de lápiz 176">
@@ -8575,7 +8575,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="177" name="Entrada de lápiz 176">
@@ -8620,8 +8620,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Entrada de lápiz 181">
@@ -8640,7 +8640,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Entrada de lápiz 181">
@@ -8685,8 +8685,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="194" name="Entrada de lápiz 193">
@@ -8705,7 +8705,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="194" name="Entrada de lápiz 193">
@@ -8750,8 +8750,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>160860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="207" name="Entrada de lápiz 206">
@@ -8770,7 +8770,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="207" name="Entrada de lápiz 206">
@@ -8815,8 +8815,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>158520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="Entrada de lápiz 207">
@@ -8835,7 +8835,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="Entrada de lápiz 207">
@@ -8880,8 +8880,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="211" name="Entrada de lápiz 210">
@@ -8900,7 +8900,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="211" name="Entrada de lápiz 210">
@@ -8945,8 +8945,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>143340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Entrada de lápiz 217">
@@ -8965,7 +8965,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Entrada de lápiz 217">
@@ -9010,8 +9010,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>181200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Entrada de lápiz 221">
@@ -9030,7 +9030,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Entrada de lápiz 221">
@@ -9075,8 +9075,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>56640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="Entrada de lápiz 222">
@@ -9095,7 +9095,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="Entrada de lápiz 222">
@@ -9140,8 +9140,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>61020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="226" name="Entrada de lápiz 225">
@@ -9160,7 +9160,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="226" name="Entrada de lápiz 225">
@@ -9205,8 +9205,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>152580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="227" name="Entrada de lápiz 226">
@@ -9225,7 +9225,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="227" name="Entrada de lápiz 226">
@@ -9270,8 +9270,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>85920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="228" name="Entrada de lápiz 227">
@@ -9290,7 +9290,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="228" name="Entrada de lápiz 227">
@@ -9335,8 +9335,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>44040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Entrada de lápiz 238">
@@ -9355,7 +9355,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Entrada de lápiz 238">
@@ -9400,8 +9400,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>86220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="241" name="Entrada de lápiz 240">
@@ -9420,7 +9420,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="241" name="Entrada de lápiz 240">
@@ -9465,8 +9465,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>94980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="242" name="Entrada de lápiz 241">
@@ -9485,7 +9485,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="242" name="Entrada de lápiz 241">
@@ -9530,8 +9530,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="243" name="Entrada de lápiz 242">
@@ -9550,7 +9550,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="243" name="Entrada de lápiz 242">
@@ -9595,8 +9595,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>88440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="244" name="Entrada de lápiz 243">
@@ -9615,7 +9615,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="244" name="Entrada de lápiz 243">
@@ -9660,8 +9660,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>75180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="245" name="Entrada de lápiz 244">
@@ -9680,7 +9680,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="245" name="Entrada de lápiz 244">
@@ -9725,8 +9725,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="246" name="Entrada de lápiz 245">
@@ -9745,7 +9745,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="246" name="Entrada de lápiz 245">
@@ -9790,8 +9790,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>105780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="251" name="Entrada de lápiz 250">
@@ -9810,7 +9810,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="251" name="Entrada de lápiz 250">
@@ -9855,8 +9855,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>188940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="252" name="Entrada de lápiz 251">
@@ -9875,7 +9875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="252" name="Entrada de lápiz 251">
@@ -9920,8 +9920,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>161160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="253" name="Entrada de lápiz 252">
@@ -9940,7 +9940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="253" name="Entrada de lápiz 252">
@@ -9985,8 +9985,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>10740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="257" name="Entrada de lápiz 256">
@@ -10005,7 +10005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="257" name="Entrada de lápiz 256">
@@ -10050,8 +10050,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>28680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="265" name="Entrada de lápiz 264">
@@ -10070,7 +10070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="265" name="Entrada de lápiz 264">
@@ -10115,8 +10115,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="273" name="Entrada de lápiz 272">
@@ -10135,7 +10135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="273" name="Entrada de lápiz 272">
@@ -10180,8 +10180,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="274" name="Entrada de lápiz 273">
@@ -10200,7 +10200,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="274" name="Entrada de lápiz 273">
@@ -10245,8 +10245,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>48900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Entrada de lápiz 279">
@@ -10265,7 +10265,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Entrada de lápiz 279">
@@ -10310,8 +10310,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>123780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="281" name="Entrada de lápiz 280">
@@ -10330,7 +10330,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="281" name="Entrada de lápiz 280">
@@ -10375,8 +10375,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>20100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="282" name="Entrada de lápiz 281">
@@ -10395,7 +10395,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="282" name="Entrada de lápiz 281">
@@ -10440,8 +10440,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>90525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="294" name="Entrada de lápiz 293">
@@ -10460,7 +10460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="294" name="Entrada de lápiz 293">
@@ -10505,8 +10505,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>115425</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="297" name="Entrada de lápiz 296">
@@ -10525,7 +10525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="297" name="Entrada de lápiz 296">
@@ -10570,8 +10570,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>10605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="302" name="Entrada de lápiz 301">
@@ -10590,7 +10590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="302" name="Entrada de lápiz 301">
@@ -10635,8 +10635,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>181980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="304" name="Entrada de lápiz 303">
@@ -10655,7 +10655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="304" name="Entrada de lápiz 303">
@@ -10700,8 +10700,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>31500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="316" name="Entrada de lápiz 315">
@@ -10720,7 +10720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="316" name="Entrada de lápiz 315">
@@ -10765,8 +10765,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>108540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="328" name="Entrada de lápiz 327">
@@ -10785,7 +10785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="328" name="Entrada de lápiz 327">
@@ -10830,8 +10830,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="365" name="Entrada de lápiz 364">
@@ -10850,7 +10850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="365" name="Entrada de lápiz 364">
@@ -10895,8 +10895,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>136560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="366" name="Entrada de lápiz 365">
@@ -10915,7 +10915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="366" name="Entrada de lápiz 365">
@@ -10960,8 +10960,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>17220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId159">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="367" name="Entrada de lápiz 366">
@@ -10980,7 +10980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="367" name="Entrada de lápiz 366">
@@ -11025,8 +11025,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId161">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="368" name="Entrada de lápiz 367">
@@ -11045,7 +11045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="368" name="Entrada de lápiz 367">
@@ -11090,8 +11090,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>10860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId163">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="379" name="Entrada de lápiz 378">
@@ -11110,7 +11110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="379" name="Entrada de lápiz 378">
@@ -11155,8 +11155,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>60</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId165">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="418" name="Entrada de lápiz 417">
@@ -11175,7 +11175,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="418" name="Entrada de lápiz 417">
@@ -11220,8 +11220,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId167">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="419" name="Entrada de lápiz 418">
@@ -11240,7 +11240,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="419" name="Entrada de lápiz 418">
@@ -11285,8 +11285,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>125700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="420" name="Entrada de lápiz 419">
@@ -11305,7 +11305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="420" name="Entrada de lápiz 419">
@@ -11350,8 +11350,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>148020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="427" name="Entrada de lápiz 426">
@@ -11370,7 +11370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="427" name="Entrada de lápiz 426">
@@ -11415,8 +11415,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>87900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="449" name="Entrada de lápiz 448">
@@ -11435,7 +11435,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="449" name="Entrada de lápiz 448">
@@ -11480,8 +11480,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="460" name="Entrada de lápiz 459">
@@ -11500,7 +11500,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="460" name="Entrada de lápiz 459">
@@ -11545,8 +11545,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId176">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="461" name="Entrada de lápiz 460">
@@ -11565,7 +11565,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="461" name="Entrada de lápiz 460">
@@ -11610,8 +11610,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId178">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="485" name="Entrada de lápiz 484">
@@ -11630,7 +11630,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="485" name="Entrada de lápiz 484">
@@ -11675,8 +11675,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId180">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="486" name="Entrada de lápiz 485">
@@ -11695,7 +11695,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="486" name="Entrada de lápiz 485">
@@ -11740,8 +11740,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId181">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="491" name="Entrada de lápiz 490">
@@ -11760,7 +11760,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="491" name="Entrada de lápiz 490">
@@ -11805,8 +11805,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId183">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="492" name="Entrada de lápiz 491">
@@ -11825,7 +11825,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="492" name="Entrada de lápiz 491">
@@ -11870,8 +11870,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>99300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId185">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="518" name="Entrada de lápiz 517">
@@ -11890,7 +11890,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="518" name="Entrada de lápiz 517">
@@ -11935,8 +11935,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>48060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId187">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="522" name="Entrada de lápiz 521">
@@ -11955,7 +11955,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="522" name="Entrada de lápiz 521">
@@ -12000,8 +12000,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>114660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId189">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="539" name="Entrada de lápiz 538">
@@ -12020,7 +12020,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="539" name="Entrada de lápiz 538">
@@ -12065,8 +12065,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>142020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId191">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="553" name="Entrada de lápiz 552">
@@ -12085,7 +12085,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="553" name="Entrada de lápiz 552">
@@ -12130,8 +12130,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>40860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId193">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="558" name="Entrada de lápiz 557">
@@ -12150,7 +12150,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="558" name="Entrada de lápiz 557">
@@ -12195,8 +12195,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>61500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId195">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="567" name="Entrada de lápiz 566">
@@ -12215,7 +12215,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="567" name="Entrada de lápiz 566">
@@ -12260,8 +12260,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>134100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId197">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="584" name="Entrada de lápiz 583">
@@ -12280,7 +12280,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="584" name="Entrada de lápiz 583">
@@ -12325,8 +12325,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId199">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="592" name="Entrada de lápiz 591">
@@ -12345,7 +12345,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="592" name="Entrada de lápiz 591">
@@ -12390,8 +12390,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>98520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId201">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="606" name="Entrada de lápiz 605">
@@ -12410,7 +12410,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="606" name="Entrada de lápiz 605">
@@ -12455,8 +12455,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>51660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId203">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="607" name="Entrada de lápiz 606">
@@ -12475,7 +12475,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="607" name="Entrada de lápiz 606">
@@ -12520,8 +12520,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>52380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId205">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="608" name="Entrada de lápiz 607">
@@ -12540,7 +12540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="608" name="Entrada de lápiz 607">
@@ -12585,8 +12585,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId207">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="614" name="Entrada de lápiz 613">
@@ -12605,7 +12605,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="614" name="Entrada de lápiz 613">
@@ -12650,8 +12650,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>114180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId209">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="625" name="Entrada de lápiz 624">
@@ -12670,7 +12670,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="625" name="Entrada de lápiz 624">
@@ -12715,8 +12715,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId211">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="630" name="Entrada de lápiz 629">
@@ -12735,7 +12735,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="630" name="Entrada de lápiz 629">
@@ -12780,8 +12780,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId213">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="652" name="Entrada de lápiz 651">
@@ -12800,7 +12800,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="652" name="Entrada de lápiz 651">
@@ -12845,8 +12845,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>189960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId215">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="655" name="Entrada de lápiz 654">
@@ -12865,7 +12865,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="655" name="Entrada de lápiz 654">
@@ -12910,8 +12910,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>70020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId217">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="665" name="Entrada de lápiz 664">
@@ -12930,7 +12930,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="665" name="Entrada de lápiz 664">
@@ -12975,8 +12975,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>120060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId219">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="678" name="Entrada de lápiz 677">
@@ -12995,7 +12995,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="678" name="Entrada de lápiz 677">
@@ -13040,8 +13040,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId221">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="685" name="Entrada de lápiz 684">
@@ -13060,7 +13060,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="685" name="Entrada de lápiz 684">
@@ -13105,8 +13105,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>96300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId223">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="691" name="Entrada de lápiz 690">
@@ -13125,7 +13125,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="691" name="Entrada de lápiz 690">
@@ -13170,8 +13170,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>189900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId225">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="704" name="Entrada de lápiz 703">
@@ -13190,7 +13190,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="704" name="Entrada de lápiz 703">
@@ -13235,8 +13235,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>21840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId227">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="707" name="Entrada de lápiz 706">
@@ -13255,7 +13255,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="707" name="Entrada de lápiz 706">
@@ -13300,8 +13300,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>143160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId229">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="708" name="Entrada de lápiz 707">
@@ -13320,7 +13320,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="708" name="Entrada de lápiz 707">
@@ -13365,8 +13365,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>30060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId231">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="709" name="Entrada de lápiz 708">
@@ -13385,7 +13385,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="709" name="Entrada de lápiz 708">
@@ -13430,8 +13430,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId233">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="710" name="Entrada de lápiz 709">
@@ -13450,7 +13450,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="710" name="Entrada de lápiz 709">
@@ -13495,8 +13495,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId235">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="718" name="Entrada de lápiz 717">
@@ -13515,7 +13515,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="718" name="Entrada de lápiz 717">
@@ -13565,8 +13565,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>37980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
@@ -13585,7 +13585,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
@@ -13630,8 +13630,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -13650,7 +13650,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -13695,8 +13695,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -13715,7 +13715,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -13760,8 +13760,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -13780,7 +13780,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -13825,8 +13825,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -13845,7 +13845,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -13890,8 +13890,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>143040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -13910,7 +13910,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -13955,8 +13955,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
@@ -13975,7 +13975,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Entrada de lápiz 21">
@@ -14020,8 +14020,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
@@ -14040,7 +14040,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Entrada de lápiz 37">
@@ -14085,8 +14085,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>108780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Entrada de lápiz 49">
@@ -14105,7 +14105,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Entrada de lápiz 49">
@@ -14150,8 +14150,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -14170,7 +14170,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -14215,8 +14215,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="99" name="Entrada de lápiz 98">
@@ -14235,7 +14235,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="99" name="Entrada de lápiz 98">
@@ -14280,8 +14280,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Entrada de lápiz 118">
@@ -14300,7 +14300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Entrada de lápiz 118">
@@ -14345,8 +14345,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>173760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Entrada de lápiz 127">
@@ -14365,7 +14365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Entrada de lápiz 127">
@@ -14410,8 +14410,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -14430,7 +14430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -14475,8 +14475,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>69300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Entrada de lápiz 150">
@@ -14495,7 +14495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Entrada de lápiz 150">
@@ -14540,8 +14540,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Entrada de lápiz 154">
@@ -14560,7 +14560,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Entrada de lápiz 154">
@@ -14605,8 +14605,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>98340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Entrada de lápiz 159">
@@ -14625,7 +14625,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Entrada de lápiz 159">
@@ -14670,8 +14670,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>46860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="165" name="Entrada de lápiz 164">
@@ -14690,7 +14690,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="165" name="Entrada de lápiz 164">
@@ -14735,8 +14735,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>122880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="175" name="Entrada de lápiz 174">
@@ -14755,7 +14755,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="175" name="Entrada de lápiz 174">
@@ -14800,8 +14800,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>153840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Entrada de lápiz 181">
@@ -14820,7 +14820,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Entrada de lápiz 181">
@@ -14865,48 +14865,2323 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>143400</xdr:rowOff>
     </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F566CB-1033-4948-9828-D9FA0DA4FD35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7745400" y="609120"/>
+            <a:ext cx="3827160" cy="1439280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="184" name="Entrada de lápiz 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F566CB-1033-4948-9828-D9FA0DA4FD35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7727400" y="591120"/>
+              <a:ext cx="3862800" cy="1474920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28560</xdr:rowOff>
+    </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F566CB-1033-4948-9828-D9FA0DA4FD35}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7745400" y="609120"/>
-            <a:ext cx="3827160" cy="1439280"/>
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237BE056-DBE6-49E6-94F8-730A0D8451E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4981320" y="3076200"/>
+            <a:ext cx="360" cy="360"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="184" name="Entrada de lápiz 183">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F566CB-1033-4948-9828-D9FA0DA4FD35}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7727400" y="591120"/>
-              <a:ext cx="3862800" cy="1474920"/>
+            <xdr:cNvPr id="4" name="Entrada de lápiz 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237BE056-DBE6-49E6-94F8-730A0D8451E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4963680" y="3058200"/>
+              <a:ext cx="36000" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12180</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7D1905-5BD6-4E89-BA35-6BA34986C143}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1834200" y="4293300"/>
+            <a:ext cx="330840" cy="290880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Entrada de lápiz 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7D1905-5BD6-4E89-BA35-6BA34986C143}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1816560" y="4275300"/>
+              <a:ext cx="366480" cy="326520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C64145-2535-4D90-83E2-2F171F3DD48B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2379240" y="4180980"/>
+            <a:ext cx="394200" cy="452160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C64145-2535-4D90-83E2-2F171F3DD48B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2361616" y="4162980"/>
+              <a:ext cx="429807" cy="487800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>207600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45180</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D9CF3D-DB60-4B6B-BFB2-6408E59DB217}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1618920" y="1269960"/>
+            <a:ext cx="112680" cy="108720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Entrada de lápiz 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D9CF3D-DB60-4B6B-BFB2-6408E59DB217}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1601280" y="1252320"/>
+              <a:ext cx="148320" cy="144360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE67767-A05B-4BCB-9C0A-9858E4C72E42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1553760" y="1868640"/>
+            <a:ext cx="153360" cy="113040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE67767-A05B-4BCB-9C0A-9858E4C72E42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1535760" y="1851000"/>
+              <a:ext cx="189000" cy="148680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534B8685-59DC-4D84-8798-D040F5525B97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3778920" y="2008320"/>
+            <a:ext cx="100800" cy="86040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Entrada de lápiz 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534B8685-59DC-4D84-8798-D040F5525B97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3761280" y="1990680"/>
+              <a:ext cx="136440" cy="121680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>759000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A019394-6C2E-439F-9651-6C4D2C530414}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1521000" y="4066800"/>
+            <a:ext cx="164880" cy="434520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A019394-6C2E-439F-9651-6C4D2C530414}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1503360" y="4048800"/>
+              <a:ext cx="200520" cy="470160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>725760</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0228EE8-E71F-4D05-BFCD-FC396AB78AB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3011760" y="3942960"/>
+            <a:ext cx="47880" cy="525600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Entrada de lápiz 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0228EE8-E71F-4D05-BFCD-FC396AB78AB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2994120" y="3924960"/>
+              <a:ext cx="83520" cy="561240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>286680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1E34C6-E0CE-4EA7-9101-184428ADDB87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="782640" y="4059600"/>
+            <a:ext cx="266040" cy="485280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Entrada de lápiz 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1E34C6-E0CE-4EA7-9101-184428ADDB87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="764640" y="4041960"/>
+              <a:ext cx="301680" cy="520920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169080</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AB694E-FA01-4E5E-AB5B-951CA6977EC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3979080" y="4113960"/>
+            <a:ext cx="1925280" cy="540360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Entrada de lápiz 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AB694E-FA01-4E5E-AB5B-951CA6977EC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3961080" y="4096308"/>
+              <a:ext cx="1960920" cy="576024"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>540600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EA4FDC-FC13-4CC0-928A-B034FC9265C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6636600" y="3971760"/>
+            <a:ext cx="1033560" cy="603360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Entrada de lápiz 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EA4FDC-FC13-4CC0-928A-B034FC9265C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6618960" y="3953760"/>
+              <a:ext cx="1069200" cy="639000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>729480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="Entrada de lápiz 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10D6A97-EDE4-4BBF-A676-6D1B5DE9C18F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4964040" y="4811160"/>
+            <a:ext cx="1099440" cy="590040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Entrada de lápiz 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10D6A97-EDE4-4BBF-A676-6D1B5DE9C18F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4946040" y="4793520"/>
+              <a:ext cx="1135080" cy="625680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="55" name="Entrada de lápiz 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1B4841-887E-4941-A892-EB12643E88B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4095360" y="4915200"/>
+            <a:ext cx="581400" cy="325440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="55" name="Entrada de lápiz 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1B4841-887E-4941-A892-EB12643E88B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4077720" y="4897200"/>
+              <a:ext cx="617040" cy="361080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Entrada de lápiz 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEEA05F-9986-4F63-BC89-EA32ED1CD6E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4285800" y="5505240"/>
+            <a:ext cx="429120" cy="273240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Entrada de lápiz 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEEA05F-9986-4F63-BC89-EA32ED1CD6E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4268160" y="5487600"/>
+              <a:ext cx="464760" cy="308880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="73" name="Entrada de lápiz 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8980628-C374-42CD-BAB8-2C50B3B3E7FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5047920" y="5400480"/>
+            <a:ext cx="771840" cy="671580"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="73" name="Entrada de lápiz 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8980628-C374-42CD-BAB8-2C50B3B3E7FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5030280" y="5382485"/>
+              <a:ext cx="807480" cy="707210"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>530640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="Entrada de lápiz 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6478F158-1EC7-47D7-9630-910F514B8569}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="530640" y="5845080"/>
+            <a:ext cx="574200" cy="528840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Entrada de lápiz 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6478F158-1EC7-47D7-9630-910F514B8569}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="513000" y="5827440"/>
+              <a:ext cx="609840" cy="564480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="86" name="Entrada de lápiz 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC20932F-3509-4000-8851-4318E99DF273}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1384200" y="5724120"/>
+            <a:ext cx="609480" cy="734760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="Entrada de lápiz 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC20932F-3509-4000-8851-4318E99DF273}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1366560" y="5706120"/>
+              <a:ext cx="645120" cy="770400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560760</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="90" name="Entrada de lápiz 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C512EB9B-461C-479C-8BFA-040A8B7F884C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2084760" y="5628000"/>
+            <a:ext cx="715320" cy="487800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="Entrada de lápiz 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C512EB9B-461C-479C-8BFA-040A8B7F884C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2067120" y="5610000"/>
+              <a:ext cx="750960" cy="523440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141660</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="95" name="Entrada de lápiz 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1973D963-048E-4F4C-82BD-CA940897B9A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8922960" y="4219080"/>
+            <a:ext cx="135360" cy="685080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="95" name="Entrada de lápiz 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1973D963-048E-4F4C-82BD-CA940897B9A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8905320" y="4201080"/>
+              <a:ext cx="171000" cy="720720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="96" name="Entrada de lápiz 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05034E72-9F89-468D-8A27-4D2EEF155047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8410320" y="4371720"/>
+            <a:ext cx="308160" cy="456480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="96" name="Entrada de lápiz 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05034E72-9F89-468D-8A27-4D2EEF155047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8392659" y="4353720"/>
+              <a:ext cx="343842" cy="492120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>761520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>115800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86580</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="97" name="Entrada de lápiz 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672421AB-A39D-4F43-847C-FB6D8416FBF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10667520" y="4238160"/>
+            <a:ext cx="116280" cy="610920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="97" name="Entrada de lápiz 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672421AB-A39D-4F43-847C-FB6D8416FBF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10649880" y="4220160"/>
+              <a:ext cx="151920" cy="646560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>591960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525312D-582C-4C01-9FE0-2FC23127B832}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10239480" y="4467000"/>
+            <a:ext cx="258480" cy="326520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="104" name="Entrada de lápiz 103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7525312D-582C-4C01-9FE0-2FC23127B832}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10221480" y="4449000"/>
+              <a:ext cx="294120" cy="362160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="105" name="Entrada de lápiz 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FAD5F-3D5E-40F7-AE3D-AA06F5D64471}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9105480" y="4311120"/>
+            <a:ext cx="943560" cy="518760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="105" name="Entrada de lápiz 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1FAD5F-3D5E-40F7-AE3D-AA06F5D64471}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9087840" y="4293468"/>
+              <a:ext cx="979200" cy="554425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>759600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Entrada de lápiz 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4693A150-9EA8-4A55-B4EE-368913C56AE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7617600" y="5449800"/>
+            <a:ext cx="393840" cy="600480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Entrada de lápiz 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4693A150-9EA8-4A55-B4EE-368913C56AE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7599960" y="5432160"/>
+              <a:ext cx="429480" cy="636120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>637680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA0B6FA-7CF4-4673-BD85-F16EFE8C78A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8257680" y="5629080"/>
+            <a:ext cx="146880" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="107" name="Entrada de lápiz 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA0B6FA-7CF4-4673-BD85-F16EFE8C78A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8240040" y="5611080"/>
+              <a:ext cx="182520" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1E7AB1-D8F5-4D34-BA9A-5200886E6603}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8219880" y="5743380"/>
+            <a:ext cx="187200" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="108" name="Entrada de lápiz 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1E7AB1-D8F5-4D34-BA9A-5200886E6603}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8202240" y="5725380"/>
+              <a:ext cx="222840" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="118" name="Entrada de lápiz 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792D3AA1-C463-4F95-80BD-4334A08C1534}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8750880" y="5248020"/>
+            <a:ext cx="668880" cy="842040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="118" name="Entrada de lápiz 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792D3AA1-C463-4F95-80BD-4334A08C1534}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8733240" y="5230020"/>
+              <a:ext cx="704520" cy="877680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09294C58-72C6-4793-BE88-812632C41FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9608760" y="5157660"/>
+            <a:ext cx="2133720" cy="803160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="132" name="Entrada de lápiz 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09294C58-72C6-4793-BE88-812632C41FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9590763" y="5139668"/>
+              <a:ext cx="2169354" cy="838784"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="Entrada de lápiz 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D74D39-CD58-44FC-8810-2D79DD8DE873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8244000" y="6123180"/>
+            <a:ext cx="2319840" cy="745920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="Entrada de lápiz 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D74D39-CD58-44FC-8810-2D79DD8DE873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8226003" y="6105180"/>
+              <a:ext cx="2355474" cy="781560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>135540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180840</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="148" name="Entrada de lápiz 147">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0160ED59-F894-4642-9517-BFBF30114A91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2504520" y="6231540"/>
+            <a:ext cx="724320" cy="569880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="148" name="Entrada de lápiz 147">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0160ED59-F894-4642-9517-BFBF30114A91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2486520" y="6213900"/>
+              <a:ext cx="759960" cy="605520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="157" name="Entrada de lápiz 156">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB698D1-F4A4-4863-AD4A-835792F3812A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3447720" y="6219660"/>
+            <a:ext cx="535320" cy="656640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="157" name="Entrada de lápiz 156">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB698D1-F4A4-4863-AD4A-835792F3812A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3430080" y="6201660"/>
+              <a:ext cx="570960" cy="692280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>183960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="158" name="Entrada de lápiz 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51354E7-C814-4178-BEBE-8EB4083E00D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3660480" y="6187980"/>
+            <a:ext cx="446400" cy="663480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="158" name="Entrada de lápiz 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51354E7-C814-4178-BEBE-8EB4083E00D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3642840" y="6169980"/>
+              <a:ext cx="482040" cy="699120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>496200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="162" name="Entrada de lápiz 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1EC395-331F-40A1-8DC5-5AA4087C4D5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1258200" y="5809920"/>
+            <a:ext cx="151560" cy="323280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="162" name="Entrada de lápiz 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1EC395-331F-40A1-8DC5-5AA4087C4D5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240200" y="5791920"/>
+              <a:ext cx="187200" cy="358920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>513840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>716160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="163" name="Entrada de lápiz 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686DD788-6674-434D-A43B-F43ED1D9BA6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1275840" y="5838360"/>
+            <a:ext cx="202320" cy="411840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="163" name="Entrada de lápiz 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686DD788-6674-434D-A43B-F43ED1D9BA6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1258200" y="5820360"/>
+              <a:ext cx="237960" cy="447480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="167" name="Entrada de lápiz 166">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE22252-F988-4A4A-A9FC-55EC04354081}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4362120" y="5476560"/>
+            <a:ext cx="1686600" cy="704520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="167" name="Entrada de lápiz 166">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE22252-F988-4A4A-A9FC-55EC04354081}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4344476" y="5458560"/>
+              <a:ext cx="1722248" cy="740160"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15452,7 +17727,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">315 0,'-8'311,"1"-232,-32 149,3-90,-98 238,115-329,10-23,-2 0,-17 30,28-53,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-2 0,-5-18,5-34,5 32,1 0,0 0,2 1,0 0,1 0,1 0,1 1,0 0,13-18,20-23,57-64,-55 70,-41 48,1 0,0 0,0 0,1 1,0 0,-1-1,2 1,-1 1,0-1,1 1,-1 0,1 0,0 1,0 0,0 0,0 0,1 1,-1-1,0 2,1-1,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 1,0-1,0 1,0 0,10 5,-8-3,-1 0,0 0,0 1,0 0,0 0,-1 1,0 0,0 0,10 13,2 7,20 38,-1-1,-27-48,-1 1,0 0,-1 0,-1 1,0 0,-1 0,3 20,-7-29,-1 0,0 1,0-1,-1 0,0 0,0 0,-1 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0-1,-1 0,0 1,0-1,-6 8,5-10,1-1,-1 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0-1,-1 1,1-1,-8 0,-15 1,0-2,-40-5,13 1,-106 3,140 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.99">1374 900,'4'0,"11"0,12 0,5 0,7 0,1 0,-2 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.98">1374 900,'4'0,"11"0,12 0,5 0,7 0,1 0,-2 0,-3 0,-7 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1154">1162 1270,'4'0,"11"0,7-4,5-2,-3-4,-1-1,5 2,2 3,5 1,1 3,-1 1,-2 0,-2 2,-2-1,-2 0,-4 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2673.99">2326 661,'-136'120,"91"-84,-52 53,84-74,0 0,1 1,0 0,1 1,1 1,1 0,-12 29,8-8,1 1,-7 45,16-67,1 0,1 0,0 0,1 0,1 0,1 0,5 25,-6-40,1 1,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,7 0,8 1,0-1,1-1,32-3,-40 2,1-1,1 0,-1-1,0 0,0-1,0-1,-1 1,1-2,-1 0,-1 0,1-1,18-16,-17 13,-1-1,0 0,-1-1,0 0,-1 0,0-1,-1-1,0 1,6-18,-3 2,-1 0,-2 0,-1-1,4-31,-9 42,-1-1,-1 0,-1 1,-1-1,0 0,-2 1,-7-26,9 37,0 1,0-1,-1 1,0-1,0 1,-1 0,1 0,-2 0,1 1,-1 0,0-1,0 2,-1-1,0 0,0 1,0 0,-1 1,1 0,-1 0,0 0,0 0,-1 1,1 1,-10-4,-6 2</inkml:trace>
 </inkml:ink>
@@ -15568,7 +17843,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 27,'0'-4,"4"-2,16 1,12 0,7 2,9 1,5 1,4 0,-5 1,-5 0,-8 1,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335.99">107 292,'4'0,"6"0,16 0,11 5,4 1,9-1,1 0,-5-2,0 4,0 0,-3-1,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335.98">107 292,'4'0,"6"0,16 0,11 5,4 1,9-1,1 0,-5-2,0 4,0 0,-3-1,-8-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15598,7 +17873,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369.03">1 1746,'0'-4,"4"-2,24-4,21 0,21 1,10 2,11 3,-1 2,-8-4,-7 0,-18 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.03">1059 847,'0'5,"0"14,0 23,0 22,0 22,0 15,0 4,0 1,0 2,0-5,0-6,0 7,0 0,0-14,0-12,0-16,0-18</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1133.72">1403 1694,'-1'-1,"1"0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,-42 11,11 7,0 1,-55 45,77-55,1 1,-1 0,2 0,-1 1,2 0,0 1,0 0,1 0,1 1,0 0,1 0,0 0,1 1,1 0,1-1,0 1,0 0,2 0,0 0,2 18,-2-29,1 1,0 0,0 0,1-1,-1 1,1 0,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,1-1,-1 1,0-1,1 0,0-1,-1 1,1-1,9 2,12 1,1-1,-1-2,0 0,33-4,-26 2,-22 0,0 0,0-1,-1 0,1-1,0 0,-1 0,0-1,0-1,0 0,0 0,-1-1,0 0,0 0,11-11,-5 2,-1 0,0-1,-1-1,-1 0,0-1,14-31,-20 37,-2-1,1 0,-2 1,0-1,0 0,-1-1,-1 1,0 0,-1 0,0-1,-4-18,4 27,-1-1,0 1,0 0,0-1,-1 1,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,-1-1,1 1,-1 0,0 1,0-1,0 0,0 1,0 0,-1 0,0 0,0 1,1 0,-1-1,0 2,-1-1,1 1,-10-2,-39 2,42 2,-1-1,1 0,-25-4,20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2464.26">1271 529,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2464.25">1271 529,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3088.26">1509 529,'4'-4,"2"-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3648.26">1800 503,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5029.72">1932 0,'-2'63,"0"-30,2 0,1 1,7 38,-7-63,1 0,1 0,0-1,0 1,0-1,1 1,0-1,1 0,0 0,0-1,1 1,0-1,0 0,0-1,1 0,8 7,-13-12,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 1,0-1,2 0,7-8</inkml:trace>
@@ -15947,7 +18222,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.99">586 555,'-14'0,"1"1,0 0,-1 0,1 1,0 1,0 0,1 1,-1 1,1 0,-1 0,2 1,-1 1,1 0,0 0,-10 10,15-11,2 0,-1 0,1 1,0-1,1 1,-1 0,1 0,1 1,-1-1,1 0,-1 9,-2 13,-3 44,8-63,0-1,0 1,1-1,0 1,1-1,0 1,0-1,4 9,-4-14,-1 0,1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 1,1-2,-1 1,1 0,-1-1,1 1,0-1,0 0,0 0,7 2,9 1,-6-1,1 0,0-1,-1 0,26 1,-35-5,0 1,0-1,-1 1,1-1,0-1,0 1,-1-1,1 1,-1-1,1-1,-1 1,0-1,0 1,0-1,0 0,0-1,-1 1,5-6,5-8,0 0,-1-1,-1-1,0 0,-2 0,0-1,-2 0,0-1,-1 1,-1-1,-1-1,0 1,-2 0,-1-1,-2-35,1 49,0-1,-1 1,0-1,0 1,-1 0,-5-15,4 18,1 1,-1 0,0 0,0 0,0 0,0 0,-1 1,0 0,1-1,-1 1,0 1,-1-1,-4-2,-20-9,3 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3861.99">1248 952,'-5'0,"-6"9,0 8,-4 9,1 6,-2-4,3-1,-2-1,-3 4,-2 1,1-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5420">1830 449,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18523.01">1883 291,'0'5,"0"5,0 11,0 6,0 2,0 2,0-1,0 4,0 1,0 3,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18523">1883 291,'0'5,"0"5,0 11,0 6,0 2,0 2,0-1,0 4,0 1,0 3,0-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19358">2121 211,'0'5,"0"6,0 9,0 7,0 7,0 3,0 4,0-1,0-2,0-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20476.99">1750 291,'43'1,"0"-3,1-2,-1-1,0-2,78-25,-93 23,2 2,-1 1,1 1,-1 2,1 1,38 2,-44 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22081.99">1697 740,'171'14,"4"1,35-17,-187 2</inkml:trace>
@@ -17266,10 +19541,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5965.97">1986 3017,'8'0,"9"0,9 0,10 0,8 0,0 5,2 1,-2-1,-4 0,-5-2,-8-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5026.9">2859 2885,'4'-4,"6"-7,7 0,8-4,5 1,2-2,-1 3,0-2,-1 1,-6 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3084.77">2912 2858,'3'0,"1"-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0-1,3-3,37-40,-38 41,-5 5,16-19,1 0,1 0,38-29,-49 43,1 1,0-1,0 1,0 1,1 0,-1 0,1 0,-1 1,1 1,0-1,0 1,0 1,0 0,17 1,-23 0,0-1,1 1,-1 0,0-1,0 1,0 1,-1-1,1 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,3 2,-2 0,0 1,0-1,0 0,-1 1,1 0,-1 0,-1 0,3 8,-1 11,-1 1,-1-1,-4 36,2-45,1-15,0 30,-3 0,0-1,-2 1,-10 36,12-60,1 1,-1-1,0 0,0 0,-1-1,0 1,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,0-1,-1 0,1 0,-1 0,0-1,0 1,0-2,-12 4,-2-2,-1-1,1 0,0-2,-1-1,-39-4,60 4,-1 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,-3-2,4 3,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,1 0,-1-1,1 0,1-1,0 0,0-1,0 1,1 0,-1 0,1 1,0-1,-1 0,1 1,0 0,0 0,5-2,12-1,-1 1,1 0,0 2,0 0,0 1,-1 1,1 1,0 1,22 6,25 10,82 33,-83-26,11 5,-51-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2462.03">2938 3520,'4'-4,"7"-2,5 0,5-3,3 0,6 1,8 2,10 3,15 1,16 1,38 1,4 0,0 0,-12 1,-20-1,-21 0,-12 0,-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2462.04">2938 3520,'4'-4,"7"-2,5 0,5-3,3 0,6 1,8 2,10 3,15 1,16 1,38 1,4 0,0 0,-12 1,-20-1,-21 0,-12 0,-17 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2011.02">3256 3705,'0'9,"0"8,0 9,0 6,0 23,0 12,0 8,0 0,0-12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1534.85">3441 3731,'0'14,"0"13,0 7,0 10,0 13,0 4,0-3,0-7,0-3,-5-10,-6-12,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-761.28">3123 3758,'0'-3,"1"-1,0 1,0 0,0-1,0 1,1 0,0 0,-1-1,1 1,0 1,0-1,1 0,-1 0,5-3,0-1,-1 2,1-1,0 1,15-8,-9 8,0 0,0 1,1 0,-1 1,1 1,0 0,18 1,98 5,-125-3,12 2,0 0,0 1,-1 2,1-1,-1 2,0 0,17 11,-14-8,0-1,1 0,0-2,21 6,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-761.29">3123 3758,'0'-3,"1"-1,0 1,0 0,0-1,0 1,1 0,0 0,-1-1,1 1,0 1,0-1,1 0,-1 0,5-3,0-1,-1 2,1-1,0 1,15-8,-9 8,0 0,0 1,1 0,-1 1,1 1,0 0,18 1,98 5,-125-3,12 2,0 0,0 1,-1 2,1-1,-1 2,0 0,17 11,-14-8,0-1,1 0,0-2,21 6,-6-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="912.99">5637 3017,'-13'7,"1"1,0 0,0 1,1 0,0 1,1 0,0 0,-11 16,-9 16,-23 45,29-47,-5 9,1 2,4 0,-28 81,52-131,-1 0,1 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,1 1,0 0,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,4 1,13 0,-1-1,0-1,22-4,-17 3,162-4,-158 6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1572.41">5716 3096,'1'234,"-3"259,-4-396,-30 166,30-236</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5552.1">345 2091,'-5'9,"-5"21,-6 19,-5 10,1 4,4-4,5-8,5-12</inkml:trace>
@@ -17285,8 +19560,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131705.92">4605 688,'4'-4,"6"-2,7 1,3 0,9 2,-2 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131158.92">4419 1032,'4'0,"11"0,8 0,8 0,8 0,2 0,-2 0,-2 0,-4 0,-2 0,-3 0,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-129535.98">5451 371,'8'-1,"1"0,-1-1,1-1,-1 1,0-1,12-6,12-4,-23 10,0 0,0 1,0 0,0 0,0 1,0 0,0 1,17 1,-23-1,0 1,1 0,-1 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 0,-1 0,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 4,1 5,1 0,-2 0,0 0,0 0,-1 1,-1-1,0 0,0 0,-1 0,-1 0,0 0,-8 19,4-17,0 0,-1-1,-1 0,0 0,-1-1,0 0,-1-1,-1 0,-17 14,14-14,1 0,-1-2,-22 12,33-20,1 1,-1-1,0 1,0-1,0 0,0-1,0 1,0-1,-7 1,10-2,-1 1,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-3,1 3,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,28-13,37 4,-66 11,162 1,-120 2,1-2,-1-2,47-7,-61 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-129008.17">5187 1032,'4'0,"11"0,12 0,9 0,14 0,6 0,3 0,5 0,9-4,2-2,-4 1,-8 0,-7 2,-8 1,2 1,-4 0,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-128488.17">5795 1165,'0'9,"-5"12,-1 11,1 5,0 1,-12 7,-3 5,2-1,4-1,-1 2,3-5,-1 0,2-3,-3-4,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-129008.18">5187 1032,'4'0,"11"0,12 0,9 0,14 0,6 0,3 0,5 0,9-4,2-2,-4 1,-8 0,-7 2,-8 1,2 1,-4 0,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-128488.18">5795 1165,'0'9,"-5"12,-1 11,1 5,0 1,-12 7,-3 5,2-1,4-1,-1 2,3-5,-1 0,2-3,-3-4,2-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-127958.52">5901 1244,'4'-4,"7"16,0 15,0 12,-3 4,-3 4,-2-2,-2 5,0-2,-1-4,-1-5,1-9</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-127138.95">5689 1323,'0'-4,"0"0,0 0,1 0,0 1,-1-1,2 0,-1 0,0 0,1 0,-1 1,1-1,0 1,1 0,-1-1,0 1,4-4,0 2,0 0,0 1,0-1,1 1,-1 0,1 1,0 0,7-3,9-1,0 1,0 1,0 1,35-2,98 6,-100 1,-34-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-125730.8">6959 27,'-11'57,"4"-30,-28 97,3-17,-23 97,-16 71,60-215,2 1,-3 104,12-129,5 346,-2-346,2 1,1-1,15 49,43 101,-61-178,7 17,2 0,1-1,17 23,-5-7,-15-23</inkml:trace>
@@ -17302,7 +19577,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9695.17">1165 1959,'0'-1,"0"0,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,3 0,31-15,-27 14,22-8,1 1,0 1,0 2,58-4,-25 8,91 7,-70 10,-61-10,0-1,27 1,-25-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10167.17">2462 1959,'145'4,"0"6,0 6,218 54,-270-49,2-5,0-3,0-5,101-4,-148-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10642.17">4764 2064,'4'0,"6"0,16 0,11 5,13 6,8 0,6 9,7-1,13 3,-2-4,-7-4,-12-5,-7 1,-13-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11466.35">6219 2091,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11466.34">6219 2091,'4'0,"2"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11996.01">6378 2223,'0'5,"0"6,0 9,0 12,0 8,0 11,0 2,0-4,-5-2,-6 1,0-3,0-1,-1-8,1-5,2-3,3-3,-3 0,2-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12532.02">6272 3361,'4'0,"6"0,2 5,-1 5,-4 11,-1 6,-3-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13091.02">6325 3969,'0'9,"-5"8,-1 5,0 3,-8 7,-1 3,2-2,2 0,4 2,3-4</inkml:trace>
@@ -17415,7 +19690,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">135 26,'-1'13,"-1"0,0 0,-1 0,0-1,-1 1,0-1,-1 0,-1-1,1 1,-2-1,0 0,-16 20,11-15,1 0,1 2,1-1,-9 21,17-36,1-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,3 0,8 2,0-1,0 0,21-2,-22 1,90-1,158-7,-228 4,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="519.82">638 0,'-5'5,"-1"14,0 14,-3 9,0 8,1 8,2 3,3 1,1-2,1-2,1-6,0-8,0-6,1-6,-1 2,-4-6,-2-3,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="519.81">638 0,'-5'5,"-1"14,0 14,-3 9,0 8,1 8,2 3,3 1,1-2,1-2,1-6,0-8,0-6,1-6,-1 2,-4-6,-2-3,1-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17444,11 +19719,11 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 371,'13'0,"14"-4,11-2,4 0,-1 1,1 2,3 1,-1 1,0 0,-7 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.19">28 582,'9'0,"7"0,15 0,15 0,9 0,9 0,6 0,15 0,6 0,-8 0,-18 5,-21 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1573.17">1271 318,'16'-14,"0"1,1 1,1 0,0 1,1 1,0 1,0 0,1 1,0 2,1 0,31-5,-48 10,-1 0,0 1,0-1,1 1,-1 0,0 0,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,5 5,-5-4,-1 0,0 1,1-1,-1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,-1-1,1 0,0 0,-3 4,-6 10,0-1,-1-1,-1 0,0 0,-1-1,-1-1,0 0,0-1,-2 0,1-1,-1-1,-1-1,-22 10,38-19,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,0 0,0-1,-1 2,22 6,-6-4,33 9,-28-8,-1 0,0 1,0 1,0 1,-1 1,23 13,-22-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1573.16">1271 318,'16'-14,"0"1,1 1,1 0,0 1,1 1,0 1,0 0,1 1,0 2,1 0,31-5,-48 10,-1 0,0 1,0-1,1 1,-1 0,0 0,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,5 5,-5-4,-1 0,0 1,1-1,-1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,-1-1,1 0,0 0,-3 4,-6 10,0-1,-1-1,-1 0,0 0,-1-1,-1-1,0 0,0-1,-2 0,1-1,-1-1,-1-1,-22 10,38-19,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,0 0,0-1,-1 2,22 6,-6-4,33 9,-28-8,-1 0,0 1,0 1,0 1,-1 1,23 13,-22-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2239.46">1245 847,'9'0,"12"0,11 0,5 0,0 0,-1 0,-2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4930.47">1245 794,'0'-1,"0"0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,2-1,26-10,-27 11,32-9,-1 3,2 0,51 0,112 8,-78 0,-97-2,-2 0,-1 0,30 5,-25 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5590.93">1430 1112,'-5'5,"-1"5,0 15,1 8,2 7,1 6,1 3,0-1,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6014.93">1562 1085,'0'18,"0"20,0 21,-5 9,-1 3,-4-7,-1-5,2-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4930.46">1245 794,'0'-1,"0"0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,2-1,26-10,-27 11,32-9,-1 3,2 0,51 0,112 8,-78 0,-97-2,-2 0,-1 0,30 5,-25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5590.92">1430 1112,'-5'5,"-1"5,0 15,1 8,2 7,1 6,1 3,0-1,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6014.92">1562 1085,'0'18,"0"20,0 21,-5 9,-1 3,-4-7,-1-5,2-13</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7045.12">1298 1191,'0'-4,"0"-6,0-7,0-3,4 0,11 4,7 5,9 4,3 4,6 1,0 2,2 1,-1 0,-4 0,-3 0,-7-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7710.12">2541 371,'0'1,"1"-1,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,-1 1,1 31,-1-25,-5 45,-2-1,-3 0,-21 66,22-84,2-6,2-1,1 1,1 1,-1 37,5-55,0 0,1 1,0-1,1 0,0 0,1 0,0 0,0 0,1 0,1-1,0 0,0 0,11 15,1-9,0-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9906.08">2673 662,'11'-8,"0"-1,0 1,1 1,1 0,21-8,7-5,-27 13,-4 0,1 1,0 1,0 0,0 0,23-5,-32 10,1-1,-1 1,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 3,2 6,-2 0,1 0,-1 1,-1-1,0 0,-1 0,0 0,0 0,-1 0,-1 0,0-1,0 0,-1 1,0-2,-8 12,3-7,0-1,0 0,-1-1,0-1,-1 1,-1-2,0 0,0 0,-28 14,0-12,19-13,22 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,-1 0,1-1,0 1,1 0,43-8,-42 8,11 0,-1 0,1 2,0-1,-1 2,1 0,-1 1,0 0,0 1,-1 1,1 0,19 12,-16-9,0 0,1-1,0-1,0-1,36 7,-32-10</inkml:trace>
@@ -17458,8 +19733,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12214.83">4182 741,'4'0,"11"0,7 0,4 5,3 1,0 0,5-1,1-2,3-1,0-1,-2 0,-3-1,-2-1,-2 1,-2 0,0 0,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14180.96">1112 1429,'9'-4,"12"-2,11 1,10-5,15-3,12-6,7 2,9-2,-5-1,-13 2,-7 4,-11 5,-4 4,-5 2,0 2,-3 2,6 0,-5-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14925.07">3282 662,'4'0,"11"-4,16-7,21 0,29-9,13 0,1 4,-12 3,-11 5,-13 4,-13-3,-13 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16865.15">1377 0,'29'2,"1"2,-1 0,0 2,0 1,-1 1,0 2,0 1,30 16,-22-11,263 127,467 301,-414-178,-289-214,-28-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17557.31">4711 53,'36'2,"0"1,-1 2,1 1,-1 2,0 1,38 16,196 99,-265-123,815 500,-317-178,-342-230,205 88,-332-167,45 16,-61-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16865.14">1377 0,'29'2,"1"2,-1 0,0 2,0 1,-1 1,0 2,0 1,30 16,-22-11,263 127,467 301,-414-178,-289-214,-28-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17557.3">4711 53,'36'2,"0"1,-1 2,1 1,-1 2,0 1,38 16,196 99,-265-123,815 500,-317-178,-342-230,205 88,-332-167,45 16,-61-25</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18282.96">7515 662,'0'-4,"4"-2,7 0,5 1,5 2,7 1,5 1,4 0,-4 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18720.44">7357 1059,'9'0,"7"0,10 0,15 0,4 0,3 0,8 0,21 0,1 0,-7 0,-7 0,-10 0,-10 0,-7 0,-11 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20041.08">8627 582,'-65'-2,"46"0,-1 1,0 1,0 0,0 2,0 0,0 1,-25 8,39-8,0 0,0 1,0 0,1 1,-1-1,1 1,0 0,0 0,1 1,0-1,0 1,0 0,0 0,1 1,0-1,1 1,-3 8,-5 16,2-1,-5 44,13-73,-4 19,2-1,0 1,1 0,1 0,3 20,-2-32,1 1,0-1,1 0,0 0,0 0,1 0,-1 0,2-1,-1 1,1-1,0 0,1-1,11 12,1-3,-1-1,2-1,0-1,1-1,0 0,0-2,1 0,0-1,1-1,0-1,0-1,0-1,1-1,26 0,-45-3,0 0,1 0,-1 0,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,4-3,-2-1,-1 1,1 0,-1-1,0 0,0 0,-1 0,0-1,-1 1,3-11,1-12,-2 0,-1 0,-2 0,-2-35,0 51,-1 1,0-1,-1 1,0-1,-2 1,1 0,-1 0,-1 1,0 0,-1 0,0 0,-1 1,-16-19,15 18,0 1,-1 0,0 0,0 1,-2 0,1 1,-1 0,0 1,-24-12,14 12</inkml:trace>
@@ -17670,7 +19945,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">266 876,'2'151,"1"-33,-14 127,-4-159,-3-1,-59 165,-17 67,93-308,-14 44,15-53,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,-3-16,-3-369,9 229,0 40,6 1,43-205,-28 233,4 1,4 1,3 2,56-96,-59 124,3 2,2 2,2 1,2 2,3 1,1 3,3 1,75-53,-113 91,1-1,0 2,0-1,0 1,0 1,1 0,-1 1,1 0,0 1,0 0,0 0,1 2,-1-1,0 2,0 0,0 0,0 1,0 0,15 6,-7-2,0 2,0 0,0 2,-1 0,-1 1,0 1,0 0,-1 1,-1 1,17 19,-26-26,-1 1,-1-1,1 1,-1 0,-1 0,1 0,-1 1,-1 0,3 9,-5-15,0 1,0 0,0 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,0 0,0-1,0 1,0 0,0-1,-1 1,0 0,1-1,-2 0,1 1,0-1,0 0,-1 0,-3 3,-26 18,-1-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929.04">1 1140,'4'0,"7"-4,5-2,5 1,7 0,4 2,6 1,9 1,6 0,30 1,14 5,-4 1,-15 0,-10 3,-17 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2666.47">2435 108,'-8'1,"1"-1,-1 1,1 1,0-1,-1 1,1 0,0 1,0 0,1 0,-1 0,-10 7,5-1,0 1,1 0,0 0,1 1,-13 16,0 6,1 2,2 0,-21 51,3 8,-16 35,45-106,0 0,1 0,2 1,-6 39,6-29,-16 47,13-48,1-1,2 1,1 0,1 1,2-1,3 39,-1-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4181.73">2224 399,'-2'8,"1"-1,-1 1,0-1,0 0,-1 0,0 0,-7 12,-7 19,-47 191,22-69,19-63,5 1,-9 130,-4 34,22-198,-2 119,11-157</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4181.72">2224 399,'-2'8,"1"-1,-1 1,0-1,0 0,-1 0,0 0,-7 12,-7 19,-47 191,22-69,19-63,5 1,-9 130,-4 34,22-198,-2 119,11-157</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5083.74">2171 770,'0'-2,"1"-1,-1 1,1 0,0-1,0 1,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0 0,4-3,49-24,-45 23,-1 1,0 1,1-1,-1 1,0 1,1-1,0 2,-1-1,1 1,0 1,0 0,0 0,-1 1,1 1,0-1,0 1,-1 1,0 0,1 0,-1 1,0 0,-1 0,1 1,-1 1,0-1,0 1,8 8,21 20,-1 1,55 71,53 96,-67-92,-44-57,18 22,-47-69,1 0,1-1,-1 0,1 0,0 0,0-1,0 0,1 0,10 5,1-3,0 0,0-1,0-1,29 3,-18-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5707.23">3282 770,'0'-4,"-9"-2,-12 4,-21 13,-11 12,-29 17,-14 14,-4 3,2 1,8-6,15-6,6-3,16-3,12-9,13-6,11-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6556.24">3494 161,'163'391,"-66"-149,-90-225,181 483,-173-444,-1 0,-3 1,-3 0,-2 1,-3 0,-2 0,-8 70,5-115,0-1,-1 1,0-1,-1 1,-1-1,0 0,0-1,-1 1,-1-1,0 0,-17 19,3-8,-1-1,-1-2,-50 34,28-20,26-21</inkml:trace>
@@ -17736,7 +20011,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">199 1320,'-1'1,"1"-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1-1,-8-15,3-27,5 43,-2-29,2 0,0 0,2 0,1 0,1 0,2 1,1-1,1 1,13-29,1 8,3 2,2 1,1 1,3 1,2 2,1 1,2 2,2 1,80-62,-110 95,1 0,-1 0,1 1,-1 0,1 1,0-1,1 2,-1-1,0 2,1-1,-1 1,1 0,13 2,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644.36">648 606,'-5'0,"-1"5,-4 5,-1 6,-7 5,-5-2,-3 2,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644.35">648 606,'-5'0,"-1"5,-4 5,-1 6,-7 5,-5-2,-3 2,3-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5825.73">490 420,'-4'44,"-1"-1,-2-1,-1 1,-24 66,9-29,-96 444,-55 185,120-546,54-162,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,-1 2,1-3,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,-1-3,-8-33,2-1,-6-74,8-86,5 167,21-396,-11 343,5 1,3 1,31-86,11 31,-11 31,-26 59,2 0,63-86,-45 70,-29 43,21-34,72-82,-93 121,0 1,1 0,1 1,0 1,1 0,0 1,1 1,0 1,31-12,-23 13,1 0,52-8,-70 15,-1 0,0 1,1 0,-1 0,0 1,0 0,1 1,-1-1,0 2,0-1,-1 1,1 0,0 1,8 5,-4 0,-1 0,0 0,-1 1,17 21,-3 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6439.73">172 1108,'4'0,"7"0,9 0,12 0,3 0,11-4,5-2,13 1,4 0,4 2,-5 1,-11 1,-9 0,-4 1,0 0,-8 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7149.39">2024 262,'-5'1,"1"-1,-1 1,1-1,0 1,0 1,-1-1,1 0,0 1,0 0,0 0,1 0,-1 1,-6 5,9-8,-80 56,2 3,-100 97,-125 168,293-311,-50 56,2 3,4 2,-53 95,100-151,0 1,1 0,1 1,1-1,1 1,0 0,2 0,-1 37,4-28,1 0,1-1,2 1,0 0,15 41,-10-41,2-1,0 0,22 34,-26-49,1 0,1-1,0 0,0-1,1 0,1 0,-1-1,19 11,-9-8,-3-1,1-1,0 0,29 10,-45-20,1 0,0-1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0 0,4-5,-7 7,51-41</inkml:trace>
@@ -17778,7 +20053,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="884.77">1191 0,'10'25,"0"0,-2 0,-1 1,-1-1,-1 2,3 40,-6 165,-4-146,3-25,0-35,-1-1,0 1,-8 43,2-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1578.54">1006 450,'0'-13,"9"-9,7-2,10 5,6 4,1 6,-1 4,0 2,-2 7,-1 7,3 2,-4 3,3 3,0-1,4-4,1-5,-6-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3152.14">2223 133,'0'52,"2"-18,-2 0,-2-1,-11 63,11-87,0 0,-1 0,0 0,-1-1,0 1,0-1,-1 0,0 0,0 0,-1-1,0 0,0 0,-1 0,0-1,0 0,0 0,-1-1,-14 8,-44 16,-119 36,79-31,38-10,-113 37,150-53,1-1,-1-1,-62 2,91-8,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 1,0-1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,-2-4,1 1,0 0,0-1,1 1,0-1,0 1,0-1,0 1,1-1,-2-5,1-7,0 0,0 0,2 0,2-28,1 25,1 1,1 0,1 0,0 0,1 1,1 0,1 0,1 1,0 0,1 0,1 1,0 1,1 0,1 1,0 0,30-21,-28 27,0 1,1 1,0 0,0 1,1 1,-1 1,1 0,0 2,0-1,0 2,31 4,-38-2,-1 0,-1 2,1-1,0 1,-1 0,1 1,-1 0,-1 1,1 0,10 9,14 14,31 36,-48-48,94 109,25 25,-125-142,1 0,0-1,17 9,19 15,-31-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4966.23">106 477,'1'2,"1"-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,3 0,0 1,7 0,0 0,-1-1,1 0,-1 0,1-1,0-1,-1 0,0-1,1 0,-1 0,0-1,-1-1,1 0,-1 0,0-1,0-1,0 1,-1-2,0 1,-1-1,0 0,0-1,8-11,6-11,-18 22,2 1,-1 0,1 1,0 0,0 0,1 0,0 0,9-5,-15 11,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,2 2,2 4,0 0,-1 0,1 1,-1 0,3 10,35 91,-5 2,-5 2,32 215,-60-280,-2 0,-3 0,-1 0,-17 93,19-136,-2 1,1-1,0 0,-1 0,0 0,0 0,-1-1,1 1,-4 4,4-8,1 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-3-1,-30-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4966.22">106 477,'1'2,"1"-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,3 0,0 1,7 0,0 0,-1-1,1 0,-1 0,1-1,0-1,-1 0,0-1,1 0,-1 0,0-1,-1-1,1 0,-1 0,0-1,0-1,0 1,-1-2,0 1,-1-1,0 0,0-1,8-11,6-11,-18 22,2 1,-1 0,1 1,0 0,0 0,1 0,0 0,9-5,-15 11,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,2 2,2 4,0 0,-1 0,1 1,-1 0,3 10,35 91,-5 2,-5 2,32 215,-60-280,-2 0,-3 0,-1 0,-17 93,19-136,-2 1,1-1,0 0,-1 0,0 0,0 0,-1-1,1 1,-4 4,4-8,1 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-3-1,-30-16</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6117.09">133 688,'8'-20,"2"0,1 1,0 0,1 1,2 0,24-26,13-20,-33 41,14-21,51-56,-70 87,1 1,-1 0,2 1,-1 1,2 0,-1 1,1 0,21-7,-22 10,-6 2,0 1,0 0,0 0,12-1,-19 4,1 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,3 2,9 13,-2 1,0 0,-1 1,0 1,-2-1,0 1,10 39,-13-43,36 127,46 286,-46-192,-11-32,-27-163</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7267.67">1244 27,'-9'0,"-3"14,0 40,-1 29,-4 14,1-6,-6 1,1-7,0-13,3-19</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8006.06">1165 503,'4'0,"6"0,6 0,5 0,-2 0</inkml:trace>
@@ -17838,8 +20113,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1479 389,'-2'28,"0"-1,-2 1,0-1,-2 0,-2 0,-12 32,-75 145,80-174,-59 105,-5-3,-168 212,239-333,-1-1,0 0,-1 0,0-1,0-1,-1 1,-12 6,14-11,0 0,0 0,0-1,-1 0,1-1,-1 0,0-1,1 0,-1 0,-12-1,-45-2,-68-10,107 7,0-1,0-1,1-1,0-2,-26-13,13 4,0-3,1-1,2-2,0-2,-41-39,73 61,0 1,0-1,1-1,0 1,0-1,0 1,0-1,1-1,0 1,1 0,-1-1,1 1,0-1,-1-8,3 11,0-1,0 1,1 0,0 0,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,0-1,1 1,5-3,24-12,1 2,0 1,1 2,0 1,55-8,-12 1,-56 12,17-5,0 3,69-8,-94 16,-1 0,1 0,-1 2,1 0,-1 0,1 1,-1 1,0 0,0 0,-1 2,23 12,87 63,140 123,-160-117,76 60,-127-116,-41-27,0 2,-1-1,0 1,0 1,0-1,9 11,3 8,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.42">2273 759,'4'0,"11"0,7-4,5-6,10-2,14 2,1 2,2 3,-4 2,-7 2,4 5,-6 6,-6 7,-5-1,-2 3,-6-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1285.89">2564 1156,'0'9,"4"3,20 0,14-3,6-7,0-4,1-6,-2-6,0-1,-3 3,2 2,-3 4,1 2,-1 3,-7 5,-1 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.41">2273 759,'4'0,"11"0,7-4,5-6,10-2,14 2,1 2,2 3,-4 2,-7 2,4 5,-6 6,-6 7,-5-1,-2 3,-6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1285.88">2564 1156,'0'9,"4"3,20 0,14-3,6-7,0-4,1-6,-2-6,0-1,-3 3,2 2,-3 4,1 2,-1 3,-7 5,-1 2,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2309.33">3834 1024,'4'0,"20"0,19 0,12 0,0 0,0 0,-4 0,1 0,-2-4,-1-2,4 1,-2-5,-6 1,0 1,-5 3,1 1,-7 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3290.87">4839 839,'188'-193,"244"-325,-415 493,-8 12,1-1,0 1,0 1,2 0,21-19,-32 31,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,2 1,1 4,1-1,-1 1,-1 0,1 0,4 12,-7-15,24 55,30 113,1 70,-44-187,21 125,25 100,-53-267,0 1,1-1,0 0,10 14,-10-18,-1 0,0 0,-1 1,0-1,0 1,-1 0,0 0,0 1,2 15,-5 115,-2-77,2-40</inkml:trace>
 </inkml:ink>
@@ -17906,7 +20181,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 102,'25'-15,"0"1,1 1,1 1,0 1,1 2,0 0,1 2,31-4,-54 11,0 0,0 0,-1 0,1 0,0 1,0 0,-1 0,1 1,-1-1,1 1,-1 1,0-1,0 1,0-1,0 2,0-1,-1 0,1 1,-1 0,0 0,0 0,0 1,-1-1,4 6,6 11,-2 1,0 1,-2 0,10 33,-1-4,-15-44,31 83,4-1,76 132,-111-217,1 0,-1 0,1 0,0 0,0-1,0 1,1-1,-1 0,1 0,0-1,1 0,-1 0,0 0,1 0,0-1,-1 0,1 0,0 0,0-1,8 1,25 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="953.74">901 419,'-8'-2,"0"0,0 0,1 0,-1 1,0 0,-1 0,1 1,0 0,0 1,0-1,0 2,0-1,1 1,-1 0,-10 5,-5 1,1 2,1 0,-40 26,36-18,9-6,-1-1,0-1,0 0,-29 11,28-14,1 0,0 1,1 1,-1 1,-14 12,15-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1603.74">1404 393,'4'0,"6"0,7 0,8 0,5 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.28">1324 605,'9'0,"12"0,11 5,14 10,13 2,5 4,0 2,0-3,-4-5,-7 5,-7-2,-13-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.27">1324 605,'9'0,"12"0,11 5,14 10,13 2,5 4,0 2,0-3,-4-5,-7 5,-7-2,-13-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4222.52">2488 340,'-1'-1,"1"0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0-1,-3 1,-45-4,42 4,-16-1,8-1,0 1,0 1,0 1,-28 4,39-4,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,0 1,-1-1,1 1,1-1,-1 1,-2 6,2 0,0-1,0 1,0 0,2-1,-1 1,1 0,0 0,1-1,0 1,1 0,0-1,1 1,0-1,0 0,1 0,0 0,0 0,9 12,0-3,0 0,1-1,0-1,2 0,0-1,0 0,23 14,-24-19,1-1,0-1,0 0,0-1,1 0,0-1,1-2,-1 1,1-2,0 0,25 0,-32-3,-1 0,1-1,-1 0,0-1,1 0,-1 0,0-1,0-1,0 0,-1 0,1 0,-1-2,0 1,-1-1,1 0,-1-1,0 0,-1 0,1 0,10-16,-14 15,1 0,-1 0,-1 0,0-1,0 1,0-1,-1 0,0 0,-1 0,1-16,-2-9,-6-50,4 67,1 11,0 0,0 1,0-1,-1 0,0 1,0-1,-1 1,0-1,1 1,-2 0,1 0,-1 1,1-1,-5-4,-1 2,1-1,-1 2,0-1,-1 1,0 1,-20-10,2 5,-1 1,0 2,0 0,-51-3,-93 6,166 4,-20 1</inkml:trace>
 </inkml:ink>
 </file>
@@ -18054,7 +20329,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1194 0,'-3'8,"1"-1,-1 1,0-1,-1 0,0 0,0-1,0 1,-1-1,0 0,-8 8,5-5,-35 37,-1-2,-3-3,-1-1,-2-3,-2-1,-56 28,-103 39,109-57,82-38,-2-1,1-1,-1-1,1-1,-1 0,0-2,-1-1,1 0,-28-4,47 3,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 0,1 0,0 0,-4-4,3 2,0 0,0-1,0 0,0 1,1-1,0 0,0 0,1-1,-2-6,-1-12,2 0,1 0,2-40,0 38,-1 1,0 11,0 0,1-1,0 1,5-20,-5 31,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,-1-1,2 1,-1 0,0 0,0 1,0-1,8-2,-1 2,0 0,0 1,0 0,1 0,-1 1,0 1,1 0,-1 0,0 1,0 0,0 1,0 0,-1 0,1 1,-1 0,1 1,-2 0,15 11,11 9,0 2,-2 1,31 35,-45-42,31 46,-39-51,1 1,1-2,1 0,0 0,28 23,-24-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1261.6">30 1588,'0'-8,"1"-1,1 1,0-1,0 1,0 0,1 0,0 0,1 0,0 0,0 1,1-1,0 1,0 0,0 1,1-1,0 1,12-9,-8 6,0 2,1-1,0 2,0-1,0 1,1 1,0 0,0 1,0 0,1 1,15-2,-5 2,1 2,0 1,-1 0,1 2,-1 1,47 11,-61-11,1 0,-1 1,0 0,0 0,0 1,-1 0,0 0,0 1,0 0,0 1,-1-1,0 2,0-1,-1 1,0 0,-1 0,1 0,-2 1,6 11,-1 5,-2 1,0 0,-1 0,3 41,-3 107,-6-141,0-15,-1-1,0 1,-1-1,-1 0,0 1,-1-1,-1-1,-1 1,-10 20,11-28,-1 1,0-1,-1-1,1 1,-2-1,1 0,-1 0,-1-1,1 0,-1-1,0 0,-1 0,0-1,1 0,-21 6,4-5,0-1,0-2,0 0,0-2,0-1,-38-4,-5 1,42 3,7 1,0-1,0-1,-21-4,38 5,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 0,-2-5,3 5,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,1 0,3-3,2-1,0 1,0-1,1 1,15-7,-9 7,1 0,-1 1,1 0,0 2,0 0,0 0,0 2,1 0,-1 0,0 2,0 0,27 7,11 8,-1 1,68 35,-6-3,-112-49,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1-1,-1 0,1 1,-1-1,0 0,1-1,5-2,7-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1261.59">30 1588,'0'-8,"1"-1,1 1,0-1,0 1,0 0,1 0,0 0,1 0,0 0,0 1,1-1,0 1,0 0,0 1,1-1,0 1,12-9,-8 6,0 2,1-1,0 2,0-1,0 1,1 1,0 0,0 1,0 0,1 1,15-2,-5 2,1 2,0 1,-1 0,1 2,-1 1,47 11,-61-11,1 0,-1 1,0 0,0 0,0 1,-1 0,0 0,0 1,0 0,0 1,-1-1,0 2,0-1,-1 1,0 0,-1 0,1 0,-2 1,6 11,-1 5,-2 1,0 0,-1 0,3 41,-3 107,-6-141,0-15,-1-1,0 1,-1-1,-1 0,0 1,-1-1,-1-1,-1 1,-10 20,11-28,-1 1,0-1,-1-1,1 1,-2-1,1 0,-1 0,-1-1,1 0,-1-1,0 0,-1 0,0-1,1 0,-21 6,4-5,0-1,0-2,0 0,0-2,0-1,-38-4,-5 1,42 3,7 1,0-1,0-1,-21-4,38 5,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 0,-2-5,3 5,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,1 0,3-3,2-1,0 1,0-1,1 1,15-7,-9 7,1 0,-1 1,1 0,0 2,0 0,0 0,0 2,1 0,-1 0,0 2,0 0,27 7,11 8,-1 1,68 35,-6-3,-112-49,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1-1,-1 0,1 1,-1-1,0 0,1-1,5-2,7-11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1874.6">1459 1165,'0'14,"4"26,6 43,2 25,3 30,7 24,1 1,1-3,-4-17,-5-23,-1-22,-3-25,-3-15,-2-8,-4-4,-1-5,-1-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2413.6">2490 1006,'4'14,"2"31,0 66,-1 51,-2 20,-1 6,-1-11,0-17,-1-23,0-25,-1-24,1-16,0-17,0-18</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3440.75">1141 1270,'-4'-4,"2"0,-1 0,0-1,1 0,0 1,0-1,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-5,0-2,0 0,1 0,0 0,1 1,3-14,-1 13,0 0,1 1,1-1,-1 1,2 0,-1 1,2 0,-1 0,1 0,1 1,17-15,-10 12,0 1,1 1,1 0,-1 1,1 1,35-11,0 6,1 2,0 3,0 1,78 3,-79 4,-1 3,0 3,-1 1,67 20,-29-1,133 61,-188-74,-1-1,2-2,-1-1,1-2,1-2,-1-1,1-1,-1-3,1 0,0-2,-1-2,1-2,43-11,79-36,-34 10,-71 27</inkml:trace>
@@ -18212,7 +20487,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">11 266,'0'918,"-5"-842,-1-51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="636.35">37 27,'4'-4,"11"-2,17 1,11 0,25 2,6 1,-5 1,-10 0,-10 1,-10 0,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="636.34">37 27,'4'-4,"11"-2,17 1,11 0,25 2,6 1,-5 1,-10 0,-10 1,-10 0,-10 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1619.2">223 610,'4'0,"11"0,7 0,14 0,9 0,1 0,-2 0,-4 0,-4 0,-5 0,-2 0,-2 0,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.52">1202 27,'-1'4,"0"0,0-1,0 0,-1 1,1-1,-1 0,1 1,-1-1,-4 4,-3 8,-17 40,3 0,-19 67,-21 120,49-173,3 1,-3 131,22 141,-8-329,1 0,1 0,-1 0,2 0,6 19,-8-29,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 1,0-2,1 1,-1 0,7 0,16 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3085.18">1307 768,'6'-8,"1"0,-1-1,-1 0,9-18,5-8,-12 24,1 1,0 0,0 1,1-1,1 2,-1-1,1 1,1 1,13-9,-19 13,1 1,-1-1,0 1,1 0,-1 1,1-1,-1 1,1 0,0 0,-1 1,1 0,0 0,0 0,-1 1,1-1,0 1,-1 1,1-1,-1 1,1 0,-1 0,0 1,6 3,-1 1,-1 0,0 1,0 1,-1-1,0 1,10 15,39 67,-33-50,162 261,-178-291,0 0,0-1,1 0,1-1,16 14,-9-9,-7-4</inkml:trace>
@@ -18249,7 +20524,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2886.18">1430 27,'3'46,"2"-1,3 0,1 0,25 69,-1 3,6 30,21 96,-50-192,-3 1,2 95,-9-87,0-11,-9 84,7-119,-1 0,0 0,-1 0,-1 0,0 0,-1-1,0 0,-1 0,-1-1,-10 15,4-11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3424.21">1906 503,'4'-4,"7"-2,5 1,9-5,6 1,0 1,1 2,-1 3,-2 1,4 1,1 1,3 0,5 0,-1 1,-3-1,2 0,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4063.2">2039 847,'0'5,"8"1,9 0,5-1,16-2,8-1,-1-1,-3 0,5 3,3 2,-2-1,-1-1,-3-1,0-1,-4-1,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4909.9">3414 0,'-2'38,"-1"0,-1-1,-2 1,-2-1,-17 48,-80 171,60-155,31-66,2 0,2 1,1 0,2 1,-4 53,6 188,6-202,0-61,0 0,0 0,7 25,-2-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4909.89">3414 0,'-2'38,"-1"0,-1-1,-2 1,-2-1,-17 48,-80 171,60-155,31-66,2 0,2 1,1 0,2 1,-4 53,6 188,6-202,0-61,0 0,0 0,7 25,-2-21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18426,7 +20701,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">11 112,'-1'0,"0"-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,1 1,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,3-1,6-3,0 0,0 0,22-6,-7 5,0 0,1 2,0 1,37-1,116 8,-60 1,-67-2,-1 2,1 3,74 19,-96-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.39">196 403,'664'0,"-647"1,-1 0,1 1,-1 1,0 1,0 0,17 6,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.38">196 403,'664'0,"-647"1,-1 0,1 1,-1 1,0 1,0 0,17 6,-11 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18537,7 +20812,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1489 2,'-3'25,"0"-1,-2 1,0-1,-2-1,-1 1,-1-1,-17 33,9-16,-9 21,-2-2,-3-1,-2-1,-3-2,-2-1,-3-2,-92 92,69-90,-1-4,-2-2,-3-3,-1-3,-2-4,-2-2,-1-4,-2-3,-129 29,191-54,2 0,0-1,0-1,-26 2,37-4,-1 0,1 0,0 0,0-1,1 1,-1-1,0 0,0 1,0-1,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,-2-5,-2-5,1 0,1-1,0 1,1-1,0 0,1 0,-1-20,3-100,2 76,-2 20,-1 11,2 0,0 0,8-37,-7 56,0 0,0 0,0 0,1 0,0 1,0-1,1 1,0 0,0 0,0 0,1 1,0-1,0 1,0 0,1 1,-1-1,8-3,-3 2,1 0,-1 1,1 1,0 0,0 0,0 1,1 1,-1-1,1 2,0 0,-1 0,1 1,0 1,-1 0,1 0,21 6,-14-1,-1 1,0 1,0 1,-1 0,0 1,0 1,-1 0,-1 1,18 19,36 42,104 142,-119-140,4-3,97 94,-145-158,18 18,1-1,37 24,-55-43,1 1,0-1,0-1,0 0,0-1,1 0,0-1,-1-1,1 0,15 1,8-3,-1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="551.14">1568 928,'8'-7,"1"1,0 0,0 0,1 1,-1 0,1 0,1 1,11-3,6-1,53-8,-4 10,134 6,-99 2,-64-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1214.33">1806 1140,'-5'5,"13"1,18-1,18-5,15-2,11-2,7 1,9 0,2 1,-3 1,-9 0,-11 1,-14 0,-9 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1738.69">3103 796,'0'-4,"9"-2,12 1,11 0,14 2,4 1,2 1,1 0,0 1,-3 0,-2 1,-5-1,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1738.68">3103 796,'0'-4,"9"-2,12 1,11 0,14 2,4 1,2 1,1 0,0 1,-3 0,-2 1,-5-1,-9 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2603.51">4055 770,'5'0,"0"0,0-1,0 0,0 0,-1-1,1 1,0-1,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0-1,0 1,-1-1,0 1,4-6,6-9,-1-1,-1 0,10-23,-11 24,72-145,160-238,-239 397,26-29,-28 32,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 1,6 18,-1 1,-1 1,-1-1,-1 1,-1-1,-1 26,0-23,-17 650,2-266,11-217,4-134</inkml:trace>
 </inkml:ink>
 </file>
@@ -18632,15 +20907,15 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11512.99">7663 1238,'9'0,"11"0,8 0,8 0,6 0,33 0,16 0,3 0,-3 0,-2 0,-12 0,-10 0,-12 0,-11 0,-12 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29804.14">6710 3302,'6'0,"0"-1,1 0,-1-1,0 1,1-1,-1-1,0 1,0-1,-1 0,1 0,-1-1,1 1,5-7,11-9,31-37,-33 35,117-130,124-177,-246 305,-12 17,1 0,-1 0,1 1,0-1,0 1,1 0,0 1,-1-1,2 1,5-5,-10 9,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 1,5 34,-5-32,-3 421,-4-212,6 269,1-461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27652.14">5387 3487,'4'0,"7"0,5 0,5 0,3 0,2 0,10 0,8 0,6 0,7 0,3 0,-3 0,1 0,-5 0,-10 5,-14 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22477.13">2821 3143,'0'-4,"4"-2,6 1,7 0,3 2,22-4,17 0,12 1,-1 1,-4 2,-9 1,-9 1,-9 1,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22477.12">2821 3143,'0'-4,"4"-2,6 1,7 0,3 2,22-4,17 0,12 1,-1 1,-4 2,-9 1,-9 1,-9 1,-11 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23125.14">2927 3381,'9'0,"7"0,10 0,6 0,1 0,4 0,0 0,8 0,5 0,2 0,-2 0,-5 0,-7 0,-4 0,-4 0,-2 0,-2 0,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23760.14">4435 2614,'0'14,"0"22,0 23,0 10,0 8,0-1,0-9,0-11,0-11,0-8,0-6,0-4,0-2,0 4,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24264.13">4117 3566,'4'0,"11"0,8 0,8 0,8 0,24 0,11 0,6 0,-1 0,-10 0,-8 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24264.12">4117 3566,'4'0,"11"0,8 0,8 0,8 0,24 0,11 0,6 0,-1 0,-10 0,-8 0,-14 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24737.14">4197 3831,'0'5,"0"10,0 16,0 12,0 8,0-1,0 0,0-3,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25289.13">4461 3725,'9'0,"3"5,-1 6,-2 5,-2 4,-3 9,-2 3,-1 1,-1 13,0 3,-1-3,1-4,-1-5,1-4,0-3,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25289.12">4461 3725,'9'0,"3"5,-1 6,-2 5,-2 4,-3 9,-2 3,-1 1,-1 13,0 3,-1-3,1-4,-1-5,1-4,0-3,0-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26531.14">4170 3963,'-3'-3,"1"-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,1 0,0-1,-1 1,2-5,-1-1,1-1,0 1,0 0,1-1,4-10,-3 13,1-1,0 0,0 1,1 0,0 0,1 0,0 1,0-1,0 1,1 1,0-1,0 1,1 1,0-1,0 1,0 1,0-1,1 1,0 1,-1 0,17-4,-9 4,1 0,0 1,-1 1,1 1,0 0,-1 1,1 1,-1 0,1 1,-1 1,25 9,10 5,-29-11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31042.16">4832 3302,'0'1,"0"-1,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 0,1-1,27-16,-20 12,0 1,5-4,0 1,1 0,0 1,23-6,-34 11,1 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,1 1,-1 0,0-1,0 1,0 0,-1 0,1 0,0 1,-1-1,4 6,13 21,-3 1,0 1,-2 1,-2 0,16 58,-14-44,-12-40,3 12,0 0,1 0,2 0,-1-1,2 0,0 0,2-1,14 19,-12-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31862.61">5334 3117,'-4'5,"0"0,1 0,-1 1,2-1,-1 1,0-1,-2 10,-9 18,-142 206,46-80,-2-8,96-127</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31862.6">5334 3117,'-4'5,"0"0,1 0,-1 1,2-1,-1 1,0-1,-2 10,-9 18,-142 206,46-80,-2-8,96-127</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36398.61">413 2164,'4'14,"7"49,5 50,23 145,13 78,-1 37,-6-6,-10-24,-11-16,-10-15,-7-29,-5-44,-2-54,-2-50,0-42,0-38</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38856.61">492 2138,'6'0,"0"-1,-1 0,1-1,0 1,0-1,-1 0,9-4,31-11,32 7,-1 2,123 4,-113 4,1246-1,-722 3,-223 0,764-14,-802-8,457-86,-601 65,363-54,407 44,27 52,-373 4,-602-6,-9 0,0 1,0 1,24 4,-38-4,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 1,0-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0-1,2 5,1 3,-1 1,-1-1,0 1,-1 0,0 0,0 1,1 20,-3 95,-2-87,-10 425,-1 219,13 792,-2-1461,0 0,-1 0,-1-1,0 1,-1 0,0-1,-2 0,0 0,0-1,-2 1,1-1,-2-1,0 1,-1-2,0 1,0-1,-2-1,1 0,-1 0,-1-1,0-1,0 0,-1-1,0-1,-18 8,-29 8,-1-3,-1-2,0-3,-88 8,-261 5,392-27,-1084 7,790-10,-222-32,176 5,-1273 12,630 112,600-46,44 13,50-7,-820 99,1036-145,-172-7,124-5,-316 3,379 0</inkml:trace>
 </inkml:ink>
@@ -18673,7 +20948,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5647.69">9711 1087,'-2'0,"0"0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1-1,1-1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 1,2-7,2 2,0 1,1 0,0-1,0 2,0-1,1 1,0 0,0 0,1 1,0 0,0 0,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,0 0,0 1,17 0,-24 1,1 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,-1 5,3 12,-1 1,-2-1,-2 32,1-30,1 49,1-43,-1 1,-2 0,-8 48,8-72,0 0,0 1,-1-2,1 1,-1 0,0 0,0-1,-1 0,1 1,-1-1,0-1,0 1,-1 0,1-1,-1 0,1 0,-1-1,-7 4,-9 3,-2-1,-43 11,59-18,-17 5,15-5,1 1,-1 0,1 1,0 0,0 0,0 0,0 1,-13 9,1 0,25-23,33-25,-18 21,2 2,0 0,0 2,33-11,-47 18,-1 1,1 1,-1 0,1 0,0 0,-1 1,1 0,0 0,0 1,-1 0,1 0,-1 1,1 0,-1 1,0-1,0 1,0 1,8 4,13 13,-6-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6844.65">10240 1087,'0'5,"0"6,0 18,9 24,3 6,-1-2,-2-7,-2-6,-3-7,-2-5,-1-4,-1-1,0-2,-1-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7750.68">10478 1087,'4'0,"7"14,0 13,0 11,-3 9,-3 0,-2 1,-2 2,0-4,-1-5,-1-4,1-5,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9549.88">10108 1220,'-1'-11,"2"-1,-1 1,2 0,-1-1,2 1,-1 0,2 0,-1 0,1 0,8-13,-8 18,0 0,0 1,1-1,-1 1,1 1,0-1,1 1,-1-1,1 1,0 1,0-1,0 1,0 0,1 1,-1 0,1 0,-1 0,11-1,15-1,0 2,51 2,-52 2,0-2,59-8,-84 7,4 0,0 0,1-1,-1-1,-1 0,1 0,0-1,-1 0,0 0,0-1,16-12,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9549.87">10108 1220,'-1'-11,"2"-1,-1 1,2 0,-1-1,2 1,-1 0,2 0,-1 0,1 0,8-13,-8 18,0 0,0 1,1-1,-1 1,1 1,0-1,1 1,-1-1,1 1,0 1,0-1,0 1,0 0,1 1,-1 0,1 0,-1 0,11-1,15-1,0 2,51 2,-52 2,0-2,59-8,-84 7,4 0,0 0,1-1,-1-1,-1 0,1 0,0-1,-1 0,0 0,0-1,16-12,-7 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18729,7 +21004,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">12 26,'-5'-4,"-1"-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2124.99">3081 0,'0'5,"0"5,0 6,0 5,0 3,-5 2,-6 6,0 1,0 1,4-2,1-2,3-1,2-1,0 3,1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2666.16">3028 688</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4243.4">2737 688,'15'2,"1"0,0 1,-1 0,1 2,-1-1,0 2,20 10,-13-6,0-1,29 7,-26-9,-2 1,38 17,-45-17,-1-1,1-1,1 0,-1-1,1-1,0 0,26 1,-18-5,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4243.39">2737 688,'15'2,"1"0,0 1,-1 0,1 2,-1-1,0 2,20 10,-13-6,0-1,29 7,-26-9,-2 1,38 17,-45-17,-1-1,1-1,1 0,-1-1,1-1,0 0,26 1,-18-5,-2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5231.13">2869 820,'0'-4,"-5"7,-1 7,1 8,0 4,-3 3,0 2,1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6060.37">3081 793,'4'0,"2"5,-1 6,0 5,-2 5,-1 3,-1 2,-5 1,-2 1,1-1,0-4</inkml:trace>
 </inkml:ink>
@@ -18866,7 +21141,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">601 925,'9'0,"16"0,9 0,3 0,-1 0,-1 0,-3 5,-2 1,-1 0,-2-1,-1-2,1-1,-6-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3740.43">548 1375,'9'0,"7"0,10 0,10 0,21 0,5 0,6 5,-4 1,-9-1,-8 0,-9-2,-6-1,1-1,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5808.43">548 925,'111'-1,"124"3,-198 1,0 2,-1 2,1 1,59 21,-76-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5808.42">548 925,'111'-1,"124"3,-198 1,0 2,-1 2,1 1,59 21,-76-20</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19087,7 +21362,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 56,'19'-9,"0"0,1 1,0 1,0 1,1 1,40-6,-50 11,1-1,-1 1,0 1,0 0,1 0,-1 1,0 1,0 0,-1 0,1 1,-1 1,1-1,-1 2,16 11,-8-3,-1 2,-1 0,0 1,23 33,45 81,-76-116,-1 1,0-1,7 30,-10-31,0-1,1 1,0-1,1 0,0-1,10 15,134 147,-34-41,-109-124,15 17,36 37,-52-58,-1 0,1 0,0 0,1-1,-1 0,1 0,0-1,0 1,0-2,0 1,0-1,14 3,2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="969.96">1033 3,'-13'1,"1"1,-1 0,1 1,0 0,0 0,0 2,1-1,-1 1,1 1,0 0,1 1,-1 0,1 1,-15 14,-11 13,3 2,-39 52,65-80,-10 17,0 0,2 2,-14 31,17-32,-1-1,-1 0,-27 36,4-18,-2-1,-1-3,-3-1,-1-2,-2-2,-61 36,85-58</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="969.95">1033 3,'-13'1,"1"1,-1 0,1 1,0 0,0 0,0 2,1-1,-1 1,1 1,0 0,1 1,-1 0,1 1,-15 14,-11 13,3 2,-39 52,65-80,-10 17,0 0,2 2,-14 31,17-32,-1-1,-1 0,-27 36,4-18,-2-1,-1-3,-3-1,-1-2,-2-2,-61 36,85-58</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19119,10 +21394,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6129.15">1166 959,'-2'1,"0"0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-2 4,-13 38,5-6,2 0,1 1,2-1,1 1,3 74,2-107,0 0,0 0,0 0,1 0,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,1 0,-1 0,0-1,8 3,10 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7815.74">1404 985,'-1'18,"-1"-1,0 0,-1 0,-1 0,-9 24,-4 16,12-20,-3 62,8-99,0-28,1 0,1-1,2 1,1 0,1 1,1-1,1 1,2 0,0 1,25-43,-18 42,1 1,34-38,-46 57,1 0,0 1,0-1,1 2,-1-1,1 1,0 0,1 0,-1 1,1 0,0 1,0 0,10-2,2 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9456.49">1881 906,'-14'12,"-1"-2,1 1,-2-2,1 0,-21 8,-34 20,51-25,1 0,0 1,1 1,1 1,-16 18,26-26,1 0,0 1,0 0,0 0,1 1,1-1,-1 1,1 0,1 0,-1 0,2 0,-1 0,1 0,0 14,2-7,0 0,1 0,1 0,1 0,0 0,0-1,2 0,0 0,1 0,0-1,1 0,18 24,-18-28,1 0,0 0,0 0,1-1,0-1,1 0,0 0,0-1,1-1,0 0,0 0,0-1,1-1,0 0,0 0,16 1,-21-4,1-1,0-1,0 1,-1-1,1-1,0 0,-1 0,1 0,-1-1,0-1,0 1,0-1,0-1,-1 1,0-1,0 0,0-1,0 0,-1 0,0-1,5-6,2-4,-1 1,0-2,-2 0,0 0,-1 0,-1-1,0-1,5-22,-9 26,-1-1,0 0,-1-1,-1 1,0 0,-1 0,-1-1,-1 1,-5-21,5 29,-1-1,0 1,-1 0,1 0,-2 0,0 0,0 1,0 0,-1 0,0 0,-1 1,1 0,-1 0,-1 1,1 0,-1 0,-12-6,2 2,-1 2,1 1,-1 0,-1 1,1 1,-1 1,-22-2,-19 2,-61 4,89 1,10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10444.36">2251 826,'-6'6,"1"1,1-1,-1 1,1-1,0 1,0 1,1-1,0 0,1 1,-4 14,2 4,-2 52,2-16,-37 217,19-143,21-126,-1-1,2 1,-1 0,1-1,1 1,0-1,0 1,5 16,-5-22,1 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,1-1,0 1,-1 0,1-1,0 0,1 0,-1 0,5 1,19 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10444.35">2251 826,'-6'6,"1"1,1-1,-1 1,1-1,0 1,0 1,1-1,0 0,1 1,-4 14,2 4,-2 52,2-16,-37 217,19-143,21-126,-1-1,2 1,-1 0,1-1,1 1,0-1,0 1,5 16,-5-22,1 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,1-1,0 1,-1 0,1-1,0 0,1 0,-1 0,5 1,19 5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12273.99">2621 244,'-2'240,"25"590,4-653,-27-177,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,13-27,14-41,-25 63,7-22,1 1,1 0,1 0,2 1,0 1,2 0,0 2,2-1,0 2,28-25,-39 40,1 1,0 0,-1 0,1 1,0 0,1 0,-1 1,0 0,1 0,-1 1,1 0,0 0,-1 1,1 1,-1-1,12 3,-6-1,0 1,-1 1,1 0,-1 0,0 1,0 1,-1 0,1 1,14 11,-15-8,1 2,-1 0,-1 0,0 1,-1 1,0-1,-1 2,-1-1,0 1,-1 0,7 23,-10-27,-1 0,0 0,-1 1,0-1,-1 1,0-1,-1 1,0 0,0-1,-2 1,1-1,-2 1,1-1,-2 0,1 0,-2 0,-5 12,5-16,0-1,0 0,-1 0,0 0,0-1,0 0,-1 0,1 0,-1-1,0 0,-1 0,1-1,-1 0,0 0,1-1,-1 0,0 0,-14 1,-18 1,1-2,-64-5,66 1,18 2,1-1,-1-1,1-1,0-1,0 0,1-1,-21-9,32 11,1 1,-1-2,1 1,-1 0,1-1,0 0,1 0,-1-1,1 1,-1-1,1 0,1 0,-1-1,1 1,0-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,-1-12,1 7,2-1,-1 1,2 0,-1-1,7-18,-1 7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14067.57">3759 1064,'-2'8,"1"0,-1-1,0 1,-1-1,1 0,-8 12,0 5,-10 25,-39 115,32-87,-7 25,31-92,1 0,1 0,0 0,0 0,1 1,0-1,1 0,2 12,-2-18,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,6 2,4 1,0 0,1-1,22 4,10 3,-31-6,8 4,0-2,0-1,1 0,-1-2,32 2,-50-6,1 0,-1 0,1-1,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,0 0,-1 0,3-10,0 1,-1-1,0 0,-1 0,0 0,-2-1,0 1,0-1,-2 1,0 0,0-1,-2 1,0 0,0 0,-10-24,6 22,-1 1,-1 0,-1 0,0 0,-1 1,0 1,-1 0,-1 1,0 0,-1 1,-29-21,33 27,0 1,0-1,0 2,-1-1,0 2,0-1,0 1,-19-2,-3 2,-55 3,74 0,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50927.22">796 2652,'-15'18,"0"-1,2 2,-14 23,23-35,-12 23,1 1,-13 38,1-3,23-57,1-1,-1 1,2 0,-1 0,1 1,0-1,1 0,0 1,1 11,1-16,-1 0,1 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 1,0-1,-1 1,2-1,-1 0,0 0,1 0,0 0,8 5,6 3,1 0,0-2,0 0,1-1,22 6,-5-1,-32-12,0 0,0-1,0 1,0-1,0-1,0 1,1-1,-1 1,0-1,0-1,1 1,-1-1,0 0,0 0,0-1,0 1,0-1,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0-1,-1 0,1 0,5-8,6-10,0-1,-2 0,-1-1,15-41,-19 48,28-46,-6 13,-15 21,-10 20,0 1,0-1,-1 0,-1-1,1 1,-2-1,1 0,-1 0,1-11,-3-48,-1 53,0 0,2 0,-1 0,2 0,0 0,1 0,1 0,10-29,-13 43,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,0-1,0 2,0-1,1 0,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,4 1,-3 0,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 1,-1-1,0 0,1 0,-1 1,0 0,0-1,-1 1,1 0,0 0,1 6,4 11,0 1,-2 0,-1 0,-1 1,1 27,-5 113,0-114,-6 22,-2 1,-3-2,-30 96,20-87,4 1,-9 91,19-124,-1 0,-2 0,-24 60,32-96,1-3,-1 1,0-1,0 1,-1-1,0 0,0 0,-1-1,0 1,0-1,0 0,-1 0,0-1,0 0,-11 7,8-7,0-1,-1 0,1 0,-1-1,0-1,0 0,0 0,0-1,0 0,-1 0,-9-2,-98 0,-108-6,219 7,-1 0,1-1,-1-1,1 1,0-1,0 0,-1-1,1 1,-11-8,14 7,1 1,-1-1,1 0,0-1,1 1,-1 0,0-1,1 0,0 1,0-1,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-6,-2-18,2-1,0 1,7-52,-6 77,0 1,1 0,-1-1,1 1,0-1,-1 1,1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0 0,3-3,13-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50927.21">796 2652,'-15'18,"0"-1,2 2,-14 23,23-35,-12 23,1 1,-13 38,1-3,23-57,1-1,-1 1,2 0,-1 0,1 1,0-1,1 0,0 1,1 11,1-16,-1 0,1 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 1,0-1,-1 1,2-1,-1 0,0 0,1 0,0 0,8 5,6 3,1 0,0-2,0 0,1-1,22 6,-5-1,-32-12,0 0,0-1,0 1,0-1,0-1,0 1,1-1,-1 1,0-1,0-1,1 1,-1-1,0 0,0 0,0-1,0 1,0-1,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0-1,-1 0,1 0,5-8,6-10,0-1,-2 0,-1-1,15-41,-19 48,28-46,-6 13,-15 21,-10 20,0 1,0-1,-1 0,-1-1,1 1,-2-1,1 0,-1 0,1-11,-3-48,-1 53,0 0,2 0,-1 0,2 0,0 0,1 0,1 0,10-29,-13 43,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,0-1,0 2,0-1,1 0,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,4 1,-3 0,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 1,-1-1,0 0,1 0,-1 1,0 0,0-1,-1 1,1 0,0 0,1 6,4 11,0 1,-2 0,-1 0,-1 1,1 27,-5 113,0-114,-6 22,-2 1,-3-2,-30 96,20-87,4 1,-9 91,19-124,-1 0,-2 0,-24 60,32-96,1-3,-1 1,0-1,0 1,-1-1,0 0,0 0,-1-1,0 1,0-1,0 0,-1 0,0-1,0 0,-11 7,8-7,0-1,-1 0,1 0,-1-1,0-1,0 0,0 0,0-1,0 0,-1 0,-9-2,-98 0,-108-6,219 7,-1 0,1-1,-1-1,1 1,0-1,0 0,-1-1,1 1,-11-8,14 7,1 1,-1-1,1 0,0-1,1 1,-1 0,0-1,1 0,0 1,0-1,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-6,-2-18,2-1,0 1,7-52,-6 77,0 1,1 0,-1-1,1 1,0-1,-1 1,1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0 0,3-3,13-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52199.16">1748 3155,'9'0,"7"0,6 0,4 0,1 0,1 0,1 0,-2 0,-4 5,-1 1,-1-1,1 0,1 3,2 0,-5-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55049.41">2674 2731,'0'25,"-5"104,3-113,-1-1,0 1,-1-1,-1 0,0 0,-10 17,8-17,1 0,0 1,1-1,1 1,0 0,-2 31,5 97,3-69,-2-70,0-1,0 0,1 1,0-1,0 1,0-1,0 0,1 0,0 1,-1-1,2-1,-1 1,0 0,1 0,-1-1,1 1,0-1,1 0,-1 0,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,0-1,1 1,-1-1,0 0,9 2,14 1,-1-2,0 0,1-1,34-4,-23 1,-29 2,0-1,0 0,0 0,0-1,-1 0,1 0,-1-1,1 0,-1 0,0-1,0-1,0 1,-1-1,1 0,8-9,-5 3,-2-1,1 0,-2-1,1 1,-2-1,0-1,0 0,6-19,-11 25,16-39,-2 0,13-64,-18 50,2 2,37-102,-45 196,-5 54,-3 188,-3-230,-2 0,-2-1,-2 0,-19 47,9-26,-1 5,1-8,4 2,-14 84,24-104,-2 0,-2-1,-2 0,-2-1,-25 49,37-85,0 0,0-1,-1 1,0-1,0 0,-1-1,0 1,0-1,0 0,-1-1,0 1,0-1,-10 4,11-6,0 0,-1-1,0 0,1-1,-1 1,0-1,0 0,0-1,0 0,0 0,0 0,0-1,1 0,-1-1,0 1,-13-6,8 2,0 0,0 0,0-1,0-1,1 0,-20-17,25 19,0-1,0-1,1 1,0-1,0 0,1 0,0-1,0 1,1-1,0 0,-4-15,-2-18,2-1,2 0,0-50,5 62</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59394.41">505 2414,'0'0,"-1"-1,1 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-20 3,4 2,1 1,-1 0,1 1,1 1,0 0,0 1,0 1,1 0,1 1,0 1,0 0,1 0,-16 23,8-6,1 1,1 0,2 2,1 0,-19 60,10-22,13-42,1 0,1 1,2 0,1 1,-3 33,7 35,2-45,-2-1,-13 70,14-117,-9 43,1-1,3 2,1-1,3 71,5-106,-1 0,2 0,-1-1,2 0,0 1,0-2,1 1,0-1,1 1,1-2,0 1,13 13,4 2,1-1,1-2,39 27,-30-28,42 21,-54-32,-1 1,0 2,-1 0,0 1,32 30,-42-32</inkml:trace>
@@ -19153,7 +21428,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">106 50,'-5'0,"-1"9,1 8,0 9,-3 6,0 5,1 2,2 3,2 3,1-1,-3-4,-1 0,0-2,2 2,1-2,2-3,0-2,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1236.86">27 209,'0'-4,"4"-7,2-5,4 0,5-2,0-7,6-4,9-1,4 5,0 5,4 8,0 9,-7 10,-8 9,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1236.85">27 209,'0'-4,"4"-7,2-5,4 0,5-2,0-7,6-4,9-1,4 5,0 5,4 8,0 9,-7 10,-8 9,-9 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2500.6">1 341,'4'5,"6"1,6 0,19 3,7 5,5 4,0-1,-4-3,-4-4,-5-8,-4-5,-6-1</inkml:trace>
 </inkml:ink>
 </file>
@@ -19181,7 +21456,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 137,'0'13,"2"-1,0 1,6 22,4 22,1 41,-6-51,3 77,-11 60,1-161</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.22">1 137,'9'-4,"3"-6,12-7,13-8,3 0,-1 3,-1 7,-4 5,-2 4,1 4,1 6,-6 7,-8 6,-7 5,-6 3,-9 2,-3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2385.21">1 137,'9'-4,"3"-6,12-7,13-8,3 0,-1 3,-1 7,-4 5,-2 4,1 4,1 6,-6 7,-8 6,-7 5,-6 3,-9 2,-3-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3350.58">54 402,'0'9,"4"8,11 0,7-2,9-4,0 1,-2-2,3-2,1-3,0-2,-6 3,-4 0,0-1,-5-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4397.96">901 31,'0'5,"0"6,0 9,0 12,-5 3,-1 2,-4 2,-5 0,-1-2,0-8,1-4,3-2,0-5,-3-5,1-1,-1 3,1-2</inkml:trace>
 </inkml:ink>
@@ -19213,10 +21488,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1267.79">5083 53,'3'2,"1"-1,-1 0,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,2 6,1-1,174 317,-176-319,49 101,-4 3,-6 2,34 135,-66-190,-2 1,-3 0,-2 1,-7 85,0-30,3-80,-3 0,-1 0,-1 0,-2 0,-1-1,-1-1,-3 1,0-2,-25 43,-19 19,-109 135,150-206,-39 41,32-41</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3522.85">6486 1561,'250'18,"-155"-8,-64-5,-25-3,-1-1,0 0,1 0,-1-1,1 1,9-2,-15 1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,-7-16,-14-9,21 25,-6-6,-1 0,1 1,-2 0,1 0,0 1,-1 0,0 0,-8-2,-73-21,29 10,48 13,-19-8,-1 1,0 2,0 1,-1 2,0 1,-52-1,32 5,35 0,0 1,0 0,0 1,0 1,-21 5,35-6,1 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 1,1-1,0 0,-1 1,1 0,0-1,0 1,-2 5,-20 52,9-18,12-34,0 0,1 0,0 0,1 0,0 0,0 1,0-1,1 0,1 1,-1-1,1 0,1 0,0 0,0 0,0 0,1 0,0 0,1-1,-1 1,7 8,1 2,1-1,1 0,0-1,2 0,-1-1,34 26,-26-26,0 0,1-2,0 0,1-1,0-2,1-1,0 0,1-2,0-1,0-1,0-1,1-2,47 0,-60-2,0 1,1 1,19 5,-20-4,10 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5284.38">7676 1429,'-39'3,"1"2,0 1,0 2,1 1,-48 19,80-26,0 0,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,1 0,-1 1,1 0,-1-1,1 1,0 0,0 1,1-1,0 0,-1 1,-1 7,-1 5,1-1,1 1,1 1,-1 23,1-17,2-18,0 1,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-1,1 1,0-1,0 0,0 0,0 0,8 10,3-1,1 0,0-1,33 24,-47-38,7 7,1 0,-1 0,-1 1,1 0,-1 0,-1 0,10 17,-13-20,-1 0,1 0,-1 0,0 1,-1-1,1 1,-1-1,-1 1,1 0,-1-1,1 1,-2 0,1-1,-1 1,1-1,-3 9,1-11,0 0,1 1,-1-1,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 0,0 0,-1 1,1-2,-1 1,0 0,-4-1,-14 3,0-2,-41-3,42 1,-10 0,0 2,0 1,-36 7,3-1,33-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.58125E6">3575 476,'-2'22,"-1"0,0 0,-2-1,-8 27,-7 26,7-4,3 0,-2 101,10-131,-10 51,7-60,1 0,2 0,1 48,2-73,-1 0,1 0,0 0,0 0,1 0,0-1,0 1,0 0,1-1,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,0 0,4 3,-1-3,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,0-1,0 0,0-1,0 0,16-2,-15 1,0-2,0 1,0-1,0 0,-1-1,1 0,-1-1,0 0,-1 0,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,6-9,9-16,0-1,-3-1,16-37,-33 68,18-43,-2-1,-2 0,-2-2,-2 1,-2-1,-3-1,-2 0,-1-52,0 65,1 27,1 25,2 47,-3 0,-3 0,-5 67,1-18,4 69,-5 163,0-312,-1-1,-1 0,-13 41,14-61,1 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,0 0,-1-1,0 0,0 0,-1-1,1 0,-1 0,-1-1,1 0,-1 0,0-1,0 0,0-1,-1 0,-10 2,-18 8,-54 24,72-27,-2 0,1-1,-2-2,1 0,-1-1,0-1,0-2,-31 2,47-5,0-1,0 0,0-1,0 1,0-1,1-1,-1 1,1-1,-1-1,1 1,0-1,0 0,0 0,1-1,-10-9,12 11,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,1-1,0 0,-1 1,1-1,1 0,-1 0,0 0,1 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,3-4,69-90,-61 75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.58312E6">4342 1693,'0'33,"2"-24,-2 1,1 0,-1-1,-1 1,0-1,0 1,-1-1,0 1,0-1,-1 0,-1 0,1 0,-7 10,-16 17,11-19,2 1,0 1,1 0,1 1,1 0,0 0,-10 35,9-3,3 1,1 0,2 101,5-119</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.5847E6">4316 1773,'0'-4,"0"-7,0-9,4-3,6-1,7 4,3 4,0 15,0 7,-3 7,-4 6,-1 5,-1 2,-3 1,-3 1,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.58626E6">4131 2117,'4'0,"15"0,10 0,3 0,6 5,0 1,-1-1,-3 0,-2-2,-2-1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-136736.92">3575 476,'-2'22,"-1"0,0 0,-2-1,-8 27,-7 26,7-4,3 0,-2 101,10-131,-10 51,7-60,1 0,2 0,1 48,2-73,-1 0,1 0,0 0,0 0,1 0,0-1,0 1,0 0,1-1,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,0 0,4 3,-1-3,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,0-1,0 0,0-1,0 0,16-2,-15 1,0-2,0 1,0-1,0 0,-1-1,1 0,-1-1,0 0,-1 0,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,6-9,9-16,0-1,-3-1,16-37,-33 68,18-43,-2-1,-2 0,-2-2,-2 1,-2-1,-3-1,-2 0,-1-52,0 65,1 27,1 25,2 47,-3 0,-3 0,-5 67,1-18,4 69,-5 163,0-312,-1-1,-1 0,-13 41,14-61,1 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,0 0,-1-1,0 0,0 0,-1-1,1 0,-1 0,-1-1,1 0,-1 0,0-1,0 0,0-1,-1 0,-10 2,-18 8,-54 24,72-27,-2 0,1-1,-2-2,1 0,-1-1,0-1,0-2,-31 2,47-5,0-1,0 0,0-1,0 1,0-1,1-1,-1 1,1-1,-1-1,1 1,0-1,0 0,0 0,1-1,-10-9,12 11,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,1-1,0 0,-1 1,1-1,1 0,-1 0,0 0,1 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,3-4,69-90,-61 75</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-134866.93">4342 1693,'0'33,"2"-24,-2 1,1 0,-1-1,-1 1,0-1,0 1,-1-1,0 1,0-1,-1 0,-1 0,1 0,-7 10,-16 17,11-19,2 1,0 1,1 0,1 1,1 0,0 0,-10 35,9-3,3 1,1 0,2 101,5-119</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-133286.92">4316 1773,'0'-4,"0"-7,0-9,4-3,6-1,7 4,3 4,0 15,0 7,-3 7,-4 6,-1 5,-1 2,-3 1,-3 1,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-131726.92">4131 2117,'4'0,"15"0,10 0,3 0,6 5,0 1,-1-1,-3 0,-2-2,-2-1,-7-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19255,18 +21530,44 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14387.49">10552 688,'-3'1,"0"-1,1 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,1-1,0 0,-2 4,-3 7,1 1,-8 26,10-27,-13 46,2 2,3 0,3 0,2 1,4-1,5 78,-2-128,1 0,0-1,0 1,1 0,1-1,0 1,0-1,1 0,0 0,1-1,0 0,0 0,1 0,1-1,-1 0,1 0,0 0,1-1,0-1,0 0,0 0,18 8,6 0,-6-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52038.3">578 2276,'-205'232,"138"-150,-77 73,125-139,0-2,0 0,-2-1,0-1,-28 12,48-24,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,0-1,-1 1,1 0,0 0,19 5,34-4,240-36,-160 15,23-6,-131 23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52975.32">842 2223,'-5'94,"-30"171,18-170,-6 158,9 12,1 32,13-260,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55395.76">1001 2990,'0'926,"0"-1885,-1 942,2-1,0 1,1-1,7-25,-7 37,-1 1,1-1,1 1,-1 0,1-1,0 1,0 1,0-1,1 0,0 1,0 0,0-1,0 1,1 1,-1-1,1 1,5-3,12-5,0 2,1 0,0 1,1 2,-1 0,1 2,0 0,0 2,27 0,251 4,-296-2,1 1,-1 0,0 0,1 1,-1-1,0 1,0 1,0-1,0 1,-1 0,1 0,-1 1,1 0,-1-1,0 2,-1-1,1 1,-1-1,0 1,0 1,0-1,-1 0,0 1,4 10,-1 1,-1 1,0-1,-2 1,0 0,-1 1,-1-1,-2 29,1-32,0-1,-2 1,0-1,0 0,-2 0,-9 27,9-33,0 0,0-1,-1 0,0 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,0-1,0 0,-9 4,1-1,-1-1,-1-1,1 0,-1-1,0-1,0 0,0-1,-18 0,-147-4,91-2,77 3,-61-5,52-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55395.75">1001 2990,'0'926,"0"-1885,-1 942,2-1,0 1,1-1,7-25,-7 37,-1 1,1-1,1 1,-1 0,1-1,0 1,0 1,0-1,1 0,0 1,0 0,0-1,0 1,1 1,-1-1,1 1,5-3,12-5,0 2,1 0,0 1,1 2,-1 0,1 2,0 0,0 2,27 0,251 4,-296-2,1 1,-1 0,0 0,1 1,-1-1,0 1,0 1,0-1,0 1,-1 0,1 0,-1 1,1 0,-1-1,0 2,-1-1,1 1,-1-1,0 1,0 1,0-1,-1 0,0 1,4 10,-1 1,-1 1,0-1,-2 1,0 0,-1 1,-1-1,-2 29,1-32,0-1,-2 1,0-1,0 0,-2 0,-9 27,9-33,0 0,0-1,-1 0,0 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,0-1,0 0,-9 4,1-1,-1-1,-1-1,1 0,-1-1,0-1,0 0,0-1,-18 0,-147-4,91-2,77 3,-61-5,52-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57225.96">2218 2673,'0'-3,"0"0,0 0,0 0,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0-1,0 1,3-3,0 2,-1 0,1 0,-1 0,1 1,0-1,0 1,0 1,1-1,8-1,6 0,1 1,1 1,-1 1,27 4,-33-2,0 0,-1 1,1 1,-1 1,0 0,0 0,24 14,-13-3,-2 0,1 2,22 22,9 6,-39-34,-2 0,1 1,-2 0,1 1,20 29,-29-35,18 31,2 0,2-2,2 0,1-2,51 45,-76-76,0 0,1 0,0-1,0 1,0-2,0 1,8 2,9-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58802.96">3197 2329,'-2'5,"1"0,-1 0,1 0,-1-1,-1 1,1-1,0 0,-1 1,-5 4,-3 9,-88 142,-35 66,105-173,-3-1,-59 74,-1 1,72-97,0 0,-2-1,-44 43,47-56</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59978.98">3647 2673,'9'1,"1"0,-1 1,0 0,12 4,30 6,330-7,-208-8,-149 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61618.96">4679 2673,'24'1,"0"-2,-1-1,1-1,0-1,41-12,-60 14,1 0,0 1,0-1,0 2,0-1,0 1,-1-1,1 2,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 1,2 5,17 26,2 0,1-1,3-2,46 48,-51-57,-11-12,1 0,1-1,-1-1,2 0,0-1,0 0,0-1,33 13,-25-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63002.79">5420 2567,'-31'0,"1"1,0 1,0 2,0 0,-54 18,72-18,1 0,0 1,1 1,-1 0,1 0,0 1,1 0,-1 1,1 0,1 0,0 1,0 0,1 1,0 0,0 0,1 0,-8 20,-2 10,5-12,-1 1,-1-2,-2 0,-24 35,-23 35,22-30,19-37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63002.78">5420 2567,'-31'0,"1"1,0 1,0 2,0 0,-54 18,72-18,1 0,0 1,1 1,-1 0,1 0,0 1,1 0,-1 1,1 0,1 0,0 1,0 0,1 1,0 0,0 0,1 0,-8 20,-2 10,5-12,-1 1,-1-2,-2 0,-24 35,-23 35,22-30,19-37</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="67770.88">2562 2038,'-5'3,"1"-1,1 0,-1 1,0 0,1 0,-1 0,1 0,0 1,0-1,0 1,0 0,1 0,-3 6,3-7,-144 245,117-192,18-36,0 0,2 0,0 1,1 0,1 0,-8 42,12-41,-2-1,-9 27,7-29,1 1,-5 38,6-7,1-1,4 1,1 0,2-1,3 1,13 55,-9-81,2 0,0-1,2 0,1-1,0-1,30 32,-32-37,-2-5,1 0,0-1,1-1,0 0,1 0,0-2,26 13,-37-19,20 10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70160.89">6160 2064,'0'11,"1"1,1-2,-1 1,2 0,0 0,0-1,9 20,44 69,-1-2,-32-36,-3 1,19 100,-37-155,8 56,4 125,-3-23,-2-67,-5-1,-8 116,-22-41,21-151,-1 0,-2-1,0 0,0-1,-2 1,-1-2,-16 24,18-32,-1 0,0 0,0-1,-1 0,0-1,0 0,-20 10,-25 17,24-11,3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.69359E6">5605 3096,'-4'77,"-13"78,10-101,3-27,-17 52,-2 6,20-63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.69503E6">5552 3202,'1'-9,"1"-1,0 0,1 1,0-1,0 1,1 0,0 0,1 0,0 0,0 1,1 0,0 0,0 1,1-1,0 1,1 1,11-9,-12 9,0 0,0 1,1-1,0 2,0-1,0 1,0 1,1-1,0 1,-1 1,1 0,0 0,0 1,0 0,0 0,0 1,1 0,-1 1,11 2,-15-2,0 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,4 9,-2-4,-1 1,0 0,-1 0,0 0,0 1,1 12,-1 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.69678E6">5552 3361,'0'5,"9"1,7-1,10 0,6 3,1 0,0-1,-2-2,-5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">6504 1958,'8'-1,"1"0,0-1,-1-1,1 1,-1-1,11-6,13-4,1 6,0 0,0 3,0 0,1 2,-1 2,54 6,-76-5,0 2,-1 0,1 0,-1 0,1 1,-1 1,0 0,17 12,-13-7,0 0,-1 1,0 0,0 1,10 14,-19-19,0-1,0 1,-1 0,0 1,-1-1,1 0,-1 1,-1-1,1 1,-1 0,-1-1,1 1,-1 0,-2 13,1-9,-1 0,0-1,-1 1,0-1,0 0,-1 0,-1 0,-12 20,6-14,-1-2,0 0,-2 0,0-1,0-1,-1 0,-1-1,0-1,-1 0,-34 16,40-23,0 0,0 0,0-1,0 0,-1-1,1 0,-1-1,1 0,-1-1,0 0,1-1,-1 0,1-1,-1 0,1-1,0-1,0 1,0-2,-18-9,27 13,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 1,2-4,0 3,0-1,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 1,0-1,0 1,7-1,-1 0,0 1,0 0,0 1,1 0,-1 0,0 1,0 1,1 0,-1 0,-1 1,1 0,11 5,5 6,0 1,43 32,-24-15,-25-19,0-2,0 0,2-2,-1 0,1-1,0-1,0-1,1-1,0-1,42 1,-43-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24396.92">5605 3096,'-4'77,"-13"78,10-101,3-27,-17 52,-2 6,20-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22956.92">5552 3202,'1'-9,"1"-1,0 0,1 1,0-1,0 1,1 0,0 0,1 0,0 0,0 1,1 0,0 0,0 1,1-1,0 1,1 1,11-9,-12 9,0 0,0 1,1-1,0 2,0-1,0 1,0 1,1-1,0 1,-1 1,1 0,0 0,0 1,0 0,0 0,0 1,1 0,-1 1,11 2,-15-2,0 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,4 9,-2-4,-1 1,0 0,-1 0,0 0,0 1,1 12,-1 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21206.92">5552 3361,'0'5,"9"1,7-1,10 0,6 3,1 0,0-1,-2-2,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36.47">6504 1958,'8'-1,"1"0,0-1,-1-1,1 1,-1-1,11-6,13-4,1 6,0 0,0 3,0 0,1 2,-1 2,54 6,-76-5,0 2,-1 0,1 0,-1 0,1 1,-1 1,0 0,17 12,-13-7,0 0,-1 1,0 0,0 1,10 14,-19-19,0-1,0 1,-1 0,0 1,-1-1,1 0,-1 1,-1-1,1 1,-1 0,-1-1,1 1,-1 0,-2 13,1-9,-1 0,0-1,-1 1,0-1,0 0,-1 0,-1 0,-12 20,6-14,-1-2,0 0,-2 0,0-1,0-1,-1 0,-1-1,0-1,-1 0,-34 16,40-23,0 0,0 0,0-1,0 0,-1-1,1 0,-1-1,1 0,-1-1,0 0,1-1,-1 0,1-1,-1 0,1-1,0-1,0 1,0-2,-18-9,27 13,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 1,2-4,0 3,0-1,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 1,0-1,0 1,7-1,-1 0,0 1,0 0,0 1,1 0,-1 0,0 1,0 1,1 0,-1 0,-1 1,1 0,11 5,5 6,0 1,43 32,-24-15,-25-19,0-2,0 0,2-2,-1 0,1-1,0-1,0-1,1-1,0-1,42 1,-43-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink229.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:31:42.070"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19302,6 +21603,285 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink230.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:06.482"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">382 218,'-6'1,"1"0,0 0,-1 1,1-1,0 1,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,-8 8,-1 2,0 0,-18 26,23-27,1 0,0 0,1 1,1 0,0 0,1 0,0 1,-3 27,4-16,1 1,2 0,5 50,-5-71,1-1,1 1,-1 0,0-1,1 0,0 1,0-1,0 0,1 0,0 0,-1 0,1 0,1-1,-1 0,0 1,1-1,-1 0,7 3,6 4,1-2,-1 0,27 9,9 3,-28-10,1-1,0-1,0-2,1 0,0-2,0 0,0-2,0-1,1-2,-1 0,49-9,-68 8,0 1,0-2,0 1,0-1,0 0,-1 0,1-1,-1 0,0 0,0 0,-1-1,1 0,-1 0,0 0,0-1,6-9,-3 3,-1-1,-1 0,0 0,-1 0,0-1,-1 0,4-25,-3 3,-1-1,-2 0,-2 0,-1 0,-2 0,-11-53,10 77,0 1,-1-1,-1 1,0 1,-1-1,0 1,-1 0,0 1,-1-1,0 2,0-1,-13-9,8 8,0 0,-1 1,0 0,0 1,-1 1,0 1,0 0,-30-8,-41 0,-1 4,0 3,0 4,-116 11,200-7,1 0,-1 1,1 0,-1-1,1 1,0 1,-1-1,1 0,0 1,0 0,0-1,0 1,0 1,0-1,1 0,-1 1,1-1,0 1,-1 0,-2 5,4-6,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,-1 0,4 4,9 6</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink231.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:07.356"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 1032,'0'5,"0"10,0 7,-5 9,-1 4,-4 0,0-1,-4-7,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808">826 0,'-19'36,"3"1,1 0,2 1,1 1,2 0,2 0,2 1,1 0,1 42,3-53,2 1,1 0,1-1,1 0,15 50,-17-72,0 0,0 0,1-1,0 0,1 1,-1-1,1-1,1 1,-1 0,1-1,0 0,0 0,0 0,1-1,-1 0,1 0,0 0,0-1,1 0,-1 0,1 0,-1-1,1 0,0 0,0-1,0 0,0 0,0-1,12 0,-11-1,0 1,-1-2,0 1,1-1,-1 0,0-1,1 1,-2-1,1-1,0 0,-1 0,1 0,-1 0,0-1,0 0,-1 0,10-12,-9 9,-1 0,1-1,-1 0,0 1,-1-2,0 1,-1 0,0-1,0 0,-1 0,0 0,0-19,-8-195,4 210,-1 0,0 1,-1-1,0 1,-1 0,0 0,-1 0,-1 1,-12-19,14 24,0 0,0 0,-1 1,1 0,-1 0,-1 0,1 0,-1 1,0 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,-16-3,-115-16,80 11,0 2,-81 0,114 9,3 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink232.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:25.815"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">80 149,'0'1,"0"0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,5 0,-14-5,3 3,1 1,0 0,0 0,-1 0,1 0,0 1,-1 0,1 0,-6 0,9 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,2 2,-2-1,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 0,-1 1,1-1,1-1,-1 1,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,2-1,0 0,-1 0,1 1,0-1,-1-1,0 1,1 0,-1-1,0 0,1 0,-1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,3-5,-1-1,-1 0,-1 0,0-1,0 1,-1 0,0-1,0 1,-1-1,-2-17,2 24,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,-5 0,6 0,0 0,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,1-1,0 1,-1 0,1 2,-4 64,4-60,0 7,1-1,0 0,1 0,0 0,1 0,8 23,-9-33,-1 0,1-1,0 1,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 0,0 0,5 0,-6-1,0 1,1 0,-1-1,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,-1-1,1 1,0 0,-1-1,0-4,1 3,-1 0,0 0,0 0,-1 0,1-1,-1 1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 0,-1 1,0 0,0-1,0 1,0 0,0 0,-1 1,-6-6,2 6,1-1,-1 1,-1 0,1 1,0 0,-1 0,1 1,-1 0,1 1,-1 0,0 0,-13 2,17-1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 1,0-1,-5 5,7-5,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,1 4,1-2,0 0,0 0,1-1,0 1,-1 0,1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,1 0,-1 1,1-2,4 4,13 6,46 19,-64-29,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,-1 0,1 0,1-5,-2 3,1 1,-1-1,0 0,-1 1,1-1,-1 0,0 1,-1-1,1 0,-1 1,0-1,-1 1,1-1,-1 1,0-1,0 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,-8 1,-2 1,0 2,0 0,-28 11,39-13,-1 0,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 0,0 1,0-1,-4 7,7-9,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1 0,2 0,5 3,0-1,1 0,-1 0,13 2,10 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink233.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:37.621"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">288 21,'-6'0,"0"0,1 0,-1 0,0 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,-5 3,7-2,0-1,0 1,0 0,1 1,0-1,-1 0,1 1,1-1,-1 1,0-1,1 1,0 0,0 0,0 0,0-1,0 1,1 0,0 5,-1-1,0 0,1 0,0 1,0-1,1 0,0 0,1 0,0 0,0 0,1 0,-1 0,2-1,5 11,-6-13,1-1,-1 1,1-1,1 0,-1 0,0-1,1 1,0-1,0 0,0 0,0 0,0-1,0 0,1 0,-1 0,1-1,0 1,-1-1,12 0,-11 0,1-1,-1 1,0-2,0 1,0 0,0-1,0 0,0-1,0 1,0-1,6-3,-9 3,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,-1-1,1 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,0-1,0-5,1 1,-1 1,0-1,0 1,-1-1,0 1,-1 0,1-1,-1 1,-1 0,1 0,-1 0,0 1,-1-1,0 1,0-1,-6-6,4 7,0 0,0 1,-1-1,0 1,-1 1,1-1,-1 1,1 0,-1 1,0 0,-1 0,1 1,-16-3,-13-2,16 3,1 0,-1 1,0 1,-29 1,46 1,0 0,-1 1,1-1,0 1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,-1 5,2-4,1 0,-1 0,1 0,0-1,0 1,1 0,0 0,-1 0,2 0,-1-1,0 1,1 0,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,6 4,-1 0,0 0,0-1,1 0,0-1,0 0,1 0,0-1,21 6,-27-10,1-1,0 1,-1-1,1 0,0-1,-1 0,1 0,0 0,-1 0,1-1,-1 0,10-4,-13 5,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,-1 0,1-1,0 0,-1 1,0-1,0 1,1-1,-1 1,-1-6,0 6,0 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-3 2,-3-1,0 1,1 0,-1 1,0-1,1 1,-1 1,1 0,-7 4,9-3,0-1,1 1,-1 0,1 0,0 1,0-1,1 1,0 0,0 0,-3 9,5-12,-1-1,2 0,-1 1,0-1,0 1,1-1,0 1,-1 0,1-1,0 1,0-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,4 3,-3-4,-1-1,0 1,0 0,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0-1,0 1,0 0,1-2,1-2,0-1,0 1,0 0,-1-1,1 0,-1 0,1-9,1-9</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink234.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:40.368"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">166 3,'-30'-1,"18"0,0 1,0 0,0 0,-14 3,24-2,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,0-1,0 0,-1 4,-1-1,1 0,1 1,-1 0,1-1,0 1,0-1,0 1,1 0,0 0,0-1,1 1,-1 0,1 0,0-1,1 1,0-1,-1 1,2-1,-1 0,1 0,-1 0,1 0,1 0,-1 0,1-1,0 0,0 1,0-2,0 1,1 0,-1-1,1 0,0 0,0 0,0-1,1 1,-1-1,1-1,-1 1,8 1,-8-2,0 1,1-1,-1 0,0 0,1-1,-1 1,1-1,-1-1,1 1,-1-1,1 0,-1 0,0 0,1-1,-1 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 1,0 0,-1-1,0 1,0-1,-1 1,-1-9,2 11,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,1 1,-6 0,5 0,-1 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 1,0 0,0-1,1 1,-1 0,-3 6,2-1,1-1,-1 1,2 1,-1-1,-2 16,4-22,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,2 2,8 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink235.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:46.558"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">458 0,'-8'1,"1"0,0 0,0 1,0 0,0 0,0 1,0 0,0 0,1 0,-1 1,1 0,0 0,0 0,1 1,-1 0,-7 10,-3 3,1 2,1 0,-20 36,-148 245,171-284,1 0,1 1,1 0,1 0,0 1,1 0,1 0,-2 21,3-6,1 0,3 0,5 64,-2-83,1 0,0 0,0-1,1 1,1-1,1-1,0 1,1-1,0 0,11 13,18 19,53 49,-85-88,15 12,-3-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink236.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:47.836"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 0,'-1'1,"0"-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,-4 30,4-31,0 28,1 0,1 0,11 54,33 88,-3-12,-32-86,-2 1,-4 0,-3 0,-9 81,-1-86,-4-1,-35 118,31-130,-2-1,7-33</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink237.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:32:49.606"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">260 232,'-3'1,"1"-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-2 3,-21 50,20-45,-19 47,3 0,-25 120,42-155,-1 1,-1-1,-1 0,-1-1,-1 1,0-1,-14 23,21-43,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-2 0,2-1,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,1-1,-1 0,1-2,5-27,1 1,2 0,0 0,3 1,17-35,-1 1,14-26,15-39,-42 86,40-79,-49 109,1 0,1 0,0 0,1 1,0 0,1 1,0 0,1 1,0 0,16-10,-26 17,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0 0,1 1,1 3,-1 0,0 0,0 0,-1 0,0 0,0 1,0-1,-1 0,0 1,0-1,0 0,-3 11,-3 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="738.52">22 549,'4'0,"6"0,7 0,8 0,5 0,6 0,2 0,-1 0,-3 0,-2 0,2 0,0 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116.52">445 920,'6'0,"0"-1,0 0,1-1,-1 1,0-1,0-1,-1 1,1-1,0 0,-1 0,1-1,-1 1,6-7,11-10,31-35,-31 30,-16 19,0 0,0 0,0 1,0 0,1 0,11-6,-17 10,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,1 1,-1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 2,1 5,0 0,-1 0,0 1,-1-1,0 0,0 0,-1 0,-2 16,-24 77,13-55,7-21,-10 33,3 2,-9 92,21-119</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink238.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:01.554"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">456 81,'-2'28,"-1"-1,-2 1,-15 52,-5 35,23-102,1-1,0 1,1 0,1-1,0 1,1-1,3 16,-3-24,-1 0,1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 1,0-2,0 1,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,9 0,-7 0,0 0,0 0,1-1,-1 1,0-1,0-1,0 1,0-1,-1 0,1-1,0 1,-1-1,0 0,1-1,-1 1,0-1,-1 0,1 0,5-6,8-23,-1-1,-1-1,-2 0,-1 0,10-51,-5 23,-6 17,-9 30,1 0,1 0,0 1,12-23,-17 38,0-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,2 1,9 19,-3 37,-8-55,4 423,-7-222,3-181,-2-1,-1 1,-1 0,0-1,-2 0,-15 39,7-28,-2 0,-1-1,-33 44,36-59,0 0,-1-1,0 0,-1-1,-1-1,-30 18,-119 56,134-71,22-12,0 1,0-1,-1-1,1 0,-1 0,0-1,1-1,-1 0,0 0,0-1,0 0,0-1,0 0,0-1,0 0,1-1,-1 0,-17-8,19 6,0 0,0 0,1-1,0 0,0-1,1 0,0 0,0 0,1-1,-1 0,2 0,-1-1,1 1,1-1,-1-1,1 1,1 0,0-1,0 0,-1-15,0-11,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2301.52">1382 478,'9'0,"7"0,11 0,9 0,7 0,2 0,1 0,-2 0,0 0,-3 0,1 0,-2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2871.27">1118 689,'0'5,"13"1,9 0,11-1,7-2,11-1,6-1,11 0,4-1,-3-1,-8 1,0 0,-7 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3708.27">2494 319,'-59'59,"3"2,-85 122,134-173,2-4,0 1,0 1,0-1,1 1,0-1,1 1,0 0,0 0,1 1,-1-1,0 9,4-15,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,2-1,52 8,-47-7,166 2,0-8,182-28,-268 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4317.82">2970 292,'-1'0,"1"0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,6 27,-2-1,-1 1,-1-1,-1 1,-4 29,2 8,0 582,5-597,2-35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5810.8">3182 954,'0'1,"1"-1,0 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,1 1,3 26,-3-23,4 73,-5 91,1 45,7-180,-2-32,0-20,9-147,-7 69,-3-10,-5 69,1 1,3-1,8-36,-10 64,1 1,0 0,1 0,0 0,0 1,0-1,1 1,0 0,1 0,0 1,0 0,0 0,1 0,0 1,0 0,0 0,0 0,1 1,0 0,0 1,0 0,0 0,1 1,-1 0,1 0,-1 1,1 0,0 1,-1-1,1 2,0-1,-1 1,1 1,-1 0,1 0,9 4,-14-4,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,1 8,3 14,-1 0,0 34,-4-49,0-9,1 11,0 0,-1 0,-1 0,0 0,-5 21,5-30,0-1,-1 1,1-1,-1 0,0 1,0-1,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,-7 0,-14 3,-1-2,0-1,-43-4,21 1,24 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8346.8">3922 425,'53'-1,"-21"0,56 5,-78-3,0 1,-1 0,1 0,-1 1,1 0,-1 1,0 0,0 1,16 10,-4 2,-1 1,-1 0,-1 1,0 2,-1-1,25 44,-5 3,29 75,6 12,-62-136,0-1,2-1,0 0,0 0,2-2,0 1,16 12,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8977.81">4557 319,'-1'7,"0"0,0 0,-1-1,1 1,-5 9,-3 12,-16 134,21-121,-2 0,-1-1,-2 0,-2 0,-20 47,4-37,-2-1,-3-1,-38 45,-9 13,68-93,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10446.81">4716 1,'34'0,"0"1,0 2,1 1,-2 1,38 12,-62-15,0 1,-1 0,1 0,-1 1,0 0,0 1,0 0,-1 0,0 1,0 0,0 0,-1 0,1 1,-2 0,1 0,-1 1,0-1,0 1,-1 0,0 1,-1-1,0 0,0 1,2 13,-1 5,-1 0,-2 0,-1 0,0 0,-2 1,-9 41,8-61,0 0,-1 0,0-1,0 1,0-1,-1 0,0-1,-1 1,1-1,-1 0,-1 0,1-1,-1 0,0 0,0 0,-15 6,8-4,0-1,0 0,-1-1,1-1,-1 0,0-1,-1 0,-23 0,37-3,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 1,4-2,8-2,1 0,1 0,-1 2,0 0,1 1,-1 0,1 1,-1 1,1 1,-1 0,0 1,0 0,0 1,0 1,-1 1,1 0,-1 0,24 17,-24-12,1 1,0 0,0-1,1-1,0 0,1-1,0-1,1-1,21 7,-16-10</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink239.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:28.407"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">774 767,'4'0,"2"9,-1 12,0 7,-2 3,4 1,0 0,-1 2,-1 1,-2-1,-1-2,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="515.99">1065 635,'0'18,"0"20,4 16,2 8,-1 3,0 13,-2 1,-1-7,-1-12,0-11,-1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1751">562 846,'-3'-3,"0"0,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-1,1 1,1-6,-2 5,2 0,-1 0,0 1,1-1,0 0,0 1,1 0,-1-1,1 1,0 0,0 0,0 0,1 1,-1-1,1 1,0 0,4-3,0 2,-1 1,1-1,0 2,1-1,-1 1,0 0,1 1,-1 0,1 0,13 1,7 3,52 10,-53-7,47 3,-34-8,-11-1,-1 1,1 2,36 8,-31-5,1-2,0-1,0-2,38-3,-9 1,-34 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2531.52">1832 1217,'0'5,"0"5,0 15,0 17,0 10,0 1,-5 0,-1-4,-4-7,-1-4,-2-11,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3373.52">1991 952,'3'-1,"1"0,-1 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,3-4,6-3,34-25,-1-1,-2-2,68-74,-108 108,0-1,0 1,0 1,0-1,0 0,1 1,-1 0,8-4,-10 6,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,6 27,0 0,-3 1,0-1,-2 0,-4 56,3 49,6-87,-4-35,0 0,-1 0,0 1,-1-1,-1 13,-3-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4080.59">324 0,'-2'7,"1"-1,-1 0,0 1,0-1,-1 0,0-1,0 1,-7 10,-5 9,-39 96,5 1,5 3,6 1,-26 157,53-226,2 1,3 0,2 0,3 0,7 64,-5-113,2 0,-1 0,1 0,1 0,0-1,0 0,0 0,1 0,0 0,1-1,0 0,0 0,0 0,1-1,0 0,0 0,1-1,9 6,15 7,2-1,0-2,41 13,-69-26,18 6,0-1,47 5,-38-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4890.63">2441 396,'46'47,"-5"-6,38 51,-51-56,-2 2,-1 1,38 84,19 103,-71-186,-2 0,-2 0,4 79,-10-97,0 37,-6 64,3-106,0-1,-1 0,-1 0,-1 0,0 0,-1-1,0 0,-15 25,1-12</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19328,8 +21908,303 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1255.99">1404 317,'-1'0,"1"-1,0 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 1,1-1,-1 0,0 2,-34 16,24-8,1 1,1 0,0 0,0 1,1 1,-7 13,-37 88,30-61,-2 2,-2-1,-3-1,-39 53,56-90,1 1,0 1,1-1,-14 36,22-47,0 0,1 0,-1 0,1 1,1-1,-1 0,1 1,1 10,-1-13,1-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,3 3,4 0,0 0,1-1,-1-1,1 0,0 0,0-1,0-1,12 1,11 3,-12-1,1-1,0-1,41-2,-58 0,-1 0,1-1,0 0,0 0,-1-1,1 0,-1 0,1 0,-1 0,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,0-1,-1 1,5-7,6-13,-2-1,-1 0,0 0,-2-2,10-48,-11 27,-3 1,1-74,-6 27,-3-148,3 239,0-1,-1 0,1 1,-1-1,0 0,1 1,-2-1,1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,-2-2,3 4,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,-4 4,-17 9</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808.99">1853 1058,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3068.99">3018 0,'-13'1,"0"1,1 0,-1 1,1 0,-1 1,1 0,0 1,1 0,-1 1,-19 13,-9 9,-51 47,77-62,-7 3,1 1,1 2,1-1,1 2,0 1,1 0,2 0,-20 40,-1 19,-45 152,71-200,2 0,2 0,1 0,1 1,2-1,1 1,2-1,7 45,-8-71,0 0,1-1,-1 1,1-1,0 1,1-1,-1 1,1-1,0 0,1 0,-1-1,1 1,7 7,-5-8,-1-1,1 1,0-1,0-1,0 1,0-1,0 0,1 0,-1-1,1 0,-1 0,8 0,-5 0,1 0,0-1,0 0,0 0,0-1,-1-1,1 0,11-3,-18 4,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 0,0 1,0-2,0 1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,-1 0,1 1,0-1,-1 0,1 0,-2-3,-6-19,0 1,-2 0,-1 0,0 1,-2 1,0 0,-2 1,-26-30,37 46,0 0,0 1,0-1,-1 1,1 1,-1-1,0 1,-1-1,1 1,-11-4,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4344.98">3600 132,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,-15 5,-14 15,20-11,1 1,1 0,0 1,0-1,1 2,0-1,1 1,0 0,-5 18,-4 15,-11 58,20-80,1 1,2 0,-1 36,4-54,0-1,0 1,1-1,-1 1,1-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,0 0,-1-1,2 1,-1-1,1 0,-1 0,1 0,0 0,7 4,-2-3,1 1,0-2,0 1,0-1,0-1,0 0,1 0,0-1,17 1,-24-2,0-1,0 0,-1 0,1 0,0-1,0 0,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1-1,0 1,0 0,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,-1-1,1 1,0 0,-1-1,2-4,28-146,-21 112,-3-1,-1 0,0-67,-6 80</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4344.97">3600 132,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,-15 5,-14 15,20-11,1 1,1 0,0 1,0-1,1 2,0-1,1 1,0 0,-5 18,-4 15,-11 58,20-80,1 1,2 0,-1 36,4-54,0-1,0 1,1-1,-1 1,1-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,0 0,-1-1,2 1,-1-1,1 0,-1 0,1 0,0 0,7 4,-2-3,1 1,0-2,0 1,0-1,0-1,0 0,1 0,0-1,17 1,-24-2,0-1,0 0,-1 0,1 0,0-1,0 0,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1-1,0 1,0 0,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,-1-1,1 1,0 0,-1-1,2-4,28-146,-21 112,-3-1,-1 0,0-67,-6 80</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6044.99">3600 555,'-20'17,"0"-2,-1 0,0-1,-1-2,-26 12,-23 13,41-19,0 0,2 2,-32 29,52-42,0 1,0 1,1-1,0 1,1 0,0 1,0-1,1 1,0 0,1 1,0-1,1 1,0 0,-1 11,1 1,1-1,1 1,2 32,-1-51,1 0,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,6 2,10 1,0-2,0 0,0-1,1-1,-1-1,0-1,0-1,0 0,0-1,0-1,0-1,-1-1,33-14,-42 15,0 0,-1-1,1 0,-1 0,0-1,-1 0,0-1,0 0,0 0,-1 0,0-1,-1 1,5-11,-5 6,0-1,-1 1,-1-1,0 0,0 0,-2 0,0 0,-1-27,-1 17,1 15,0 0,0 0,-1 0,0 0,-5-16,5 23,0 0,0-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-5 0,-53-7,32 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink240.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:44.627"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">155 393,'-2'12,"-1"0,0 0,-1-1,0 1,0-1,-1 0,-8 13,4-6,-25 44,23-44,0 0,1 0,2 1,-1 1,2-1,1 1,-6 30,12-47,0-1,0 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,3 1,11 2,0-1,1-1,27-2,-36 1,12 0,18 0,0-1,1-2,-2-2,1-1,54-16,-68 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="671.04">525 367,'0'23,"0"20,0 17,0 7,0 1,0 3,-5-2,-1-4,0-3,1-4,2-3,-3-1,-1-6,1-2,-8 1,-5-4,-1-5,5-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2225.04">869 975,'-2'36,"0"0,-3-1,0 1,-16 47,-55 131,11-34,61-166,-3 12,5-22,1-15,3-78,3 0,32-163,-30 220,1 1,2 0,2 1,0 0,2 0,1 2,2 0,0 1,2 0,1 2,33-34,-51 56,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,1 2,-1-1,0 0,1 0,-1 1,0 0,1 0,-1 0,1 0,4 1,-3 1,-1 0,1 0,-1 1,1 0,-1-1,0 2,0-1,0 0,0 1,-1-1,0 1,1 0,-1 1,3 5,14 22,-1 1,-1 1,19 52,-30-65,0 0,-2 1,0 0,-2 0,0 0,-1 0,-2 30,-1-49,1 0,0 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,-4 3,2-1,-2-1,1 0,0 0,0 0,-1-1,0 0,1 0,-8 1,-12 2,0-2,-1-1,-30-1,33-1,-9 1,-131-4,161 3,0 0,0 0,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0-1,-1-3,-4-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2986.11">1795 446,'0'14,"0"13,0 15,0 11,0 4,0 6,0 2,-5-11,-1-9,0-9,1-1,2-2,1-2,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3533.29">2218 393,'0'5,"0"10,0 16,0 48,0 24,0 8,0-2,0-9,0-14,0-17,0-10,-5-7,-5-13,-6-11,-1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4601.82">1689 711,'-4'0,"-1"0,1 0,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,1 0,0 0,0-1,0 0,0 1,0-1,-5-6,4 2,0 0,0 1,0-2,1 1,0 0,1-1,-1 0,1 1,1-1,-2-8,2 5,1 0,0-1,0 1,1 0,0 0,1 0,3-12,-3 17,0 1,0-1,0 1,0 0,1 0,0 0,0 0,0 0,1 1,0-1,0 1,0 0,5-5,-2 5,1 0,-1 1,1 0,-1 0,1 0,0 1,0 1,0-1,0 1,1 0,-1 1,0 0,0 0,0 1,0 0,1 0,-1 1,11 4,6 2,0 2,0 0,-1 2,28 18,-39-21,0-1,0-1,0 0,1-1,0 0,0-1,1-1,-1 0,1-1,0 0,16 0,225-7,-248 4,0-1,1 0,-1 0,0-1,0 0,0 0,-1-1,1 0,-1-1,1 0,-1 0,0 0,0-1,11-10,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6012.82">2695 76,'7'-6,"1"-1,1 1,-1 0,1 1,0 0,0 0,1 1,18-6,-9 4,1 1,1 1,29-2,-48 6,1 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-1 2,3 13,-2-1,0 1,-2 31,0-29,0 1,0-1,-2 1,0-1,-1 0,-2 0,-7 19,9-27,-2 0,0-1,0 0,-1 0,0-1,-1 0,0 0,-1-1,0 0,-18 15,17-17,1 1,0-1,-1 0,0 0,0-1,-1-1,1 1,-1-2,-1 1,-15 3,25-8,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,-1-1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-6,0 5,0 0,0-1,1 1,-1 0,1 0,0 1,0-1,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,1 0,0 0,-1 0,1 0,5-3,-1 2,0 2,1-1,0 1,-1 0,1 0,0 1,0 0,0 1,0-1,0 2,0-1,0 1,0 0,0 1,15 4,-8 0,1 1,-1 0,0 1,-1 1,1 0,18 16,47 37,-66-51</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink241.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:42.405"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 289,'0'1,"0"-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,15-6,12-10,110-94,-105 81,2 1,1 1,70-40,-103 66,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0 0,0-1,0 1,-1 0,1 0,0 1,0-1,4 2,-5-1,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,-1-1,1 1,0-1,-1 6,14 75,6 151,-21 92,-1-160,2-121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.99">821 475,'4'0,"11"0,8-4,8-2,8-5,11-4,6 0,2 3,1 3,3 3,1 3,-2 2,-7 0,-3 2,-6-1,-11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1240.21">1112 660,'4'0,"7"0,14 0,8 0,2 0,10 0,5 0,4 0,-4 0,0 0,-5 0,-5 0,-6 0,-8 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink242.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:53.535"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 26,'0'5,"0"10,0 16,0 12,0 3,0 8,0-2,0 0,0 0,0 0,0-4,0 3,0 6,0-1,0-3,0-13,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1222.99">107 26,'33'-1,"56"-11,-61 7,1 1,54 1,-80 3,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,0 3,1 12,0 0,-2 0,0 0,-4 19,4-31,1 0,-1 0,0 0,-1 0,1-1,-1 1,0 0,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 0,0 0,1-1,-1 1,0-1,-1 0,1-1,-1 1,-8 2,-7 0,0-1,0 0,0-2,-1-1,-36-2,31 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1858.99">769 132,'4'0,"6"0,11 0,5 0,9 0,1 0,1 0,-3 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583.02">821 238,'4'5,"7"1,9 4,7 1,8 2,6 0,1-3,-2-3,-3-3,-4-2,-3-1,-2-1,-6 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink243.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:33:57.381"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">953 0,'0'5,"0"5,0 11,0 10,0 9,-5 16,-1 7,-4-7,-5-8,0-4,3-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="938.02">1 476,'92'5,"0"3,112 25,-111-16,28-4,1-4,180-11,-117-1,123 2,-280 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4608.06">213 794,'3'4,"-1"0,1 0,-1 1,1-1,-1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,1-1,-1 1,0 8,-1 0,0 1,-1-1,0 0,-6 18,1-13,-1-1,-1 0,0 0,-2-1,0 0,0 0,-2-1,-26 24,-2 6,36-41,1 1,1 1,-1-1,1 0,0 1,0 0,1 0,-4 11,5-15,1-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 1,0-1,-1-1,1 1,0 0,2 1,16 3,-1-1,2-1,-1-1,0 0,1-2,33-2,-32 1,8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5491.06">583 1006,'-5'7,"1"1,1-1,-1 0,1 1,0 0,1-1,0 1,0 0,-1 15,-1-1,-7 60,2 1,5 0,7 111,0-41,-3-35,0-85</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6479.06">953 1058,'-5'5,"-1"6,1 14,0 8,2 11,1 8,-8 4,-3 1,2-5,-2-1,0-6,4-6,2-4,4-5,1-2,5-6,8-7,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7200.06">1377 1006,'0'5,"0"14,0 14,0 27,0 9,0 1,0-2,0-8,0-10,0-9,0-6,0-6,0-2,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8625.06">821 1244,'0'-6,"1"-1,-1 1,2-1,-1 1,1-1,0 1,0 0,1 0,0 0,5-8,44-55,-13 19,-35 43,0 1,0-1,1 1,0 0,0 0,0 0,1 1,0 0,0 0,0 0,1 1,0 0,-1 0,1 0,1 1,-1 0,0 1,1 0,-1 0,1 0,8 0,21 1,0 1,0 2,0 2,0 1,49 14,20 2,-83-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10201.06">1668 847,'94'-1,"103"3,-194-1,0-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1-1,1 1,-1 0,1 2,1 12,-1 0,0 0,-4 32,2-26,1-17,0-1,0 1,-1 0,0 0,0-1,0 1,-1-1,0 1,0-1,0 0,-1 1,0-1,0-1,0 1,0 0,-1-1,1 1,-1-1,-1 0,1 0,0-1,-1 1,0-1,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,1-1,-1 0,1 0,-1 0,-7-1,4 1,-2 1,1-1,-1 0,0-1,1 0,-1-1,0 0,1 0,-1-1,-14-5,24 6,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0-2,1 2,0-1,0 0,-1 1,1-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,1 0,2-2,3-1,0 0,0 1,1-1,-1 1,1 1,11-3,-5 3,-1 1,1 1,-1 0,1 1,0 0,-1 1,1 0,-1 2,14 4,7 6,66 36,-94-46,31 16</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink244.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:34:27.960"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">563 61,'-1'8,"0"0,0-1,0 1,-1-1,0 1,0-1,-1 0,0 0,0 0,-6 10,-7 6,-30 35,33-44,1 1,1 0,0 1,1 0,-9 21,16-32,1 0,0 0,1 0,0 1,-1-1,2 0,-1 1,1-1,-1 1,2-1,-1 1,0-1,3 7,-2-9,0-1,0 1,1-1,-1 0,1 0,-1 0,1 1,0-2,0 1,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,-1 0,4-1,8 0,0-1,-1 0,1-1,-1-1,1 0,-1 0,0-1,-1-1,16-9,-6 2,0-2,-1 0,-1-1,20-21,-33 29,0-1,-1 0,0 0,0-1,-1 1,0-1,0-1,-2 1,1 0,-1-1,0 0,0-11,2-19,0-75,-5 92,-1 22,-1 6,-6 18,-8 34,-20 106,-57 162,-53 62,103-288,-105 172,138-254,-2 0,0 0,0-1,-1-1,-22 19,30-29,1 0,-1-1,0 0,-1 1,1-2,0 1,-1-1,1 1,-1-1,0-1,0 1,0-1,0 0,0-1,0 1,0-1,0 0,0-1,0 0,0 0,-9-2,10 0,0 1,0-1,1 0,-1 0,1-1,0 0,0 1,0-1,0 0,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,1-1,-1 1,1 0,-1-9,-2-5,2 0,0 0,1 0,3-36,-2 46,2 0,-1 1,1-1,0 1,1 0,0 0,1 0,-1 0,1 0,1 0,5-7,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.09">1145 273,'9'0,"16"0,9 0,7 0,2 0,2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1482.09">1119 643,'4'0,"6"0,11 0,6 0,7 0,25 0,7 0,2 0,-7 0,-10 0,-7 0,-13 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink245.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:34:31.691"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">865 0,'0'9,"0"8,0 10,-5 13,-1 14,-4 2,-1 5,2 1,3 0,-8-3,0-6,1 1,4-4,3-2,2-4,2-1,2-3,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="739.13">230 926,'323'-2,"433"5,-703 0,79 15,-129-17,-2-1,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 2,-6 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1842.8">230 1270,'-4'2,"1"0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1-1,1 2,0-1,0 0,0 0,-1 4,-3 2,-166 272,171-279,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,-1-1,1 0,2 2,1 0,0-1,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 1,9-1,169-4,-155 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2676.8">335 1429,'0'5,"0"14,0 9,0 9,0 7,0 5,0 3,0-3,0 0,-5 4,-1-2,1-5,0-6,2-5,1-4,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3515.8">759 1482,'0'5,"0"14,0 14,0 5,0 6,0 8,0 0,0-4,0-6,0-6,0-4,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4207.8">1050 1455,'0'5,"0"15,0 12,0 16,0 12,0 5,0 0,0-5,0-5,0-7,4-3,2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5318.8">626 1667,'-1'-19,"2"-1,0 0,1 0,9-34,-10 49,0 1,1-1,-1 1,1 0,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 1,0-1,1 1,-1-1,1 1,8-1,43-1,77 6,-34 0,-82-2,0 0,0 1,22 5,-17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7078.8">1341 1376,'4'0,"0"-2,0 1,0 0,0-1,0 0,0 0,0 0,0 0,3-4,18-8,-7 6,1 0,0 1,1 2,-1-1,1 2,0 1,0 0,0 2,28 0,-46 2,0-1,1 0,-1 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1-1,2 5,-2 0,1-1,-1 0,0 1,0 0,0-1,-1 1,2 11,-2-2,-1 0,0 0,-1 0,0 0,-7 27,4-31,0 0,0 0,-1-1,0 0,-1 0,0 0,0-1,-1 0,-1 0,1 0,-2-1,-17 14,12-12,-1 0,0-1,-1-1,0 0,-1-2,1 1,-31 6,44-13,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,2 0,-1 0,0 0,-5-2,8 2,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,1-3,0 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,-1 0,4-2,2-1,-1 0,1 0,0 1,1 0,-1 0,1 1,0 0,0 0,0 1,0 0,0 0,0 1,1 0,-1 0,10 1,-6 1,0 0,-1 0,1 1,0 0,-1 1,1 0,-1 1,0 0,0 1,10 6,-4-2,-1-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink246.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:34:42.139"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 743,'-2'-2,"0"0,0 0,0 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,4-4,4-5,1 0,1 1,0 1,0-1,15-7,-7 5,1 1,1 1,0 1,0 0,1 2,-1 0,2 2,-1 1,1 0,-1 2,1 1,0 1,28 3,-46-2,1 0,-1 1,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,3 6,7 12,-2 0,0 0,8 29,-11-32,33 100,28 129,-30-99,-38-143,-1-1,1 1,1-1,-1 0,1 1,0-1,0-1,1 1,-1 0,1-1,1 0,-1 0,1 0,0 0,0-1,0 0,0 0,1 0,0 0,0-1,10 4,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="602.52">1062 347,'-12'20,"0"0,-1-1,-1-1,0 0,-30 27,-93 69,101-86,-253 185,-183 152,454-348</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2580.68">1379 135,'0'-2,"1"-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 0,-1-1,1 1,0 1,2-3,31-27,-29 26,3-3,1 1,-1 1,1-1,0 2,0-1,1 1,-1 1,1 0,0 1,0 0,1 0,-1 1,0 1,20-1,-28 3,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,1 0,-2 0,1 0,0 0,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,0-1,0 5,4 13,-2-1,0 1,1 25,-2-19,-2 0,0 0,-9 53,7-71,0 0,-1 0,0 0,-1 0,1-1,-2 0,1 0,-1 0,-1 0,1-1,-1 1,-1-1,1-1,-1 0,-8 6,-54 32,65-41,-1-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,-1 0,1-1,0 0,0 0,-7-1,10 1,1-1,-1 1,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,2-2,-1-1,1 1,0-1,-1 1,1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,0 1,0 0,0 0,0 0,0 0,7-3,3 2,1 0,0 1,0 0,0 1,0 1,0 0,0 0,0 2,0 0,0 0,0 2,24 8,7 7,-2 1,58 36,-56-30,-1-8,-25-13</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink247.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:08.980"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">376 0,'-4'2,"1"-1,0 0,1 1,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,-2 5,-2 2,-46 76,4 2,-59 150,95-208,-8 14,3 1,1 1,3 0,1 0,3 2,-7 92,16-118,2 190,1-174,2-1,1 1,18 58,-4-38,2-1,3 0,3-2,1-1,52 68,-71-106,-1 0,0 1,-1 0,-1 0,6 23,-5-17</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink248.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:04.308"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">318 79,'-5'0,"-1"5,1 15,0 12,-3 11,0 6,-3 5,-5 1,-3 6,-8 18,0 6,6-8,1-7,5-12,4-11,4-9,4-6,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1024.99">292 132,'8'-6,"1"-1,-1 1,2 1,15-8,11-6,-14 4,2 2,36-17,-52 27,-1 0,1 0,0 1,0 0,0 0,1 1,-1 0,0 0,1 1,-1 0,0 1,11 1,-16-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,3 4,12 44,-12-35,3 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1876.99">1 397,'4'0,"6"0,7 5,3 1,4-1,2 0,6 3,11 4,6 1,5-2,2 6,-4 0,-7 1,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3547.58">530 767,'48'-7,"-41"5,0 1,0 0,0 0,-1 0,1 1,14 1,-18-1,-1 1,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,0-1,-1 1,1 0,0 0,0-1,-1 1,1 1,-1-1,0 0,1 0,-1 0,0 1,-1-1,1 0,1 3,5 19,-1 0,0 1,-2-1,-1 1,-1 0,-1 0,-1 0,-5 41,4-56,-1 0,0 0,0 0,-1 0,-1 0,1-1,-2 1,1-1,-1 0,-1-1,1 1,-1-1,-1 0,0 0,0-1,0 0,-1 0,0-1,0 0,-1 0,0-1,0 0,-18 7,24-10,-1-1,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1-1,-1 1,-4-3,6 2,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,1 0,0-5,-1 5,0 0,1-1,0 1,-1 0,1 0,0 0,0-1,1 1,-1 0,1 1,0-1,-1 0,1 0,0 1,1-1,-1 1,0-1,1 1,5-4,-4 4,0 0,1 1,0-1,-1 1,1 0,0 0,-1 0,1 0,0 1,0 0,0 0,6 1,5 2,1 0,-1 1,0 1,0 0,-1 2,28 14,13 16,-39-25,1 0,23 11,-13-11</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink249.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:10.829"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'16'20,"0"1,-1 0,-1 1,17 37,-21-41,30 61,-3 1,49 158,-70-179,-3 1,-2 1,-3 0,0 122,-19-11,7-145,-1 1,-1-1,-2-1,-12 31,-5 0,-24 66,43-109,-1 0,0-1,0 1,-1-1,-1-1,0 0,-14 14,-25 35,38-43</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19371,6 +22246,310 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink250.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:19.800"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">370 0,'-10'1,"0"-1,1 1,-1 1,1 0,0 0,-1 1,1 0,0 0,1 1,-1 0,0 1,-7 5,4 0,0-1,0 2,1 0,0 0,1 1,-15 23,5-1,2 1,1 0,2 2,1-1,-9 41,14-31,1-1,-2 66,2-20,6-73,0 0,0 0,1 1,0-1,4 30,-2-44,-1-1,1 1,0 0,0-1,0 1,0-1,1 1,0-1,-1 1,1-1,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,0-1,-1 0,6 1,9 0,1-1,-1 0,1-1,0-2,-1 1,0-2,1-1,-1 0,0-1,27-12,17-10,87-54,-133 72,-3 1,-1 0,0-1,0 0,-1-1,0 0,0 0,-1-2,-1 1,0-1,-1 0,0-1,8-18,-7 11,-2-1,0 0,-2-1,0 1,-1-1,-1 0,-1-34,-1 35,-1-1,-1 1,-5-34,4 48,-1-1,1 1,-1 0,0-1,0 1,-1 1,0-1,-1 0,1 1,-1 0,0 0,-1 1,-6-7,0 3,0 1,0 0,-1 0,0 1,0 1,0 1,-1 0,0 0,0 1,0 1,-26-3,-12 3,-104 6,55 1,10-3,57-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink251.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:15.157"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 353,'0'-7,"1"0,1 0,-1 0,1 0,1 0,-1 0,1 1,0-1,1 1,0-1,0 1,0 1,0-1,1 0,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,13-5,-3 1,0 1,1 0,0 1,0 1,0 0,1 1,-1 1,25-1,4 3,-9-1,0 1,1 2,62 11,-96-11,1 0,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,-1 1,0 0,1 0,-2 0,1 0,0 0,-1 1,0-1,0 1,1 5,1 13,-1 0,-1 0,-2 1,-2 23,0-6,3-23,-1 0,-1 0,-1 0,-8 29,7-38,1 1,-2-1,1-1,-1 1,0-1,-1 1,0-2,-1 1,1-1,-11 9,-21 15,-1-2,-2-2,0-1,-2-3,0-1,-2-2,-85 25,130-45,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,12-9,22-12,-24 16,18-11,0 1,50-17,-69 30,-1-1,1 1,-1 0,1 1,0 0,-1 0,1 1,0 0,0 1,0 0,-1 0,1 1,0 0,15 6,4 7,0 2,-2 0,0 2,34 31,22 17,-48-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="672.99">1165 36,'0'9,"0"17,0 12,0 18,0 14,0 7,0 0,0 1,0-5,0-9,0-3,0-7,0-8,0-7,4-11,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1236.99">1642 221,'0'9,"0"12,0 16,0 33,0 27,0 7,0-2,0-9,0-15,0-17,0-14,0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2358.99">1139 380,'-43'-35,"35"29,1 0,-1 0,1 0,1-1,-1 0,1 0,-10-16,11 13,0-1,2 1,-1-1,1 1,0-1,1 0,1 0,0 0,0-1,1 1,0 0,4-22,-3 28,-1 0,1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,1 0,-1 0,1 0,-1 0,1 1,0-1,1 1,-1 0,1 0,-1 1,1 0,0-1,0 1,0 1,0-1,9-1,44 0,102 7,-44 0,-79-4,-22-1,0 0,0 1,0 1,0 0,0 1,0 1,0 0,-1 1,1 0,-1 2,21 9,19 23,51 44,17 14,-111-90,-1 0,1-1,0 0,0 0,0-1,1-1,-1 0,1-1,0 0,21 1,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3084">2621 988,'0'5,"0"6,0 5,0 5,0 3,-5 7,-1 2,-4 9,-5 6,-1 1,4-5,3-5,3-5,3-3,2-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink252.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:27.005"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">377 48,'-2'24,"0"0,-7 29,-4 38,12-59,-1 3,5 66,-2-90,1 0,0-1,1 1,0-1,0 0,1 0,1 0,0 0,0-1,9 13,-9-16,0 0,0 0,1 0,0-1,0 1,0-1,0-1,1 0,0 1,0-2,0 1,0-1,0 0,1-1,0 0,-1 0,1-1,0 1,0-2,0 1,0-1,0 0,0-1,-1 0,12-3,-7 2,1-2,-1 0,0 0,0-1,-1-1,0 0,0 0,0-1,-1 0,18-17,6-9,47-58,-56 61,-9 11,-1-1,0 0,-2-1,12-23,-19 30,-1 0,0 0,-1 0,0-1,-1 1,0-1,0-28,-5-62,3 180,-3-28,3-1,2 1,14 74,4-39,-3-16,-2 1,12 125,-26 274,-5-225,3-232,0-1,-1 0,-1 0,1 0,-1 0,0 0,-1-1,0 1,0-1,-1 1,0-1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0-1,0 0,-1 0,0-1,0 1,-7 2,-4 2,-1-2,1 0,-1-1,-1-1,1 0,-1-2,1 0,-1-2,-20 0,-9-1,0-3,0-2,-78-19,96 16,1-2,1-1,-1-1,2-2,0 0,-47-35,45 28,1-3,1 0,2-2,-37-44,55 60,0 0,1 0,1-1,0 0,0 0,1-1,0 1,1-1,1 0,0 0,0-1,1 1,1 0,0-1,1 1,0-1,2-12,5-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink253.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:28.022"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"11"0,12 0,10 0,13 0,10 0,1 0,-2 0,-6 0,-13 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink254.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:35.100"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'0,"15"0,14 0,9 0,12 0,1 0,0 0,-5 0,-1 0,-6 0,0 0,-3 0,-9 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink255.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:36.390"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">907 0,'-4'1,"1"-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,-1 7,-4 8,2 0,0 1,-4 27,8-40,-86 748,84-662,3-62</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="690.52">60 1190,'60'3,"70"12,-10-1,896 8,-992-22,38 3,0 2,73 17,-62-9,-41-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2710.53">192 1640,'-4'4,"1"0,-1 0,1 1,0-1,1 1,-1-1,1 1,0 0,0 0,-2 6,2-4,0-2,-20 50,-3-1,-1-1,-39 56,63-107,0 1,0 0,1-1,-1 1,0 0,1 0,0 0,0 0,0 0,-1 6,2-8,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,1-1,42 5,0-2,1-2,-1-2,54-9,-55 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3284.52">457 1667,'0'5,"0"5,0 11,0 6,0 7,0 12,0 2,0-3,0 1,0 1,0-3,4-5,2-4,0-3,-2-3,-1 2,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3989.52">827 1825,'0'5,"0"10,0 16,0 12,0 12,0 2,0-6,0-5,0-8,0-4,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4553.52">1066 1825,'4'0,"2"5,0 6,-2 9,-1 7,4 17,0 4,-1 4,-2-2,-1-2,-1 1,-1-3,-1-6,4 0,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5543.52">616 1905,'0'-2,"1"-1,-1 0,1 0,0 0,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0-1,0 1,0 1,0-1,1 0,-1 0,0 1,5-2,64-28,-59 27,26-8,0 3,1 1,64-5,-78 13,-1 0,0 2,0 1,0 0,39 13,6-1,-36-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7144.52">1462 1640,'8'0,"1"-2,-1 1,1-1,12-4,26-6,-34 10,0 1,-1 1,1-1,0 2,0 0,-1 1,16 3,-24-3,1 0,-1-1,0 1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 8,3 25,-2 0,-1 0,-2 0,-7 54,6-87,0 1,0-1,0 0,-1 1,0-1,1 0,-1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 0,0 0,-8 3,6-2,-1-1,1 0,-1 0,0 0,1-1,-1 0,0 0,0-1,0 0,0 0,1-1,-1 0,0 0,-11-4,17 5,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,1-1,-1-2,1 2,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,4 1,4-1,0 1,-1 0,1 0,0 1,0 0,-1 1,1 0,14 6,3 3,39 22,-14-6,-31-18</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink256.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:35:48.325"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 1045,'0'1,"0"0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 0,1 1,2-1,27 6,-22-4,17 3,0 1,0 1,-1 2,0 0,-1 2,0 0,-1 2,0 0,39 32,0 9,96 111,-70-70,-76-83,1 0,0-2,0 1,1-2,0 0,1 0,0-1,1-1,24 9,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654">746 912,'-5'5,"-5"6,-6 0,-10 13,-8 6,-8 3,-2 0,-1 4,-3 0,-2 2,-6 9,-3 0,1-4,4-4,12-5,9-8,10-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1521">1487 1230,'9'0,"7"0,6 0,3 0,3 0,0 0,0 0,0 0,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2880">2043 992,'7'-5,"0"0,1 1,0-1,0 1,0 1,0-1,1 2,12-4,16-6,12-10,48-18,-88 37,0 0,0 1,0 0,1 1,-1 0,0 0,1 1,13 1,-19 0,1 1,0 0,-1-1,1 2,-1-1,1 0,-1 1,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 1,1-1,-2 1,4 7,2 10,-1 0,-1 1,3 32,-4-30,-2 0,0 0,-2 0,-5 40,3-54,0 1,-1-1,0-1,-1 1,0 0,-1-1,0 0,-1 0,0 0,-1-1,1 0,-12 12,6-8,-1-1,0 0,0 0,-1-1,-1-1,0-1,0 0,-1-1,0 0,0-1,-1-1,-21 5,32-10,-66 12,67-13,1 1,-1-1,0 0,1 0,-1-1,0 1,1-1,-1 0,0 0,1 0,-1-1,-5-3,10 5,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,15-5,17 0,25 0,0 4,74 7,-111-4,-1 0,0 2,0 0,0 2,0 0,-1 1,0 0,0 2,-1 0,25 17,-28-15,0-1,1-1,0 0,24 10,-8-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3679">3471 754,'0'104,"4"-1,23 132,-9-149,12 79,-30-155,0 0,0-1,-1 1,0 0,-5 18,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4440">3842 701,'4'0,"2"5,0 5,-2 15,4 13,0 8,3 19,0 16,3 8,-2-6,-2-5,2-5,-2-7,-3-2,-1-6,1-9,1-8,-2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5650.99">3101 1071,'0'-5,"-1"-22,2 1,5-33,-4 50,0-1,1 1,0 0,1 0,0 0,0 1,0-1,1 1,10-12,-8 11,0 0,1 1,0 0,1 1,-1 0,1 0,0 1,1 0,0 0,16-6,-11 7,1 1,0 0,1 2,-1-1,0 2,27 0,720 6,-685-9,-45-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6727.02">244 198,'-1'1,"0"-1,-1 0,1 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 2,-11 29,8-20,-15 42,3 1,3 1,-13 107,21-120,-5 8,-2-1,-27 71,23-77,2 1,2 1,-8 56,12 24,10 132,1-95,-3-151,0 1,1-1,1 1,0-1,0 0,2 0,-1 0,2 0,-1-1,2 0,8 16,-8-19,-1-1,1 0,1 0,-1-1,1 0,0 0,0-1,1 1,0-2,-1 1,2-1,-1 0,0-1,1 0,0 0,12 2,14 0,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7753">4636 489,'1'34,"2"-1,1 0,2 0,1-1,1 1,15 33,91 185,-3-6,-95-197,-1 2,-4-1,-1 1,3 54,-8-10,-8 121,1-190,-1-1,-1 1,-2-1,0 1,-2-2,-17 39,20-50,-1 0,0 0,-1-1,0 0,-1 0,0-1,-1 0,0-1,-1 0,0 0,0-1,-1 0,0 0,-15 7,21-14,1 1,-1-1,1 1,-1-1,0 0,1-1,-1 1,0-1,0 0,1 0,-1-1,-6 0,-21-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9380">4874 171,'0'-2,"1"0,-1-1,1 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,3-1,37-23,10 4,1 2,1 2,110-21,-164 39,13-3,1 1,-1 0,1 1,15 1,-26 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,1 3,1 15,0 1,-2 0,0-1,-2 1,-4 30,1 10,3-31,-2-1,0 1,-3-1,0 0,-16 44,17-61,0-1,0-1,-1 1,-1-1,0 0,0 0,-1-1,-1 0,0-1,0 0,-1 0,0-1,0 0,-1 0,-18 9,-1-5,-46 14,1-1,69-22,-1-1,1 1,-1-2,0 1,0-1,0 0,0 0,0-1,0 0,0 0,-13-2,16 1,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1-6,0 2,0-1,0 0,1 0,0 0,1 0,0 0,2-16,-2 22,1 0,0 0,-1 0,1 1,0-1,0 0,1 0,-1 1,1-1,-1 0,1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,4-1,5 0,1 1,-1 0,0 1,1 0,-1 1,1 0,-1 1,0 1,0 0,0 0,16 8,14 8,70 44,3 1,-86-50,-12-5,0 0,0-2,1 0,0-1,0-1,1-1,0 0,-1-1,21 0,38-3,114 2,-123 4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink257.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:36:07.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1415 903,'-5'0,"-5"0,-6 0,-1 23,-5 16,-5 6,4-1,4 7,6-1,1-1,2-4,4 0,1-3,-1-5,-1-4,1-3,2-2,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="671.99">1786 1008,'4'0,"2"9,0 17,-2 22,-1 11,-1 0,-5 9,-7-3,-6-8,-1-10,4-7,2-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2162.01">1018 876,'2'-4,"1"1,0-1,0 0,1 1,-1-1,1 1,0 0,0 0,0 1,0-1,5-2,-4 2,5-3,0 1,0 0,0 0,1 1,0 0,-1 1,1 0,0 1,1 0,-1 1,0 0,0 1,1 0,-1 1,0 0,0 1,0 0,0 1,0 0,20 9,8 7,0 1,-1 3,-2 1,38 32,4 1,-56-41,0-1,1-2,0 0,1-1,0-2,1 0,35 8,-19-9,72 6,-97-14,0 0,0-2,0 0,0 0,0-2,-1 0,26-8,-14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3610.99">939 135,'-10'1,"1"0,-1 0,1 1,0 0,0 0,0 1,0 1,-13 6,-66 44,45-25,-28 20,-123 113,99-79,62-56,0 1,2 2,1 0,2 3,1 0,-28 46,36-44,2 1,2 1,1 0,2 1,1 1,3 0,1 0,1 1,3-1,1 1,1 0,3 0,9 54,-2-57,2-1,2-1,1 0,2-1,1 0,29 40,-1 4,-42-72,0-1,1 0,0 0,0 0,0-1,0 1,1-1,0 0,-1 0,2 0,-1-1,0 0,1 0,-1 0,1-1,0 0,9 3,5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4486.99">2421 1564,'0'5,"-9"5,-12 15,-7 8,-8 7,-2 6,1-5,2 0,2-3,3 1,2-6,6-4,1-7,5-3,5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5883">3029 1088,'1'-9,"0"0,1 1,0-1,1 0,0 1,0-1,1 1,0 0,0 0,1 0,0 1,0-1,13-12,2-1,2 0,46-35,91-49,-138 93,0 1,1 2,0 0,1 1,0 1,24-4,-42 10,0 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,0 0,-1 0,7 5,-5-2,-1 0,1 0,-1 1,0-1,-1 1,1 0,-1 0,-1 1,1 0,2 8,3 10,-1 1,-2 0,0 0,-2 0,1 31,-2-15,-1 1,-2 0,-2-1,-12 67,11-95,0-1,0 1,-2-1,0 0,0-1,-1 1,0-1,-1 0,-1-1,0 1,0-2,-1 1,-1-1,0 0,0-1,-1-1,0 1,-14 7,12-8,-12 5,0 0,-45 16,63-27,1 0,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,1 0,-1-1,0 0,1 0,-1 0,1-1,0 0,0 0,-8-4,12 5,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,1-1,0 1,-1 0,1 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,3-2,3-4,-1 1,1 0,0 1,0 0,1 0,-1 1,2-1,-1 2,17-8,-15 8,1 1,0 0,-1 1,1 1,0-1,0 2,0-1,0 2,0-1,0 1,0 1,0 0,12 4,4 5,-1 0,0 2,37 24,-29-17,47 22,-54-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6632.99">4537 717,'0'5,"0"15,0 17,-5 39,-1 10,1 5,0-9,2-14,1-9,1-11,0-9,1-6,-4-4,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7359">5066 744,'0'14,"0"17,0 27,0 43,0 19,0 1,0-10,0-14,0-21,0-18,0-14,0-10,-5-7,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8646.26">4246 903,'-1'-35,"0"19,0 0,1 0,1 0,1 0,4-17,-5 30,0-1,0 0,0 1,1 0,0-1,-1 1,1 0,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,6 0,36-3,0 2,71 6,-27 0,-79-4,0 0,1 1,-1 0,0 1,0 0,0 1,0 0,0 1,-1 0,0 1,0 0,0 1,14 9,-7-3,1-2,0 0,1-1,0-1,0-1,1-1,39 8,-24-9,-1-2,1-1,68-5,-94 2,0-1,0 1,0-2,0 1,9-5,7-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9962.24">5516 3,'110'-1,"-22"-1,153 16,-231-12,1-1,-1 2,0-1,1 1,-1 1,0 0,-1 0,1 1,-1 0,9 7,-12-6,1 0,-1 0,0 1,-1-1,0 1,0 1,0-1,-1 1,0 0,0 0,-1 0,3 14,87 345,-16-58,19 106,-84-359,-1 1,5 105,-16 115,-3-118,3-155,0 0,-1-1,0 1,1 0,-2 0,1-1,0 1,-1 0,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 0,0 0,-6 2,-14 2,0-1,0-1,-42 0,44-2,-524 1,341-5,38-11,70 3,67 9</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink258.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:36:21.833"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">689 496,'-6'2,"1"-1,0 1,0 0,0 0,0 0,0 1,0 0,1 0,-8 6,-7 4,10-8,0 0,1 1,-1 1,1 0,1 0,-1 0,1 1,1 0,-1 0,2 0,-1 1,-5 12,4-5,1 1,1-1,0 1,1 1,1-1,-1 26,-1 22,3 0,9 90,-6-145,1 0,0 0,1 0,0-1,1 1,0-1,0 0,1 0,0 0,1-1,0 1,0-1,1-1,0 1,0-1,0-1,11 8,-6-6,1 0,-1-1,1 0,1-2,-1 1,1-2,0 1,0-2,0 0,0-1,21 1,331-10,-354 7,-1 0,0-1,0-1,0 0,0-1,0 0,0 0,-1-1,1 0,-1-1,0-1,-1 1,1-1,-1-1,0 0,11-12,8-7,-2-2,42-58,-60 74,-1 0,0 0,-1-1,-1 0,0 0,-1-1,0 1,-1-1,-1 0,0 1,0-21,-2 22,0 0,-1 0,0 0,-1 1,-1-1,0 0,0 1,-1-1,-1 1,0 0,0 1,-1-1,-1 1,1 0,-17-17,12 16,0 1,-1 1,0 0,0 0,-1 1,-1 1,1 0,-1 1,0 0,0 1,-1 1,-17-3,-103-29,102 25,-1 2,-1 1,0 1,-58-3,-122 12,184-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1618.99">822 19,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-2 0,-37 0,-389 19,419-19,0-1,1 1,0 1,0-1,0 1,-16 4,22-3,0-1,0 0,0 1,1 0,-1-1,0 1,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,-1 0,0 3,-15 56,3 1,3 0,-5 82,6 90,10-149,-5 0,-17 104,-21-24,28-118,2 1,2 1,2 0,-2 57,11-104,1 0,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0-1,6 2,10 2,-1-1,1-1,0 0,20-2,-14 0,159 11,27 1,-179-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2423.99">2012 1210,'0'5,"0"6,-9 14,-3 7,-4 4,1-1,2-1,5-2,-2-3,1 0,-2-7,0-1,-2-5,2-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink259.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:36:25.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">424 396,'0'9,"0"17,0 17,0 10,-5 33,-5 14,-2 0,2-8,2-16,-2-20,1-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="902.01">715 502,'1'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,0 2,5 41,-5-35,4 376,-5-223,-4-96,-1-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2124.12">1 555,'0'-2,"0"1,1-1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 0,1-1,2-1,30-20,-28 19,15-10,1 1,1 0,0 2,1 1,0 1,0 0,1 2,0 1,1 1,-1 2,42-2,-20 5,-22-1,-1 1,1 1,-1 1,0 1,0 1,0 1,30 10,-27-3,0-2,0-2,1 0,1-2,-1 0,1-3,42 2,-45-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3332.12">1139 0,'5'1,"1"-1,-1 1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,0 1,0 0,-1 1,0-1,1 1,-1 0,0 0,-1 0,6 8,5 8,-1 1,-1 1,11 27,-9-20,6 19,-3 1,20 82,-9-26,-15-62,0-4,-1 1,-3 0,-1 1,4 68,-11-65,-9 393,5-411,-2 1,0-1,-2-1,-1 1,0-1,-25 46,-3-9,-52 70,52-81,18-24</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -19399,6 +22578,113 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3154.99">2091 0,'-4'6,"0"-1,1 1,0-1,0 1,1 0,-1 0,1 0,1 0,-2 7,-9 25,-93 230,94-227,1 0,1 0,3 1,-2 77,7-83,6 124,-5-158,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0-1,-1 0,1 1,0-1,0 0,2 0,-1-1,0 0,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,0-4,8-23,-2-1,-1 0,-1 0,-2-1,-1 0,-2 1,-4-65,-6 63,-3 6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4462.99">2647 211,'-10'0,"0"0,0 1,0 0,0 1,0 0,0 0,1 1,-1 0,-13 7,17-6,-1 0,1 1,0 0,0 0,0 0,1 1,0 0,0 0,0 0,1 0,0 1,-6 13,3-5,1 1,1 0,0 0,-2 23,5-30,1 0,0 0,1 0,0 0,0 0,1 0,0 0,1-1,4 16,-4-21,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0-1,1 0,-1 1,0-1,1-1,-1 1,1 0,-1-1,1 1,-1-1,5-1,15 2,-1-2,32-5,-44 5,-4 0,1 0,-1-1,0 1,0-1,0-1,0 1,0-1,0 0,-1 0,1-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 0,0 1,-1-1,1 0,-1 0,0-1,1-6,1-10,0-1,-1 1,-2 0,0-1,-2 1,-4-30,4 48,0-1,-1 1,0 0,0-1,-1 1,1 0,-1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 1,-1-1,1 1,-10-5,9 5,-1 0,0 0,0 0,0 1,0 0,0 0,0 1,-1-1,1 1,0 1,-1-1,1 1,-1 0,1 1,0-1,-8 3,12-3,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,0 3,-5 12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5786">2674 476,'-1'2,"1"1,-1-1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,-3 1,-59 19,38-14,-8 5,14-6,1 1,0 1,-33 18,46-22,0 0,1 0,0 0,0 1,0 0,1 0,0 0,0 0,0 1,0 0,1 0,0 0,0 0,1 0,-4 13,4-12,0 0,0 1,1-1,0 0,1 1,0-1,0 1,0-1,1 0,0 1,1-1,-1 0,1 0,3 8,0-7,0-1,0 1,0-1,1 0,0 0,0-1,1 0,0 0,0 0,0-1,10 5,-3-2,0 0,1-1,0 0,0-1,0-1,1 0,0-2,0 1,23 0,19 7,-41-7,0-1,1 0,-1-2,26 0,-39-1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,-1 0,1 0,0-1,-1 1,0-1,2-4,1 0,-1 0,0 0,-1-1,0 1,0-1,-1 0,0 0,-1 0,1 0,-2 0,0 0,0 0,0 0,-1 0,0-1,-1 1,0 1,-1-1,0 0,0 1,0-1,-1 1,-1 0,1 0,-1 0,-1 1,1 0,-1 0,-12-11,4 5,-1 0,0 1,0 1,-1 1,-1 0,0 1,0 1,-20-7,30 12,-1 1,1 1,-1-1,0 1,1 0,-1 1,0 0,1 0,-1 1,-8 1,11-1,0 1,0 0,0 0,0 0,1 0,-1 1,0 0,1 0,0 0,0 1,0-1,0 1,0 0,1 0,-6 8,-3 9</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink260.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:36:47.378"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">151 61,'770'0,"-764"0,0 0,0 0,0 1,0-1,-1 1,1 1,0-1,10 5,-13-4,0-1,-1 1,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 5,4 15,-1 1,-2 0,0 0,-3 36,-16 100,0-2,5 54,-3 142,16 233,-1-581,0-1,0 0,-1 1,0-1,1 0,-2 1,1-1,-4 9,4-12,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-5-1,-76 6,-132-10,63-1,-308 5,1357 0,-894 0,-1 0,1 0,0 0,-1 0,1-1,0 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,0 1,2-6,0-5,0-1,0 0,-1 0,-1-22,2-1,34-202,0 9,-29 187,2 1,2 1,1 0,38-76,21-67,-66 163,0-1,-2 1,-1-1,0 1,-2-1,0 0,-3-22,-4 10,-1 1,-1 0,-2 1,-15-33,6 18,-21-83,36 109,2 9,-1 0,0 0,-1 0,-10-21,13 29,-2 1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,-1 1,0-1,1 1,-1 0,0-1,-7 0,-23-1,-1 1,1 2,-36 4,-20 1,-487-6,539 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink261.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:44:29.236"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">103 79,'0'1,"1"-1,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,1 1,4 29,-4-28,0 12,0 0,0 0,-1 0,-1 0,-1 0,0 0,-1-1,0 1,-1-1,-1 1,0-1,-1-1,-1 1,0-1,-16 22,12-17,0 1,-11 25,20-39,-1 1,1 0,0 0,0 0,1 0,0 0,0 0,1 0,-1 1,1-1,0 0,2 8,-1-12,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,2-1,64-15,-66 16,25-9,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="907">421 0,'-2'9,"0"-1,0 1,0-1,-1 0,-1 0,1 0,-1-1,0 1,-9 10,-1 6,-82 141,52-94,3 1,-49 123,84-173,0 1,-5 45,9-47,-1 0,-1-1,-13 37,8-32,1-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink262.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:44:38.241"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'5,"9"24,12 20,11 29,5 10,1 9,16 27,12 11,0-8,-7-17,-9-18,-8-20,-8-14,-4-11,-8-15</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink263.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-04-11T14:44:59.405"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1720,'1838'0,"-1480"14,1 0,-247-10,116 21,-39-3,137 28,-210-27,226 12,168-37,-473 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="989.08">4684 0,'-4'65,"-2"-1,-18 76,2-8,-3 69,-39 237,4-72,14-76,38-235,2 0,3 65,3-90</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19468,7 +22754,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15741.02">8045 714,'-13'13,"1"-1,1 2,0 0,1 0,0 1,-10 21,16-25,-1 1,2 0,-1 0,2 0,0 0,0 1,1-1,0 0,2 22,0-26,0 1,1-1,0 0,0 1,0-1,1 0,0 0,1-1,0 1,0-1,1 0,-1 0,2 0,-1 0,1-1,0 0,0 0,0-1,1 0,0 0,0 0,1-1,-1 0,1 0,14 4,-9-4,0-1,0 0,0 0,0-2,1 0,-1 0,0-1,1 0,-1-2,1 1,-1-2,0 0,0 0,0-1,21-10,-23 8,0 0,0-1,0 0,-1-1,0 0,0-1,-1 0,0 0,-1-1,13-18,-17 21,-1 1,1-1,-2 1,1-1,0 0,-1 0,-1 0,1 0,-1-1,0 1,-1 0,0 0,0-1,0 1,-1 0,0-1,-1 1,1 0,-1 0,-6-12,5 12,-1 0,0 1,0-1,-1 1,0 0,0 0,0 0,-1 1,1 0,-1 0,-1 0,1 1,-1 0,0 0,0 1,0 0,0 0,0 0,-1 1,1 0,-12-1,-15-1,-1 2,1 1,-58 6,21-1,62-4,-27 2,35-2,-1 0,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,-1 2,2-3,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,2-1,19 9,24-1,-44-8,53 5,-1-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17291.99">8627 370,'2'-2,"5"12,5 15,10 45,-3 2,18 144,13 51,-46-252,-6-20,-10-26,9 23,-1 1,0 0,-1 0,0 0,0 0,0 1,-1 0,0 0,0 0,0 1,-1 0,0 0,0 1,0-1,-1 2,1-1,-1 1,0 0,0 1,0-1,0 2,0-1,-1 1,1 1,0-1,-1 1,1 1,0-1,-15 4,20-2,-1-1,1 1,0 0,0-1,0 2,0-1,0 0,0 0,0 1,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,0 0,1 1,0-1,-1 0,1 1,0 0,1-1,-1 1,0 5,-1 9,1-1,0 0,1 1,3 18,-3-31,1-1,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 0,1 0,-1-1,0 1,1-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,8 0,13 2,1-1,-1-1,52-6,-29 2,-43 3,39-5,-43 4,1 1,-1 0,1-1,-1 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-3,1-12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18865.99">9129 767,'-1'-1,"0"0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,-1-1,-2 1,-37-4,33 4,-1 0,1 1,0 1,0-1,0 1,0 1,0-1,0 1,1 1,-1-1,1 1,0 0,0 1,0 0,1 0,0 1,0-1,0 1,0 1,1-1,-8 15,7-13,2 1,-1 0,1 0,1 1,0-1,0 1,0-1,2 1,-1 0,1 0,0 0,1 0,1 0,-1 0,1 0,1 0,0 0,3 10,-2-15,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,-1 0,1-1,1 0,-1 0,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,11 0,-12 0,1-1,-1 0,0 0,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1-1,0 1,-1-1,0 0,1 0,-1 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,-1 1,1-1,3-9,-2-8,-1 0,0-1,-2 1,-1-1,0 0,-7-36,7 57,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 1,1-1,-2 0,1 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-4 1,-25 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="77603.04">2885 2329,'0'29,"-5"181,2-169,-3 0,-19 80,31-145,2-8,2 1,1 1,1 0,24-43,-26 58,0 1,2 0,0 0,0 1,1 1,1 0,19-12,-29 21,0 1,0 0,0-1,0 2,1-1,-1 0,1 1,-1 0,1 0,0 1,-1-1,1 1,0 0,4 0,-5 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 0,1 0,-1 0,0 0,3 8,12 29,-2 0,-1 2,-2 0,-2 0,7 62,15 64,-24-141</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="77603.03">2885 2329,'0'29,"-5"181,2-169,-3 0,-19 80,31-145,2-8,2 1,1 1,1 0,24-43,-26 58,0 1,2 0,0 0,0 1,1 1,1 0,19-12,-29 21,0 1,0 0,0-1,0 2,1-1,-1 0,1 1,-1 0,1 0,0 1,-1-1,1 1,0 0,4 0,-5 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 0,1 0,-1 0,0 0,3 8,12 29,-2 0,-1 2,-2 0,-2 0,7 62,15 64,-24-141</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78608.05">3838 2223,'-14'14,"-25"24,2 2,-40 54,67-80,1 1,0 1,1-1,1 1,0 0,1 1,1 0,1 0,0 0,1 0,-1 20,4-21,-2 11,1 0,1-1,1 1,2-1,6 30,-5-46,0-1,0 0,1-1,0 1,1-1,-1 0,2 0,-1-1,1 0,0 0,1 0,-1-1,1 0,1-1,-1 0,11 5,-6-3,0-1,1-1,-1 0,1-1,1 0,-1-1,0-1,1 0,-1-1,20-1,-22-2,0 0,0 0,0-2,0 1,13-7,1-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79325.06">3494 2593,'4'0,"6"0,7 0,3 0,13 0,10 0,6 0,9 0,-2 0,-1 0,0 0,-2 0,-4 0,-11 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81102.07">4737 2223,'-31'651,"5"-492,21-137,-1-1,-1 0,-1 0,-21 39,29-61,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0 0,-5-29,3-28,3-1,2 0,2 0,17-71,70-226,-62 247,-27 99,-1 0,1 0,0 1,1-1,0 0,0 1,0 0,7-7,-10 12,0 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 1,0-1,0 0,-1 0,1 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,2 1,6 6,-1 0,0 0,-1 1,0 0,0 1,8 17,29 78,-18-39,43 80,168 262,-233-403,0-1,0 1,0-1,1 1,-1-1,1-1,0 1,1-1,-1 0,1 0,8 4,-11-7,0 0,0 0,-1-1,1 0,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,3-5,13-17,0 0,-2-1,-1-1,13-32,43-118,-63 156,150-518,-150 509</inkml:trace>
@@ -19917,7 +23203,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">280 324,'1'-8,"2"1,-1-1,1 0,0 1,1-1,0 1,0 0,1 1,-1-1,7-6,5-10,-11 16,0-1,0 0,1 1,-1 0,2 1,-1-1,1 1,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,1 1,-1 0,1 0,0 1,0 0,0 0,0 1,0 0,0 1,14 1,-21-1,1 1,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,-1-1,1 4,-1 4,1-1,-2 0,1 1,-1-1,0 0,-1 0,0 0,-7 12,-3 1,-1-1,0 0,-2-2,-1 1,-23 20,-105 81,51-46,90-72,-76 59,73-57,-1 0,1-1,-1 1,0-2,0 1,-1-2,1 1,-1-1,-10 2,18-4,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-2,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 1,-1-1,1 0,3 0,13-3,-1 0,1 2,0 0,0 1,34 3,92 18,-88-10,-37-6,-1 0,26 12,2-1,-17-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642.06">1259 192,'-5'0,"-1"9,-4 17,0 8,-4 3,2 3,2 1,3-3,2 2,3-3,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642.05">1259 192,'-5'0,"-1"9,-4 17,0 8,-4 3,2 3,2 1,3-3,2 2,3-3,1-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1189.06">1736 113,'0'5,"0"14,0 14,-9 14,-3 8,-4 9,0 2,-1 3,3 8,3-4,-1-11,1-10,3-11,3-12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2624.07">1048 298,'0'-17,"1"1,1-1,0 0,2 0,0 1,0 0,2 0,0 0,16-29,-18 37,1 1,0 0,0 0,0 1,1-1,-1 1,2 1,-1-1,1 1,-1 0,1 0,1 1,-1 0,1 0,-1 1,1 0,0 0,0 1,1 0,-1 0,13 0,26 0,1 2,-1 3,0 1,0 3,0 1,87 29,-102-28,1-2,0-1,0-1,0-2,0-1,1-1,47-7,-65 4,0-1,-1-1,1-1,-1 0,0-1,-1-1,1 0,-1-1,13-10,0 1</inkml:trace>
 </inkml:ink>
@@ -20044,7 +23330,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12539.11">2991 1641,'8'0,"0"-1,0-1,0 0,0 0,0 0,0-1,8-4,12-5,94-35,-89 31,1 2,1 2,0 1,0 1,1 3,60-7,-53 14,-8 0,-1-1,0-1,0-2,48-12,-65 10,0 1,0 1,0 1,1 0,-1 2,1-1,-1 2,1 1,30 4,-32-2,20 4,70 23,-84-23,0 0,1-1,-1-1,1-2,33 2,-29-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13530.1">6140 1668,'176'-8,"231"-40,-224 22,-12 4,663-100,-725 103,139-6,-176 18,131-28,-131 20,-25 6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15694.1">1 1641,'286'2,"312"-4,-400-11,62-1,-188 15,138-6,-167 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20187.11">1695 1403,'-13'1,"0"0,0 1,0 0,0 1,0 0,1 1,0 0,0 1,0 1,-14 8,22-12,0 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,0-1,0 1,1 1,-1-1,1 0,0 1,0-1,1 1,-1-1,1 1,0 0,0 0,1-1,-1 1,1 0,0 0,0 0,1 0,0 0,-1-1,3 7,-1-6,1 1,-1-1,1 1,0-1,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1 0,1 0,0-1,0 0,8 1,14 1,0-1,0-2,51-6,-78 6,5 0,-1-1,1 0,0 0,0-1,-1 1,1-1,-1-1,1 1,-1-1,0 0,0 0,0 0,-1-1,1 0,-1 1,1-2,-1 1,-1 0,6-9,-4 4,0-1,0 0,-1 0,-1 0,0 0,0-1,-1 1,0-1,-1 0,0-10,0 17,-1 0,0 0,0 0,0 0,0 0,-1-1,0 1,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,-1 0,1 0,-1-1,0 1,0 1,-6-6,2 4,0 1,-1-1,1 2,-1-1,0 1,0 0,0 1,0-1,0 2,-14-1,-106 4,102-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20187.1">1695 1403,'-13'1,"0"0,0 1,0 0,0 1,0 0,1 1,0 0,0 1,0 1,-14 8,22-12,0 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,0-1,0 1,1 1,-1-1,1 0,0 1,0-1,1 1,-1-1,1 1,0 0,0 0,1-1,-1 1,1 0,0 0,0 0,1 0,0 0,-1-1,3 7,-1-6,1 1,-1-1,1 1,0-1,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1 0,1 0,0-1,0 0,8 1,14 1,0-1,0-2,51-6,-78 6,5 0,-1-1,1 0,0 0,0-1,-1 1,1-1,-1-1,1 1,-1-1,0 0,0 0,0 0,-1-1,1 0,-1 1,1-2,-1 1,-1 0,6-9,-4 4,0-1,0 0,-1 0,-1 0,0 0,0-1,-1 1,0-1,-1 0,0-10,0 17,-1 0,0 0,0 0,0 0,0 0,-1-1,0 1,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,-1 0,1 0,-1-1,0 1,0 1,-6-6,2 4,0 1,-1-1,1 2,-1-1,0 1,0 0,0 1,0-1,0 2,-14-1,-106 4,102-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20699,7 +23985,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">29 231,'-18'231,"7"-112,11-211,4 1,20-126,-22 207,1 1,0-1,1 1,0 0,0 0,1 0,0 0,0 1,1 0,0 0,1 1,0-1,0 1,0 1,1-1,0 2,0-1,1 1,0 0,0 0,0 1,0 1,0-1,1 1,0 1,-1 0,1 0,0 1,17 0,-24 2,0-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 1,1-1,-1 0,0 1,0-1,0 1,1 0,-2 0,1 0,0 0,1 2,1 1,-2 1,1-1,0 0,-1 1,0-1,-1 1,1 0,1 9,-2-2,0 1,-1-1,0 1,-1-1,0 1,-1-1,-5 17,5-23,-1 1,-1-1,1 1,-1-1,-8 9,-5 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.99">876 125,'0'9,"0"8,0 9,0 6,0 1,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.98">876 125,'0'9,"0"8,0 9,0 6,0 1,0-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1513.99">1669 19,'-10'1,"1"0,0 1,0 0,0 0,0 1,0 0,1 1,-1 0,1 0,0 1,-13 10,6-4,1 0,0 2,1 0,1 0,-12 17,22-28,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,2 3,1 0,1 0,0 0,0 0,0 0,1-1,6 8,-5-7,0 0,0 1,-1 0,0 1,6 9,-5-4,0 0,0 0,-1 0,0 1,-1-1,3 17,-7-27,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-6 1,2 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,0 0,1-1,-1 1,1-1,0-1,-1 1,1-1,0 0,0-1,0 1,0-1,0-1,1 1,-1-1,1 0,-7-6,-7-13</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.99">1934 19,'-5'3,"0"-1,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,0-1,0 1,-3 6,2-5,-7 11,0 1,1 1,1 0,1 0,1 1,0 0,1 0,-6 33,11-44,0 0,1-1,0 1,0 0,1 0,0 0,0 0,1 0,3 14,-3-18,0-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,7 2,1 0,0-1,1 0,-1-1,1 0,23-2,-33 1,0 0,0-1,0 1,0-1,0 0,0 1,-1-1,1-1,0 1,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,0-1,1 0,-1 1,0-1,0 0,1-5,1-19,-1 1,-1-1,-2 0,-6-52,5 73,1 0,-1 1,1-1,-1 1,-1 0,1-1,-1 1,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 1,0-1,-8-3,-10-3</inkml:trace>
 </inkml:ink>
@@ -20729,7 +24015,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">80 115,'-1'1,"0"-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 0,-1 1,-4 27,4-20,-33 231,22-182,4-39,5-20,2-12,0-55,3-1,17-105,-18 167,1 0,0 0,0 0,0 0,0 0,1 0,1 1,-1-1,1 1,0 0,0 0,1 1,-1-1,10-8,-6 8,1 1,-1-1,1 1,0 0,0 1,0 0,1 1,0 0,14-3,12 2,-1 1,0 1,1 3,69 8,-100-8,0 0,-1 0,1 0,0 1,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,-1 0,1 1,0-1,-1 0,1 1,-1 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0-1,-1 1,1 0,-1 0,1 7,2 15,-1 0,-1 0,-1 0,-4 31,1-19,1 2,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="434.99">1033 115,'9'0,"11"0,8 0,8 0,2 0,8 0,1 0,-4 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="434.98">1033 115,'9'0,"11"0,8 0,8 0,2 0,8 0,1 0,-4 0,-8 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="988.99">980 459,'9'0,"7"0,10 0,10 0,17 0,8 0,-2 0,-2 0,-6 0,-3 0,-4 0,-7 0,-3 0,-5 5,-6 1</inkml:trace>
 </inkml:ink>
 </file>
@@ -20905,7 +24191,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 450,'9'-15,"2"0,0 1,0 0,1 0,26-21,-5 4,-33 30,3-3,1 1,-1-1,1 1,0-1,0 1,1 0,6-3,-10 5,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 0,1 1,7 28,-2 57,-9 127,0 10,2-220,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0-1,1 1,3 2,16 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="489.99">609 873,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="489.98">609 873,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1515.03">900 609,'1'0,"0"0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-3,6-31,-6 31,6-63,27-121,-19 150,-14 37,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,8 20,0 25,-2 98,-6-95,1 1,3-1,3 0,1 0,16 53,-16-84,0-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2263">1297 476,'0'-32,"2"0,1 0,12-51,-10 65,0 1,1-1,1 1,1 1,0-1,1 2,20-28,-28 42,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,1 0,-1 0,0 1,0-1,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,1 0,1 0,-1 1,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-1-1,2 3,1 8,1 0,-2 1,3 23,-2 300,-6-174,2-132</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3285.99">1562 0,'4'1,"-1"-1,1 0,0 1,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,0 1,5 3,-2 0,0 0,0 1,0 0,0 0,-1 1,4 7,5 13,-2 1,15 49,-25-71,32 141,-17-65,34 199,-45-235,-3-1,-2 1,-2-1,-8 54,5-78,-1-1,-1 0,-11 27,2-14</inkml:trace>
@@ -20936,7 +24222,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1061 105,'-7'14,"-124"274,114-243,1 2,3 0,2 0,-8 68,18-104,1-19,4-25,10-15,2 1,2 1,36-67,88-128,-132 226,-1 0,1 0,0 1,1 0,0 0,14-11,-20 21,0 1,0-1,0 1,0 0,1 1,-1-1,1 1,0 0,0 1,-1-1,1 1,0 0,0 1,0-1,0 1,0 0,1 1,8 1,-7-1,-1 1,1 0,-1 0,1 0,-1 1,0 0,0 0,0 1,0 0,-1 0,0 1,1 0,-2 0,1 0,-1 1,1 0,-1 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,0 0,-1 1,4 14,0 14,-1-1,-2 1,-2 0,-4 59,0-33,2-26,0-6,1 1,5 39,1-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="431.99">2014 291,'13'0,"9"0,15 0,14 0,7 0,13 0,6 0,5 0,-7 0,-8 0,-11 0,-10 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="431.98">2014 291,'13'0,"9"0,15 0,14 0,7 0,13 0,6 0,5 0,-7 0,-8 0,-11 0,-10 0,-13 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1099.99">2226 529,'4'0,"24"0,17 0,13 0,11 0,8 0,-6 0,-10 0,-11 0,-14 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1908">3152 449,'51'-45,"-35"32,-1 0,21-24,21-40,-40 51,1 2,1 1,27-28,-44 50,-1 0,0 0,0-1,0 1,0 0,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,2 1,-2 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 4,2 7,-1 0,0 1,0-1,-1 21,-6 66,-17 99,-1 11,21-176</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4177">3 0,'-3'450,"6"446,7-752,-8-125,2 1,0-1,1 1,1-1,8 18,-12-33,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,0 0,-1 0,1-1,0 1,4 0,8-1,-1 0,0-2,0 1,21-6,-23 4,191-28,257-8,210 32,-513 7,1999 3,-1896 11,-159-5,136-6,-233-4,1 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0-2,0 1,0 0,0-1,0 0,0 0,-1 0,0-1,1 0,-1 1,-1-2,1 1,0 0,-1-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0-1,1-8,2-12,-2 0,-1-1,-1 1,-4-54,1 41,3-35,3 1,21-109,0-2,-9-379,-16 531</inkml:trace>
@@ -21427,8 +24713,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3717.99">5854 2117,'-5'1,"1"0,0-1,0 1,1 1,-1-1,0 0,0 1,0 0,1 0,-1 0,1 0,0 1,-6 5,-38 42,40-42,-5 7,1 1,1 0,0 1,1 0,1 0,-11 33,5-5,-11 73,24-112,0 1,1 0,-1-1,1 1,1-1,-1 1,1-1,3 13,-3-17,0 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,4 0,12-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4214">5881 1879,'4'0,"2"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16196.83">1541 4181,'-2'96,"-21"147,19-218,-2-1,0 0,-1 0,-14 29,15-47,3-15,1-16,6-6,1 1,2-1,1 1,2 1,17-38,-15 35,18-41,3 2,67-107,-90 163,-2 0,2 0,0 1,1 1,16-18,-25 29,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,4 4,-1 0,-1 0,0 1,1-1,-2 1,1 0,-1 0,0 1,0-1,0 1,-1-1,0 1,-1 0,2 10,1 14,0 50,-4-69,-5 470,5-461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16835.35">2732 4049,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1 0,4 0,1 0,4 0,1 0,-3 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17435.35">2732 4287,'4'0,"6"0,11 0,15 0,15 0,12 0,4 0,10 0,-1 0,-7 5,-17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16835.34">2732 4049,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1 0,4 0,1 0,4 0,1 0,-3 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17435.34">2732 4287,'4'0,"6"0,11 0,15 0,15 0,12 0,4 0,10 0,-1 0,-7 5,-17 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58227">245 0,'66'1064,"85"-11,-74-664,15 100,-3 425,-66-617,8 789,-31-1030,-16 421,16-475,-2 6,1 1,1-1,0 1,0-1,0 1,1-1,2 9,-2-14,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 0,-1 0,1 1,-1-1,3-1,25 0,-1-1,1-1,-1-2,0-1,43-15,64-12,29 17,316 10,-473 6,554 46,-6 40,-52-8,150 23,169 22,-625-100,1924 255,-1074-129,-49-53,-947-92,690 21,-733-25,1-2,-1 1,0-1,0 0,0-1,0 0,0-1,-1 1,0-2,1 1,-1-1,-1-1,1 1,-1-1,0 0,0-1,-1 0,0 0,0 0,-1-1,6-10,8-16,-2 0,-2-2,20-68,-27 78,57-163,135-277,-4 66,-36-14,-114 244,-7-2,-8-1,14-259,-34-532,-15 658,2-1317,3 932,-1 688,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,0-1,0 1,0-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,0 0,-5-1,-7-1,-1 1,0 0,0 1,-24 2,9-1,-632 5,240 1,-1564-5,-127 1,806 24,6 1,150-27,1087-3,0-4,-97-22,-4 0,-32-10,121 22,-105-10,-575 15,452 15,272-3</inkml:trace>
 </inkml:ink>
 </file>
@@ -22165,7 +25451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB0E414-56F7-4AE7-9696-23A5A9422379}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
